--- a/study/data/stats/combined/stats-combined-eval-agreement-m1m2.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-agreement-m1m2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="11064" windowWidth="46128" windowHeight="11100" activeTab="4"/>
+    <workbookView xWindow="-12" yWindow="7224" windowWidth="46128" windowHeight="15528" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PFEF SRC" sheetId="3" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="94">
   <si>
     <t>cycling</t>
   </si>
@@ -508,9 +508,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="\+0.00;\-0.00;0"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="\+0.00;\-0.00;0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -706,14 +706,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,78 +723,78 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,7 +817,7 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -833,26 +833,23 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,13 +857,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +943,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6691018267791314E-3"/>
+                  <c:x val="3.6691018267791323E-3"/>
                   <c:y val="-1.8456611577062233E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -954,7 +954,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5970158606610128E-2"/>
+                  <c:y val="-1.5970158606610135E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -963,7 +963,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4473813020068607E-3"/>
+                  <c:x val="2.4473813020068616E-3"/>
                   <c:y val="4.1761579347000803E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1038,13 +1038,13 @@
                   <c:v>7.1428571428571425E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.8928571428571429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.9642857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,24 +1052,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="116599808"/>
-        <c:axId val="119141504"/>
+        <c:axId val="151983232"/>
+        <c:axId val="151984768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116599808"/>
+        <c:axId val="151983232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119141504"/>
+        <c:crossAx val="151984768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119141504"/>
+        <c:axId val="151984768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1079,7 +1079,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116599808"/>
+        <c:crossAx val="151983232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1089,7 +1089,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1137,7 +1137,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0523057586382415E-2"/>
-          <c:y val="7.2184264004036575E-2"/>
+          <c:y val="7.2184264004036588E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1242,11 +1242,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110693376"/>
-        <c:axId val="110695168"/>
+        <c:axId val="152835968"/>
+        <c:axId val="152837504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110693376"/>
+        <c:axId val="152835968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,24 +1265,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110695168"/>
+        <c:crossAx val="152837504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110695168"/>
+        <c:axId val="152837504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000031"/>
+          <c:max val="0.85000000000000042"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110693376"/>
+        <c:crossAx val="152835968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1292,7 +1292,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1457,11 +1457,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110719360"/>
-        <c:axId val="110720896"/>
+        <c:axId val="152869888"/>
+        <c:axId val="152875776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110719360"/>
+        <c:axId val="152869888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,14 +1480,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110720896"/>
+        <c:crossAx val="152875776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110720896"/>
+        <c:axId val="152875776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -1497,7 +1497,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110719360"/>
+        <c:crossAx val="152869888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1507,7 +1507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,7 +1554,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.558063685972081"/>
+          <c:x val="0.55806368597208089"/>
           <c:y val="6.6076008791583957E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1654,11 +1654,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110736896"/>
-        <c:axId val="110738432"/>
+        <c:axId val="152899968"/>
+        <c:axId val="152901504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110736896"/>
+        <c:axId val="152899968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1677,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110738432"/>
+        <c:crossAx val="152901504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110738432"/>
+        <c:axId val="152901504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1694,7 +1694,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110736896"/>
+        <c:crossAx val="152899968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1704,7 +1704,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1752,7 +1752,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361326E-2"/>
+          <c:y val="6.3365921852361354E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1845,11 +1845,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110766720"/>
-        <c:axId val="110772608"/>
+        <c:axId val="152946176"/>
+        <c:axId val="152947712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110766720"/>
+        <c:axId val="152946176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,14 +1868,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110772608"/>
+        <c:crossAx val="152947712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110772608"/>
+        <c:axId val="152947712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1885,7 +1885,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110766720"/>
+        <c:crossAx val="152946176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1895,7 +1895,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1943,7 +1943,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361382E-2"/>
+          <c:y val="6.3365921852361409E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2054,11 +2054,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110833664"/>
-        <c:axId val="110835200"/>
+        <c:axId val="152963712"/>
+        <c:axId val="152990080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110833664"/>
+        <c:axId val="152963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,14 +2077,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110835200"/>
+        <c:crossAx val="152990080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110835200"/>
+        <c:axId val="152990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2094,7 +2094,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110833664"/>
+        <c:crossAx val="152963712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2104,7 +2104,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2175,7 +2175,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.012493926894202E-17"/>
+                  <c:x val="-5.0124939268942064E-17"/>
                   <c:y val="1.0078561227956201E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2247,19 +2247,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.24909032857502619</c:v>
+                  <c:v>0.23904197173350483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15749692179554636</c:v>
+                  <c:v>0.16053852635810895</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.4161530114617136E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3340138509032014</c:v>
+                  <c:v>0.32069243252953417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70789843032834299</c:v>
+                  <c:v>0.69887142549059733</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.70659317575962244</c:v>
@@ -2270,24 +2270,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="130086400"/>
-        <c:axId val="153612288"/>
+        <c:axId val="152017536"/>
+        <c:axId val="152187264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130086400"/>
+        <c:axId val="152017536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153612288"/>
+        <c:crossAx val="152187264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153612288"/>
+        <c:axId val="152187264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2297,7 +2297,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130086400"/>
+        <c:crossAx val="152017536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2307,7 +2307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2355,7 +2355,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361215E-2"/>
+          <c:y val="6.3365921852361243E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2460,11 +2460,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="153749760"/>
-        <c:axId val="172650496"/>
+        <c:axId val="152199168"/>
+        <c:axId val="152200704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153749760"/>
+        <c:axId val="152199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,14 +2483,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172650496"/>
+        <c:crossAx val="152200704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172650496"/>
+        <c:axId val="152200704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2500,7 +2500,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153749760"/>
+        <c:crossAx val="152199168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2510,7 +2510,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2675,11 +2675,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="198624000"/>
-        <c:axId val="199357184"/>
+        <c:axId val="152228992"/>
+        <c:axId val="152230528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198624000"/>
+        <c:axId val="152228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,14 +2698,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199357184"/>
+        <c:crossAx val="152230528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199357184"/>
+        <c:axId val="152230528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -2715,7 +2715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198624000"/>
+        <c:crossAx val="152228992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2725,7 +2725,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2773,7 +2773,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361271E-2"/>
+          <c:y val="6.3365921852361298E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2843,28 +2843,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54686470785001706</c:v>
+                  <c:v>0.5296695321767485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57421189944602402</c:v>
+                  <c:v>0.5864202518514342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40154144939131065</c:v>
+                  <c:v>0.40494147625966653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33738525381119577</c:v>
+                  <c:v>0.34197834737448413</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66263072659092348</c:v>
+                  <c:v>0.62267381122024146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59522305648830176</c:v>
+                  <c:v>0.58995121813263396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70873065043159866</c:v>
+                  <c:v>0.67894889283158755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7668710823346665</c:v>
+                  <c:v>0.75304006184730066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,11 +2872,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="201294976"/>
-        <c:axId val="201296896"/>
+        <c:axId val="152262912"/>
+        <c:axId val="152276992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201294976"/>
+        <c:axId val="152262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,14 +2895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201296896"/>
+        <c:crossAx val="152276992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201296896"/>
+        <c:axId val="152276992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2912,7 +2912,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201294976"/>
+        <c:crossAx val="152262912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2922,7 +2922,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2970,7 +2970,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361271E-2"/>
+          <c:y val="6.3365921852361298E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3063,11 +3063,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="202263936"/>
-        <c:axId val="202372608"/>
+        <c:axId val="152309120"/>
+        <c:axId val="152315008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202263936"/>
+        <c:axId val="152309120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,14 +3086,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202372608"/>
+        <c:crossAx val="152315008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202372608"/>
+        <c:axId val="152315008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -3103,7 +3103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202263936"/>
+        <c:crossAx val="152309120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3113,7 +3113,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3161,7 +3161,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361326E-2"/>
+          <c:y val="6.3365921852361354E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3272,11 +3272,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="202751360"/>
-        <c:axId val="202939008"/>
+        <c:axId val="152326912"/>
+        <c:axId val="152328448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202751360"/>
+        <c:axId val="152326912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,14 +3295,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202939008"/>
+        <c:crossAx val="152328448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202939008"/>
+        <c:axId val="152328448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -3312,7 +3312,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202751360"/>
+        <c:crossAx val="152326912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3322,7 +3322,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3393,7 +3393,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6691018267791336E-3"/>
+                  <c:x val="3.6691018267791344E-3"/>
                   <c:y val="-1.8456611577062233E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -3404,7 +3404,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5970158606610139E-2"/>
+                  <c:y val="-1.5970158606610146E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -3413,7 +3413,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.447381302006862E-3"/>
+                  <c:x val="2.4473813020068629E-3"/>
                   <c:y val="4.1761579347000803E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -3502,24 +3502,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110583808"/>
-        <c:axId val="110585344"/>
+        <c:axId val="152631936"/>
+        <c:axId val="152641920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110583808"/>
+        <c:axId val="152631936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110585344"/>
+        <c:crossAx val="152641920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110585344"/>
+        <c:axId val="152641920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3529,7 +3529,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110583808"/>
+        <c:crossAx val="152631936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3539,7 +3539,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3659,7 +3659,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.8057060310581441E-3"/>
-                  <c:y val="0.20994361223139796"/>
+                  <c:y val="0.20994361223139799"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr/>
@@ -3753,33 +3753,33 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="110614400"/>
-        <c:axId val="110615936"/>
+        <c:axId val="152670976"/>
+        <c:axId val="152672512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110614400"/>
+        <c:axId val="152670976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110615936"/>
+        <c:crossAx val="152672512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110615936"/>
+        <c:axId val="152672512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000029"/>
+          <c:max val="0.7000000000000004"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110614400"/>
+        <c:crossAx val="152670976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3789,7 +3789,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4512,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AE40" sqref="AE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4585,51 +4585,51 @@
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="23"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
       <c r="Q3" s="23"/>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
       <c r="AA3" s="23"/>
-      <c r="AB3" s="64" t="s">
+      <c r="AB3" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AI3" s="64" t="s">
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AI3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="64"/>
+      <c r="AJ3" s="63"/>
       <c r="AK3" s="29"/>
       <c r="AL3" s="11"/>
     </row>
@@ -7109,64 +7109,64 @@
         <v>10</v>
       </c>
       <c r="C36" s="33">
-        <v>0.26800000000000002</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D36" s="34">
         <v>0</v>
       </c>
       <c r="E36" s="34">
         <f t="shared" si="4"/>
-        <v>0.27470781051792986</v>
+        <v>0.24265294877894752</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H36" s="33">
-        <v>0.192</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="I36" s="34">
         <v>0</v>
       </c>
       <c r="J36" s="34">
         <f t="shared" si="5"/>
-        <v>0.19441289455209976</v>
+        <v>0.2037744381568545</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>49</v>
       </c>
       <c r="M36" s="33">
-        <v>8.8999999999999996E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="N36" s="34">
-        <v>0.1517</v>
+        <v>0.2782</v>
       </c>
       <c r="O36" s="34">
         <f t="shared" si="6"/>
-        <v>8.9236112836501069E-2</v>
+        <v>5.906860300801333E-2</v>
       </c>
       <c r="P36" s="8"/>
       <c r="R36" s="33">
-        <v>0.378</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="S36" s="34">
         <v>0</v>
       </c>
       <c r="T36" s="34">
         <f t="shared" si="7"/>
-        <v>0.39772417941721228</v>
+        <v>0.35296225291974304</v>
       </c>
       <c r="U36" s="8" t="s">
         <v>49</v>
       </c>
       <c r="W36" s="33">
-        <v>0.85599999999999998</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="X36" s="34">
         <v>0</v>
       </c>
       <c r="Y36" s="34">
         <f t="shared" si="8"/>
-        <v>1.2781828068850725</v>
+        <v>1.2245799895064231</v>
       </c>
       <c r="Z36" s="8" t="s">
         <v>49</v>
@@ -7186,15 +7186,15 @@
       </c>
       <c r="AG36" s="36">
         <f t="shared" ref="AG36:AG43" si="14">(IF(F36="Y", E36, 0) + IF(K36="Y", J36, 0) + IF(P36="Y", O36, 0) + IF(U36="Y", T36, 0) + IF(Z36="Y", Y36, 0) + IF(AE36="Y", AD36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
-        <v>0.61389732658126328</v>
+        <v>0.58968571417919402</v>
       </c>
       <c r="AI36" s="37">
         <f t="shared" ref="AI36:AI43" si="15">(IF(F36="Y", C36, 0) + IF(K36="Y", H36, 0) + IF(P36="Y", M36, 0) + IF(U36="Y", R36, 0) + IF(Z36="Y", W36, 0) + IF(AE36="Y", AB36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
-        <v>0.48439999999999994</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="AJ36" s="37">
         <f t="shared" ref="AJ36:AJ43" si="16">(EXP(2 * AG36) - 1) / (EXP(2 * AG36) + 1)</f>
-        <v>0.54686470785001706</v>
+        <v>0.5296695321767485</v>
       </c>
       <c r="AK36" s="31">
         <f t="shared" ref="AK36:AK43" si="17">AJ36-KENTON_ALL</f>
@@ -7212,55 +7212,53 @@
         <v>11</v>
       </c>
       <c r="C37" s="33">
-        <v>0.48899999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D37" s="34">
-        <v>1.1999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E37" s="34">
         <f t="shared" si="4"/>
-        <v>0.53474522124015222</v>
+        <v>0.43201032905833187</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H37" s="33">
-        <v>0.27</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="I37" s="34">
-        <v>3.5000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="J37" s="34">
         <f t="shared" si="5"/>
-        <v>0.27686382265510007</v>
+        <v>0.30184485643764231</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="M37" s="33">
-        <v>5.2999999999999999E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="N37" s="34">
-        <v>0.75649999999999995</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="O37" s="34">
         <f t="shared" si="6"/>
-        <v>5.3049709473948575E-2</v>
+        <v>-6.2079626397829796E-2</v>
       </c>
       <c r="P37" s="8"/>
       <c r="R37" s="33">
-        <v>0.46400000000000002</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="S37" s="34">
-        <v>6.4999999999999997E-3</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="T37" s="34">
         <f t="shared" si="7"/>
-        <v>0.50239676672522737</v>
-      </c>
-      <c r="U37" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>0.28985353421619564</v>
+      </c>
+      <c r="U37" s="8"/>
       <c r="W37" s="33">
         <v>1</v>
       </c>
@@ -7288,19 +7286,19 @@
       </c>
       <c r="AG37" s="36">
         <f t="shared" si="14"/>
-        <v>0.65378411937317904</v>
+        <v>0.67219249293534733</v>
       </c>
       <c r="AI37" s="37">
         <f t="shared" si="15"/>
-        <v>0.59299999999999997</v>
+        <v>0.61050000000000004</v>
       </c>
       <c r="AJ37" s="37">
         <f t="shared" si="16"/>
-        <v>0.57421189944602402</v>
+        <v>0.5864202518514342</v>
       </c>
       <c r="AK37" s="31">
         <f t="shared" si="17"/>
-        <v>2.7347191596006959E-2</v>
+        <v>5.6750719674685701E-2</v>
       </c>
       <c r="AL37" s="13" t="s">
         <v>44</v>
@@ -7314,47 +7312,47 @@
         <v>12</v>
       </c>
       <c r="C38" s="33">
-        <v>-9.0999999999999998E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="D38" s="34">
-        <v>0.5655</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="E38" s="34">
         <f t="shared" si="4"/>
-        <v>-9.1252445827795972E-2</v>
+        <v>-6.2079626397829796E-2</v>
       </c>
       <c r="F38" s="8"/>
       <c r="H38" s="33">
-        <v>-2.5999999999999999E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I38" s="34">
-        <v>0.77500000000000002</v>
+        <v>0.42880000000000001</v>
       </c>
       <c r="J38" s="34">
         <f t="shared" si="5"/>
-        <v>-2.6005861044089869E-2</v>
+        <v>-7.0114670654325195E-2</v>
       </c>
       <c r="K38" s="8"/>
       <c r="M38" s="33">
-        <v>0.251</v>
+        <v>2.4E-2</v>
       </c>
       <c r="N38" s="34">
-        <v>0.13469999999999999</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="O38" s="34">
         <f t="shared" si="6"/>
-        <v>0.2564797634748458</v>
+        <v>2.4004609593180331E-2</v>
       </c>
       <c r="P38" s="8"/>
       <c r="R38" s="33">
-        <v>0.50800000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="S38" s="34">
-        <v>2.2000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="T38" s="34">
         <f t="shared" si="7"/>
-        <v>0.56003041603779657</v>
+        <v>0.56815090504845012</v>
       </c>
       <c r="U38" s="8" t="s">
         <v>49</v>
@@ -7378,19 +7376,19 @@
       </c>
       <c r="AG38" s="36">
         <f t="shared" si="14"/>
-        <v>0.42548533902290225</v>
+        <v>0.42954558352822902</v>
       </c>
       <c r="AI38" s="37">
         <f t="shared" si="15"/>
-        <v>0.39549999999999996</v>
+        <v>0.39849999999999997</v>
       </c>
       <c r="AJ38" s="37">
         <f t="shared" si="16"/>
-        <v>0.40154144939131065</v>
+        <v>0.40494147625966653</v>
       </c>
       <c r="AK38" s="31">
         <f t="shared" si="17"/>
-        <v>-0.14532325845870642</v>
+        <v>-0.12472805591708197</v>
       </c>
       <c r="AL38" s="11" t="s">
         <v>45</v>
@@ -7404,49 +7402,49 @@
         <v>13</v>
       </c>
       <c r="C39" s="33">
-        <v>-5.8999999999999997E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D39" s="34">
-        <v>0.71309999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E39" s="34">
         <f t="shared" si="4"/>
-        <v>-5.9068603008013372E-2</v>
+        <v>-4.0000213335381323E-3</v>
       </c>
       <c r="F39" s="8"/>
       <c r="H39" s="33">
-        <v>0.224</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="I39" s="34">
-        <v>1.5900000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="J39" s="34">
         <f t="shared" si="5"/>
-        <v>0.22786347144452632</v>
+        <v>0.20899045801999747</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>49</v>
       </c>
       <c r="M39" s="33">
-        <v>3.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="N39" s="34">
-        <v>0.81859999999999999</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="O39" s="34">
         <f t="shared" si="6"/>
-        <v>3.901979106446745E-2</v>
+        <v>4.202472217122593E-2</v>
       </c>
       <c r="P39" s="8"/>
       <c r="R39" s="33">
-        <v>0.54800000000000004</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="S39" s="34">
-        <v>8.0000000000000004E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="T39" s="34">
         <f t="shared" si="7"/>
-        <v>0.61551843715872068</v>
+        <v>0.50367188727758061</v>
       </c>
       <c r="U39" s="8" t="s">
         <v>49</v>
@@ -7465,24 +7463,22 @@
         <f t="shared" si="9"/>
         <v>0.21003499973134179</v>
       </c>
-      <c r="AE39" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="AE39" s="8"/>
       <c r="AG39" s="36">
         <f t="shared" si="14"/>
-        <v>0.35113896944486295</v>
+        <v>0.35633117264878905</v>
       </c>
       <c r="AI39" s="37">
         <f t="shared" si="15"/>
-        <v>0.32633333333333331</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="AJ39" s="37">
         <f t="shared" si="16"/>
-        <v>0.33738525381119577</v>
+        <v>0.34197834737448413</v>
       </c>
       <c r="AK39" s="31">
         <f t="shared" si="17"/>
-        <v>-0.20947945403882129</v>
+        <v>-0.18769118480226438</v>
       </c>
       <c r="AL39" s="11" t="s">
         <v>30</v>
@@ -7496,62 +7492,62 @@
         <v>2</v>
       </c>
       <c r="C40" s="33">
-        <v>0.35199999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D40" s="34">
-        <v>2.4199999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E40" s="34">
         <f t="shared" si="4"/>
-        <v>0.36772478012531734</v>
+        <v>0.31392104107608937</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="33">
-        <v>0.19400000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I40" s="34">
-        <v>3.6700000000000003E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="J40" s="34">
         <f t="shared" si="5"/>
-        <v>0.19649027572295952</v>
+        <v>0.25541281188299536</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>49</v>
       </c>
       <c r="M40" s="33">
-        <v>0.13400000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="N40" s="34">
-        <v>0.42959999999999998</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="O40" s="34">
         <f t="shared" si="6"/>
-        <v>0.13481078786263107</v>
+        <v>9.5287349275337496E-2</v>
       </c>
       <c r="P40" s="8"/>
       <c r="R40" s="33">
-        <v>0.27600000000000002</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="S40" s="34">
-        <v>0.12039999999999999</v>
+        <v>0.37890000000000001</v>
       </c>
       <c r="T40" s="34">
         <f t="shared" si="7"/>
-        <v>0.28334703575950942</v>
+        <v>0.1388861720112915</v>
       </c>
       <c r="U40" s="8"/>
       <c r="W40" s="33">
-        <v>0.86499999999999999</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="X40" s="34">
         <v>0</v>
       </c>
       <c r="Y40" s="34">
         <f t="shared" si="8"/>
-        <v>1.3128707768197432</v>
+        <v>1.0352364358485378</v>
       </c>
       <c r="Z40" s="8" t="s">
         <v>49</v>
@@ -7571,19 +7567,19 @@
       </c>
       <c r="AG40" s="36">
         <f t="shared" si="14"/>
-        <v>0.79748915237194073</v>
+        <v>0.72936026640684148</v>
       </c>
       <c r="AI40" s="37">
         <f t="shared" si="15"/>
-        <v>0.56899999999999995</v>
+        <v>0.54875000000000007</v>
       </c>
       <c r="AJ40" s="37">
         <f t="shared" si="16"/>
-        <v>0.66263072659092348</v>
+        <v>0.62267381122024146</v>
       </c>
       <c r="AK40" s="31">
         <f t="shared" si="17"/>
-        <v>0.11576601874090642</v>
+        <v>9.3004279043492954E-2</v>
       </c>
       <c r="AL40" s="11" t="s">
         <v>42</v>
@@ -7597,64 +7593,64 @@
         <v>5</v>
       </c>
       <c r="C41" s="33">
-        <v>0.46200000000000002</v>
+        <v>0.504</v>
       </c>
       <c r="D41" s="34">
-        <v>2.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="34">
         <f t="shared" si="4"/>
-        <v>0.49985104007396969</v>
+        <v>0.55465378889242878</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="33">
-        <v>0.34100000000000003</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="I41" s="34">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="J41" s="34">
         <f t="shared" si="5"/>
-        <v>0.35522367438958558</v>
+        <v>0.38379654284675468</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>49</v>
       </c>
       <c r="M41" s="33">
-        <v>-0.11</v>
+        <v>-0.107</v>
       </c>
       <c r="N41" s="34">
-        <v>0.51570000000000005</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="O41" s="34">
         <f t="shared" si="6"/>
-        <v>-0.1104469157900972</v>
+        <v>-0.1074111759160689</v>
       </c>
       <c r="P41" s="8"/>
       <c r="R41" s="33">
-        <v>0.61699999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="S41" s="34">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="T41" s="34">
         <f t="shared" si="7"/>
-        <v>0.72014643519823052</v>
+        <v>0.69942078858598955</v>
       </c>
       <c r="U41" s="8" t="s">
         <v>49</v>
       </c>
       <c r="W41" s="33">
-        <v>0.76700000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="X41" s="34">
         <v>0</v>
       </c>
       <c r="Y41" s="34">
         <f t="shared" si="8"/>
-        <v>1.013000009376998</v>
+        <v>0.90972450719508691</v>
       </c>
       <c r="Z41" s="8" t="s">
         <v>49</v>
@@ -7674,19 +7670,19 @@
       </c>
       <c r="AG41" s="36">
         <f t="shared" si="14"/>
-        <v>0.68571634707311158</v>
+        <v>0.6775912407694068</v>
       </c>
       <c r="AI41" s="37">
         <f t="shared" si="15"/>
-        <v>0.5746</v>
+        <v>0.57619999999999993</v>
       </c>
       <c r="AJ41" s="37">
         <f t="shared" si="16"/>
-        <v>0.59522305648830176</v>
+        <v>0.58995121813263396</v>
       </c>
       <c r="AK41" s="31">
         <f t="shared" si="17"/>
-        <v>4.8358348638284698E-2</v>
+        <v>6.0281685955885456E-2</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>41</v>
@@ -7700,60 +7696,60 @@
         <v>6</v>
       </c>
       <c r="C42" s="33">
-        <v>0.45800000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="D42" s="34">
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E42" s="34">
         <f t="shared" si="4"/>
-        <v>0.49477745556447855</v>
+        <v>0.39422868018213514</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="33">
-        <v>0.14199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="I42" s="34">
-        <v>0.12709999999999999</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="J42" s="34">
         <f t="shared" si="5"/>
-        <v>0.14296614536399657</v>
+        <v>0.10741117591606889</v>
       </c>
       <c r="K42" s="8"/>
       <c r="M42" s="33">
-        <v>0.114</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N42" s="34">
-        <v>0.50329999999999997</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="O42" s="34">
         <f t="shared" si="6"/>
-        <v>0.11449773494107426</v>
+        <v>-1.7001637950696636E-2</v>
       </c>
       <c r="P42" s="8"/>
       <c r="R42" s="33">
-        <v>3.6999999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="S42" s="34">
-        <v>0.83799999999999997</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="T42" s="34">
         <f t="shared" si="7"/>
-        <v>3.7016898215700859E-2</v>
+        <v>7.00011433669483E-3</v>
       </c>
       <c r="U42" s="8"/>
       <c r="W42" s="33">
-        <v>0.70499999999999996</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="X42" s="34">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="34">
         <f t="shared" si="8"/>
-        <v>0.87717251668889862</v>
+        <v>0.80531919638517513</v>
       </c>
       <c r="Z42" s="8" t="s">
         <v>49</v>
@@ -7773,19 +7769,19 @@
       </c>
       <c r="AG42" s="36">
         <f t="shared" si="14"/>
-        <v>0.88462881259992543</v>
+        <v>0.82716144737123642</v>
       </c>
       <c r="AI42" s="37">
         <f t="shared" si="15"/>
-        <v>0.67333333333333334</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="AJ42" s="37">
         <f t="shared" si="16"/>
-        <v>0.70873065043159866</v>
+        <v>0.67894889283158755</v>
       </c>
       <c r="AK42" s="31">
         <f t="shared" si="17"/>
-        <v>0.1618659425815816</v>
+        <v>0.14927936065483904</v>
       </c>
       <c r="AL42" s="11" t="s">
         <v>26</v>
@@ -7799,60 +7795,60 @@
         <v>7</v>
       </c>
       <c r="C43" s="33">
-        <v>0.26</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D43" s="34">
-        <v>0.1007</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E43" s="34">
         <f t="shared" si="4"/>
-        <v>0.26610840687365411</v>
+        <v>0.14296614536399657</v>
       </c>
       <c r="F43" s="8"/>
       <c r="H43" s="33">
-        <v>0.23400000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="I43" s="34">
-        <v>1.15E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J43" s="34">
         <f t="shared" si="5"/>
-        <v>0.23841701736237089</v>
+        <v>0.27040322798896327</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>49</v>
       </c>
       <c r="M43" s="33">
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="N43" s="34">
-        <v>0.98519999999999996</v>
+        <v>0.9698</v>
       </c>
       <c r="O43" s="34">
         <f t="shared" si="6"/>
-        <v>3.0000090000486005E-3</v>
+        <v>6.0000720015552789E-3</v>
       </c>
       <c r="P43" s="8"/>
       <c r="R43" s="33">
-        <v>0.13</v>
+        <v>0.185</v>
       </c>
       <c r="S43" s="34">
-        <v>0.51070000000000004</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="T43" s="34">
         <f t="shared" si="7"/>
-        <v>0.13073985002887836</v>
+        <v>0.18715497016418453</v>
       </c>
       <c r="U43" s="8"/>
       <c r="W43" s="33">
-        <v>0.95499999999999996</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="X43" s="34">
         <v>0</v>
       </c>
       <c r="Y43" s="34">
         <f t="shared" si="8"/>
-        <v>1.8857414913245727</v>
+        <v>1.7555153191524249</v>
       </c>
       <c r="Z43" s="8" t="s">
         <v>49</v>
@@ -7872,19 +7868,19 @@
       </c>
       <c r="AG43" s="36">
         <f t="shared" si="14"/>
-        <v>1.0126869579524131</v>
+        <v>0.97994030410389454</v>
       </c>
       <c r="AI43" s="37">
         <f t="shared" si="15"/>
-        <v>0.63733333333333331</v>
+        <v>0.6429999999999999</v>
       </c>
       <c r="AJ43" s="37">
         <f t="shared" si="16"/>
-        <v>0.7668710823346665</v>
+        <v>0.75304006184730066</v>
       </c>
       <c r="AK43" s="31">
         <f t="shared" si="17"/>
-        <v>0.22000637448464944</v>
+        <v>0.22337052967055215</v>
       </c>
       <c r="AL43" s="11" t="s">
         <v>27</v>
@@ -8386,7 +8382,7 @@
       <c r="T57" s="34"/>
       <c r="U57" s="38">
         <f>COUNTIFS(U6:U54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="34"/>
@@ -8400,7 +8396,7 @@
       <c r="AD57" s="34"/>
       <c r="AE57" s="38">
         <f>COUNTIFS(AE6:AE54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="33"/>
@@ -8415,14 +8411,14 @@
       <c r="D58" s="34"/>
       <c r="E58" s="33">
         <f>AVERAGEIFS(E6:E54,B6:B54, "&lt;&gt;ALL",F6:F54, "Y")</f>
-        <v>0.52536495260888394</v>
+        <v>0.50697543826389024</v>
       </c>
       <c r="F58" s="38"/>
       <c r="H58" s="33"/>
       <c r="I58" s="34"/>
       <c r="J58" s="33">
         <f>AVERAGEIFS(J6:J54,B6:B54, "&lt;&gt;ALL",K6:K54, "Y")</f>
-        <v>0.32546962023183951</v>
+        <v>0.33513036143197883</v>
       </c>
       <c r="K58" s="38"/>
       <c r="M58" s="33"/>
@@ -8436,21 +8432,21 @@
       <c r="S58" s="34"/>
       <c r="T58" s="33">
         <f>AVERAGEIFS(T6:T54,B6:B54, "&lt;&gt;ALL",U6:U54, "Y")</f>
-        <v>0.55477749764210782</v>
+        <v>0.5487715829282872</v>
       </c>
       <c r="U58" s="38"/>
       <c r="W58" s="33"/>
       <c r="X58" s="34"/>
       <c r="Y58" s="33">
         <f>AVERAGEIFS(Y6:Y54,B6:B54, "&lt;&gt;ALL",Z6:Z54, "Y")</f>
-        <v>0.87285222816267405</v>
+        <v>0.84635271290681091</v>
       </c>
       <c r="Z58" s="38"/>
       <c r="AB58" s="33"/>
       <c r="AC58" s="34"/>
       <c r="AD58" s="33">
         <f>AVERAGEIFS(AD6:AD54,B6:B54, "&lt;&gt;ALL",AE6:AE54, "Y")</f>
-        <v>0.92371883997326887</v>
+        <v>0.95345566665001591</v>
       </c>
       <c r="AE58" s="38"/>
       <c r="AI58" s="33"/>
@@ -8466,14 +8462,14 @@
       <c r="D59" s="34"/>
       <c r="E59" s="33">
         <f>AVERAGEIFS(E6:E54,B6:B54, "ALL",F6:F54, "Y")</f>
-        <v>0.2544427307133475</v>
+        <v>0.2437577768003534</v>
       </c>
       <c r="F59" s="38"/>
       <c r="H59" s="33"/>
       <c r="I59" s="34"/>
       <c r="J59" s="33">
         <f>AVERAGEIFS(J6:J54,B6:B54, "ALL",K6:K54, "Y")</f>
-        <v>0.15881890536298676</v>
+        <v>0.16193941989790503</v>
       </c>
       <c r="K59" s="38"/>
       <c r="M59" s="33"/>
@@ -8486,14 +8482,14 @@
       <c r="S59" s="34"/>
       <c r="T59" s="33">
         <f>AVERAGEIFS(T6:T54,B6:B54, "ALL",U6:U54, "Y")</f>
-        <v>0.3473393681177015</v>
+        <v>0.33241872595187844</v>
       </c>
       <c r="U59" s="38"/>
       <c r="W59" s="33"/>
       <c r="X59" s="34"/>
       <c r="Y59" s="33">
         <f>AVERAGEIFS(Y6:Y54,B6:B54, "ALL",Z6:Z54, "Y")</f>
-        <v>0.8829586612163034</v>
+        <v>0.86509105542342013</v>
       </c>
       <c r="Z59" s="38"/>
       <c r="AB59" s="33"/>
@@ -8544,22 +8540,22 @@
       </c>
       <c r="C61" s="37">
         <f>AVERAGEIFS(C:C,B:B, "&lt;&gt;ALL",F:F, "Y")</f>
-        <v>0.46672727272727266</v>
+        <v>0.45118181818181813</v>
       </c>
       <c r="D61" s="40"/>
       <c r="E61" s="37">
         <f>(EXP(2 * E58) - 1) / (EXP(2 * E58) + 1)</f>
-        <v>0.48183007276802925</v>
+        <v>0.46758525991945094</v>
       </c>
       <c r="F61" s="10"/>
       <c r="H61" s="37">
         <f>AVERAGEIFS(H:H,B:B, "&lt;&gt;ALL",K:K, "Y")</f>
-        <v>0.30230769230769233</v>
+        <v>0.31123076923076926</v>
       </c>
       <c r="I61" s="40"/>
       <c r="J61" s="37">
         <f>(EXP(2 * J58) - 1) / (EXP(2 * J58) + 1)</f>
-        <v>0.31444417428303728</v>
+        <v>0.32312307391099504</v>
       </c>
       <c r="K61" s="10"/>
       <c r="M61" s="37">
@@ -8574,32 +8570,32 @@
       <c r="P61" s="10"/>
       <c r="R61" s="37">
         <f>AVERAGEIFS(R:R,B:B, "&lt;&gt;ALL",U:U, "Y")</f>
-        <v>0.49546153846153845</v>
+        <v>0.49058333333333332</v>
       </c>
       <c r="S61" s="40"/>
       <c r="T61" s="37">
         <f>(EXP(2 * T58) - 1) / (EXP(2 * T58) + 1)</f>
-        <v>0.50409227899392739</v>
+        <v>0.49959897179677293</v>
       </c>
       <c r="U61" s="10"/>
       <c r="W61" s="37">
         <f>AVERAGEIFS(W:W,B:B, "&lt;&gt;ALL",Z:Z, "Y")</f>
-        <v>0.66318181818181821</v>
+        <v>0.65472727272727271</v>
       </c>
       <c r="X61" s="40"/>
       <c r="Y61" s="37">
         <f>(EXP(2 * Y58) - 1) / (EXP(2 * Y58) + 1)</f>
-        <v>0.70282037773839157</v>
+        <v>0.68915923688544078</v>
       </c>
       <c r="Z61" s="10"/>
       <c r="AB61" s="37">
         <f>AVERAGEIFS(AB:AB,B:B, "&lt;&gt;ALL",AE:AE, "Y")</f>
-        <v>0.67259999999999986</v>
+        <v>0.69199999999999984</v>
       </c>
       <c r="AC61" s="40"/>
       <c r="AD61" s="37">
         <f>(EXP(2 * AD58) - 1) / (EXP(2 * AD58) + 1)</f>
-        <v>0.72765195296274499</v>
+        <v>0.74134350883026401</v>
       </c>
       <c r="AE61" s="10"/>
       <c r="AI61" s="37"/>
@@ -8613,22 +8609,22 @@
       </c>
       <c r="C62" s="37">
         <f>AVERAGEIFS(C:C,B:B, "ALL",F:F, "Y")</f>
-        <v>0.24633333333333332</v>
+        <v>0.23633333333333331</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="37">
         <f>(EXP(2 * E59) - 1) / (EXP(2 * E59) + 1)</f>
-        <v>0.24909032857502619</v>
+        <v>0.23904197173350483</v>
       </c>
       <c r="F62" s="10"/>
       <c r="H62" s="37">
         <f>AVERAGEIFS(H:H,B:B, "ALL",K:K, "Y")</f>
-        <v>0.157</v>
+        <v>0.16</v>
       </c>
       <c r="I62" s="40"/>
       <c r="J62" s="37">
         <f>(EXP(2 * J59) - 1) / (EXP(2 * J59) + 1)</f>
-        <v>0.15749692179554636</v>
+        <v>0.16053852635810895</v>
       </c>
       <c r="K62" s="10"/>
       <c r="M62" s="41" t="s">
@@ -8641,22 +8637,22 @@
       <c r="P62" s="10"/>
       <c r="R62" s="37">
         <f>AVERAGEIFS(R:R,B:B, "ALL",U:U, "Y")</f>
-        <v>0.33333333333333331</v>
+        <v>0.32033333333333336</v>
       </c>
       <c r="S62" s="40"/>
       <c r="T62" s="37">
         <f>(EXP(2 * T59) - 1) / (EXP(2 * T59) + 1)</f>
-        <v>0.3340138509032014</v>
+        <v>0.32069243252953417</v>
       </c>
       <c r="U62" s="10"/>
       <c r="W62" s="37">
         <f>AVERAGEIFS(W:W,B:B, "ALL",Z:Z, "Y")</f>
-        <v>0.68</v>
+        <v>0.67500000000000016</v>
       </c>
       <c r="X62" s="40"/>
       <c r="Y62" s="37">
         <f>(EXP(2 * Y59) - 1) / (EXP(2 * Y59) + 1)</f>
-        <v>0.70789843032834299</v>
+        <v>0.69887142549059733</v>
       </c>
       <c r="Z62" s="10"/>
       <c r="AB62" s="37">
@@ -8910,86 +8906,86 @@
     </row>
     <row r="2" spans="1:23" ht="9" customHeight="1"/>
     <row r="3" spans="1:23" ht="49.8" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="66" t="str">
+      <c r="A4" s="64" t="str">
         <f>'PFEF SRC'!A3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="67" t="str">
+      <c r="B4" s="70" t="str">
         <f>'PFEF SRC'!B3</f>
         <v>Model</v>
       </c>
-      <c r="C4" s="70" t="str">
+      <c r="C4" s="71" t="str">
         <f>'PFEF SRC'!$C$3</f>
         <v>vanilla-mode1-01</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="70" t="str">
+      <c r="F4" s="71" t="str">
         <f>'PFEF SRC'!$H$3</f>
         <v>vanilla-mode1-02</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="70" t="str">
+      <c r="I4" s="71" t="str">
         <f>'PFEF SRC'!$M$3</f>
         <v>vanilla-mode2-01</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="70" t="str">
+      <c r="L4" s="71" t="str">
         <f>'PFEF SRC'!$R$3</f>
         <v>base-mode2-01</v>
       </c>
-      <c r="M4" s="70"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="70" t="str">
+      <c r="O4" s="71" t="str">
         <f>'PFEF SRC'!$W$3</f>
         <v>vanilla4-mode2-01</v>
       </c>
-      <c r="P4" s="70"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="70" t="str">
+      <c r="R4" s="71" t="str">
         <f>'PFEF SRC'!$AB$3</f>
         <v>vanilla4o-mode2-01</v>
       </c>
-      <c r="S4" s="70"/>
+      <c r="S4" s="71"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" s="24" customFormat="1" ht="13.8">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="54" t="str">
         <f>'PFEF SRC'!C4</f>
         <v>r</v>
@@ -9043,7 +9039,7 @@
         <f>'PFEF SRC'!AC4</f>
         <v>p</v>
       </c>
-      <c r="U5" s="65"/>
+      <c r="U5" s="69"/>
       <c r="V5" s="30"/>
       <c r="W5" s="12"/>
     </row>
@@ -11203,7 +11199,7 @@
       </c>
       <c r="C37" s="19">
         <f>'PFEF SRC'!C36</f>
-        <v>0.26800000000000002</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="D37" s="15">
         <f>'PFEF SRC'!D36</f>
@@ -11212,7 +11208,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="19">
         <f>'PFEF SRC'!H36</f>
-        <v>0.192</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="G37" s="15">
         <f>'PFEF SRC'!I36</f>
@@ -11221,16 +11217,16 @@
       <c r="H37" s="8"/>
       <c r="I37" s="19">
         <f>'PFEF SRC'!M36</f>
-        <v>8.8999999999999996E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J37" s="15">
         <f>'PFEF SRC'!N36</f>
-        <v>0.1517</v>
+        <v>0.2782</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="19">
         <f>'PFEF SRC'!R36</f>
-        <v>0.378</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="M37" s="15">
         <f>'PFEF SRC'!S36</f>
@@ -11239,7 +11235,7 @@
       <c r="N37" s="8"/>
       <c r="O37" s="19">
         <f>'PFEF SRC'!W36</f>
-        <v>0.85599999999999998</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="P37" s="15">
         <f>'PFEF SRC'!X36</f>
@@ -11257,7 +11253,7 @@
       <c r="T37" s="8"/>
       <c r="U37" s="20">
         <f>'PFEF SRC'!AJ36</f>
-        <v>0.54686470785001706</v>
+        <v>0.5296695321767485</v>
       </c>
       <c r="V37" s="31"/>
       <c r="W37" s="13" t="str">
@@ -11276,38 +11272,38 @@
       </c>
       <c r="C38" s="19">
         <f>'PFEF SRC'!C37</f>
-        <v>0.48899999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D38" s="15">
         <f>'PFEF SRC'!D37</f>
-        <v>1.1999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="19">
         <f>'PFEF SRC'!H37</f>
-        <v>0.27</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G38" s="15">
         <f>'PFEF SRC'!I37</f>
-        <v>3.5000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="19">
         <f>'PFEF SRC'!M37</f>
-        <v>5.2999999999999999E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="J38" s="15">
         <f>'PFEF SRC'!N37</f>
-        <v>0.75649999999999995</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="19">
         <f>'PFEF SRC'!R37</f>
-        <v>0.46400000000000002</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="M38" s="15">
         <f>'PFEF SRC'!S37</f>
-        <v>6.4999999999999997E-3</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="19">
@@ -11330,11 +11326,11 @@
       <c r="T38" s="8"/>
       <c r="U38" s="20">
         <f>'PFEF SRC'!AJ37</f>
-        <v>0.57421189944602402</v>
+        <v>0.5864202518514342</v>
       </c>
       <c r="V38" s="31">
         <f>'PFEF SRC'!AK37</f>
-        <v>2.7347191596006959E-2</v>
+        <v>5.6750719674685701E-2</v>
       </c>
       <c r="W38" s="13" t="str">
         <f>'PFEF SRC'!AL37</f>
@@ -11352,38 +11348,38 @@
       </c>
       <c r="C39" s="19">
         <f>'PFEF SRC'!C38</f>
-        <v>-9.0999999999999998E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="D39" s="15">
         <f>'PFEF SRC'!D38</f>
-        <v>0.5655</v>
+        <v>0.62090000000000001</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="19">
         <f>'PFEF SRC'!H38</f>
-        <v>-2.5999999999999999E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G39" s="15">
         <f>'PFEF SRC'!I38</f>
-        <v>0.77500000000000002</v>
+        <v>0.42880000000000001</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="19">
         <f>'PFEF SRC'!M38</f>
-        <v>0.251</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J39" s="15">
         <f>'PFEF SRC'!N38</f>
-        <v>0.13469999999999999</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="19">
         <f>'PFEF SRC'!R38</f>
-        <v>0.50800000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="M39" s="15">
         <f>'PFEF SRC'!S38</f>
-        <v>2.2000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="19">
@@ -11406,11 +11402,11 @@
       <c r="T39" s="8"/>
       <c r="U39" s="20">
         <f>'PFEF SRC'!AJ38</f>
-        <v>0.40154144939131065</v>
+        <v>0.40494147625966653</v>
       </c>
       <c r="V39" s="31">
         <f>'PFEF SRC'!AK38</f>
-        <v>-0.14532325845870642</v>
+        <v>-0.12472805591708197</v>
       </c>
       <c r="W39" s="11" t="str">
         <f>'PFEF SRC'!AL38</f>
@@ -11428,38 +11424,38 @@
       </c>
       <c r="C40" s="19">
         <f>'PFEF SRC'!C39</f>
-        <v>-5.8999999999999997E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D40" s="15">
         <f>'PFEF SRC'!D39</f>
-        <v>0.71309999999999996</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="19">
         <f>'PFEF SRC'!H39</f>
-        <v>0.224</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="G40" s="15">
         <f>'PFEF SRC'!I39</f>
-        <v>1.5900000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="19">
         <f>'PFEF SRC'!M39</f>
-        <v>3.9E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J40" s="15">
         <f>'PFEF SRC'!N39</f>
-        <v>0.81859999999999999</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="19">
         <f>'PFEF SRC'!R39</f>
-        <v>0.54800000000000004</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="M40" s="15">
         <f>'PFEF SRC'!S39</f>
-        <v>8.0000000000000004E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="19">
@@ -11482,11 +11478,11 @@
       <c r="T40" s="8"/>
       <c r="U40" s="20">
         <f>'PFEF SRC'!AJ39</f>
-        <v>0.33738525381119577</v>
+        <v>0.34197834737448413</v>
       </c>
       <c r="V40" s="31">
         <f>'PFEF SRC'!AK39</f>
-        <v>-0.20947945403882129</v>
+        <v>-0.18769118480226438</v>
       </c>
       <c r="W40" s="11" t="str">
         <f>'PFEF SRC'!AL39</f>
@@ -11504,43 +11500,43 @@
       </c>
       <c r="C41" s="19">
         <f>'PFEF SRC'!C40</f>
-        <v>0.35199999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D41" s="15">
         <f>'PFEF SRC'!D40</f>
-        <v>2.4199999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="19">
         <f>'PFEF SRC'!H40</f>
-        <v>0.19400000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G41" s="15">
         <f>'PFEF SRC'!I40</f>
-        <v>3.6700000000000003E-2</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="19">
         <f>'PFEF SRC'!M40</f>
-        <v>0.13400000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J41" s="15">
         <f>'PFEF SRC'!N40</f>
-        <v>0.42959999999999998</v>
+        <v>0.52259999999999995</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="19">
         <f>'PFEF SRC'!R40</f>
-        <v>0.27600000000000002</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="M41" s="15">
         <f>'PFEF SRC'!S40</f>
-        <v>0.12039999999999999</v>
+        <v>0.37890000000000001</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="19">
         <f>'PFEF SRC'!W40</f>
-        <v>0.86499999999999999</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="P41" s="15">
         <f>'PFEF SRC'!X40</f>
@@ -11558,11 +11554,11 @@
       <c r="T41" s="8"/>
       <c r="U41" s="20">
         <f>'PFEF SRC'!AJ40</f>
-        <v>0.66263072659092348</v>
+        <v>0.62267381122024146</v>
       </c>
       <c r="V41" s="31">
         <f>'PFEF SRC'!AK40</f>
-        <v>0.11576601874090642</v>
+        <v>9.3004279043492954E-2</v>
       </c>
       <c r="W41" s="11" t="str">
         <f>'PFEF SRC'!AL40</f>
@@ -11580,43 +11576,43 @@
       </c>
       <c r="C42" s="19">
         <f>'PFEF SRC'!C41</f>
-        <v>0.46200000000000002</v>
+        <v>0.504</v>
       </c>
       <c r="D42" s="15">
         <f>'PFEF SRC'!D41</f>
-        <v>2.3E-3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="19">
         <f>'PFEF SRC'!H41</f>
-        <v>0.34100000000000003</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="G42" s="15">
         <f>'PFEF SRC'!I41</f>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="19">
         <f>'PFEF SRC'!M41</f>
-        <v>-0.11</v>
+        <v>-0.107</v>
       </c>
       <c r="J42" s="15">
         <f>'PFEF SRC'!N41</f>
-        <v>0.51570000000000005</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="19">
         <f>'PFEF SRC'!R41</f>
-        <v>0.61699999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="M42" s="15">
         <f>'PFEF SRC'!S41</f>
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="19">
         <f>'PFEF SRC'!W41</f>
-        <v>0.76700000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="P42" s="15">
         <f>'PFEF SRC'!X41</f>
@@ -11634,11 +11630,11 @@
       <c r="T42" s="8"/>
       <c r="U42" s="20">
         <f>'PFEF SRC'!AJ41</f>
-        <v>0.59522305648830176</v>
+        <v>0.58995121813263396</v>
       </c>
       <c r="V42" s="31">
         <f>'PFEF SRC'!AK41</f>
-        <v>4.8358348638284698E-2</v>
+        <v>6.0281685955885456E-2</v>
       </c>
       <c r="W42" s="11" t="str">
         <f>'PFEF SRC'!AL41</f>
@@ -11656,47 +11652,47 @@
       </c>
       <c r="C43" s="19">
         <f>'PFEF SRC'!C42</f>
-        <v>0.45800000000000002</v>
+        <v>0.375</v>
       </c>
       <c r="D43" s="15">
         <f>'PFEF SRC'!D42</f>
-        <v>2.5999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="19">
         <f>'PFEF SRC'!H42</f>
-        <v>0.14199999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="G43" s="15">
         <f>'PFEF SRC'!I42</f>
-        <v>0.12709999999999999</v>
+        <v>0.23319999999999999</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="19">
         <f>'PFEF SRC'!M42</f>
-        <v>0.114</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="J43" s="15">
         <f>'PFEF SRC'!N42</f>
-        <v>0.50329999999999997</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="19">
         <f>'PFEF SRC'!R42</f>
-        <v>3.6999999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="M43" s="15">
         <f>'PFEF SRC'!S42</f>
-        <v>0.83799999999999997</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="19">
         <f>'PFEF SRC'!W42</f>
-        <v>0.70499999999999996</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="P43" s="15">
         <f>'PFEF SRC'!X42</f>
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="19">
@@ -11710,11 +11706,11 @@
       <c r="T43" s="8"/>
       <c r="U43" s="20">
         <f>'PFEF SRC'!AJ42</f>
-        <v>0.70873065043159866</v>
+        <v>0.67894889283158755</v>
       </c>
       <c r="V43" s="31">
         <f>'PFEF SRC'!AK42</f>
-        <v>0.1618659425815816</v>
+        <v>0.14927936065483904</v>
       </c>
       <c r="W43" s="11" t="str">
         <f>'PFEF SRC'!AL42</f>
@@ -11732,43 +11728,43 @@
       </c>
       <c r="C44" s="19">
         <f>'PFEF SRC'!C43</f>
-        <v>0.26</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D44" s="15">
         <f>'PFEF SRC'!D43</f>
-        <v>0.1007</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="19">
         <f>'PFEF SRC'!H43</f>
-        <v>0.23400000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G44" s="15">
         <f>'PFEF SRC'!I43</f>
-        <v>1.15E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="19">
         <f>'PFEF SRC'!M43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J44" s="15">
         <f>'PFEF SRC'!N43</f>
-        <v>0.98519999999999996</v>
+        <v>0.9698</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="19">
         <f>'PFEF SRC'!R43</f>
-        <v>0.13</v>
+        <v>0.185</v>
       </c>
       <c r="M44" s="15">
         <f>'PFEF SRC'!S43</f>
-        <v>0.51070000000000004</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="19">
         <f>'PFEF SRC'!W43</f>
-        <v>0.95499999999999996</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="P44" s="15">
         <f>'PFEF SRC'!X43</f>
@@ -11786,11 +11782,11 @@
       <c r="T44" s="8"/>
       <c r="U44" s="20">
         <f>'PFEF SRC'!AJ43</f>
-        <v>0.7668710823346665</v>
+        <v>0.75304006184730066</v>
       </c>
       <c r="V44" s="31">
         <f>'PFEF SRC'!AK43</f>
-        <v>0.22000637448464944</v>
+        <v>0.22337052967055215</v>
       </c>
       <c r="W44" s="11" t="str">
         <f>'PFEF SRC'!AL43</f>
@@ -12604,46 +12600,46 @@
       <c r="W56" s="11"/>
     </row>
     <row r="57" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="66" t="str">
+      <c r="A57" s="64" t="str">
         <f>'PFEF SRC'!A65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="68" t="str">
+      <c r="B57" s="64"/>
+      <c r="C57" s="67" t="str">
         <f>'PFEF SRC'!C65</f>
         <v>V-M1-A</v>
       </c>
-      <c r="D57" s="68"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="49"/>
-      <c r="F57" s="68" t="str">
+      <c r="F57" s="67" t="str">
         <f>'PFEF SRC'!H65</f>
         <v>V-M1-B</v>
       </c>
-      <c r="G57" s="68"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="49"/>
-      <c r="I57" s="68" t="str">
+      <c r="I57" s="67" t="str">
         <f>'PFEF SRC'!M65</f>
         <v>V-M2</v>
       </c>
-      <c r="J57" s="68"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="49"/>
-      <c r="L57" s="68" t="str">
+      <c r="L57" s="67" t="str">
         <f>'PFEF SRC'!R65</f>
         <v>B-M2</v>
       </c>
-      <c r="M57" s="68"/>
+      <c r="M57" s="67"/>
       <c r="N57" s="49"/>
-      <c r="O57" s="68" t="str">
+      <c r="O57" s="67" t="str">
         <f>'PFEF SRC'!W65</f>
         <v>V4-M2</v>
       </c>
-      <c r="P57" s="68"/>
+      <c r="P57" s="67"/>
       <c r="Q57" s="49"/>
-      <c r="R57" s="68" t="str">
+      <c r="R57" s="67" t="str">
         <f>'PFEF SRC'!AB65</f>
         <v>V4o-M2</v>
       </c>
-      <c r="S57" s="68"/>
+      <c r="S57" s="67"/>
       <c r="T57" s="8"/>
       <c r="U57" s="19"/>
       <c r="V57" s="46"/>
@@ -12652,46 +12648,46 @@
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="66" t="str">
+      <c r="A58" s="64" t="str">
         <f>'PFEF SRC'!A57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="69">
+      <c r="B58" s="64"/>
+      <c r="C58" s="68">
         <f>'PFEF SRC'!F57</f>
         <v>0.5</v>
       </c>
-      <c r="D58" s="69"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="38"/>
-      <c r="F58" s="69">
+      <c r="F58" s="68">
         <f>'PFEF SRC'!K57</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="G58" s="69"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="69">
+      <c r="I58" s="68">
         <f>'PFEF SRC'!P57</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="J58" s="69"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="38"/>
-      <c r="L58" s="69">
+      <c r="L58" s="68">
         <f>'PFEF SRC'!U57</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M58" s="69"/>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="M58" s="68"/>
       <c r="N58" s="38"/>
-      <c r="O58" s="69">
+      <c r="O58" s="68">
         <f>'PFEF SRC'!Z57</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="P58" s="69"/>
+      <c r="P58" s="68"/>
       <c r="Q58" s="38"/>
-      <c r="R58" s="69">
+      <c r="R58" s="68">
         <f>'PFEF SRC'!AE57</f>
-        <v>1</v>
-      </c>
-      <c r="S58" s="69"/>
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="S58" s="68"/>
       <c r="T58" s="8"/>
       <c r="U58" s="19"/>
       <c r="V58" s="46"/>
@@ -12699,92 +12695,92 @@
       <c r="X58" s="45"/>
     </row>
     <row r="59" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="66" t="str">
+      <c r="A59" s="64" t="str">
         <f>'PFEF SRC'!A61</f>
         <v>Mean r (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="71">
+      <c r="B59" s="64"/>
+      <c r="C59" s="66">
         <f>'PFEF SRC'!C61</f>
-        <v>0.46672727272727266</v>
-      </c>
-      <c r="D59" s="71"/>
+        <v>0.45118181818181813</v>
+      </c>
+      <c r="D59" s="66"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="71">
+      <c r="F59" s="66">
         <f>'PFEF SRC'!H61</f>
-        <v>0.30230769230769233</v>
-      </c>
-      <c r="G59" s="71"/>
+        <v>0.31123076923076926</v>
+      </c>
+      <c r="G59" s="66"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="71">
+      <c r="I59" s="66">
         <f>'PFEF SRC'!M61</f>
         <v>1.2499999999999983E-2</v>
       </c>
-      <c r="J59" s="71"/>
+      <c r="J59" s="66"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="71">
+      <c r="L59" s="66">
         <f>'PFEF SRC'!R61</f>
-        <v>0.49546153846153845</v>
-      </c>
-      <c r="M59" s="71"/>
+        <v>0.49058333333333332</v>
+      </c>
+      <c r="M59" s="66"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="71">
+      <c r="O59" s="66">
         <f>'PFEF SRC'!W61</f>
-        <v>0.66318181818181821</v>
-      </c>
-      <c r="P59" s="71"/>
+        <v>0.65472727272727271</v>
+      </c>
+      <c r="P59" s="66"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="71">
+      <c r="R59" s="66">
         <f>'PFEF SRC'!AB61</f>
-        <v>0.67259999999999986</v>
-      </c>
-      <c r="S59" s="71"/>
+        <v>0.69199999999999984</v>
+      </c>
+      <c r="S59" s="66"/>
       <c r="T59" s="10"/>
       <c r="U59" s="20"/>
       <c r="V59" s="32"/>
       <c r="W59" s="11"/>
     </row>
     <row r="60" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="66" t="str">
+      <c r="A60" s="64" t="str">
         <f>'PFEF SRC'!A62</f>
         <v>Mean r (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="71">
+      <c r="B60" s="64"/>
+      <c r="C60" s="66">
         <f>'PFEF SRC'!C62</f>
-        <v>0.24633333333333332</v>
-      </c>
-      <c r="D60" s="71"/>
+        <v>0.23633333333333331</v>
+      </c>
+      <c r="D60" s="66"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="71">
+      <c r="F60" s="66">
         <f>'PFEF SRC'!H62</f>
-        <v>0.157</v>
-      </c>
-      <c r="G60" s="71"/>
+        <v>0.16</v>
+      </c>
+      <c r="G60" s="66"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="71" t="str">
+      <c r="I60" s="66" t="str">
         <f>'PFEF SRC'!M62</f>
         <v>n/a</v>
       </c>
-      <c r="J60" s="71"/>
+      <c r="J60" s="66"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="71">
+      <c r="L60" s="66">
         <f>'PFEF SRC'!R62</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M60" s="71"/>
+        <v>0.32033333333333336</v>
+      </c>
+      <c r="M60" s="66"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="71">
+      <c r="O60" s="66">
         <f>'PFEF SRC'!W62</f>
-        <v>0.68</v>
-      </c>
-      <c r="P60" s="71"/>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="P60" s="66"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="71">
+      <c r="R60" s="66">
         <f>'PFEF SRC'!AB62</f>
         <v>0.70533333333333326</v>
       </c>
-      <c r="S60" s="71"/>
+      <c r="S60" s="66"/>
       <c r="T60" s="10"/>
       <c r="U60" s="20"/>
       <c r="V60" s="32"/>
@@ -12940,6 +12936,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
@@ -12956,28 +12974,6 @@
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="L60:M60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13172,8 +13168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36:AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13247,47 +13243,47 @@
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="23"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
       <c r="Q3" s="23"/>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
       <c r="AA3" s="23"/>
-      <c r="AB3" s="64" t="s">
+      <c r="AB3" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
       <c r="AI3" s="72" t="s">
         <v>91</v>
       </c>
@@ -17540,7 +17536,7 @@
   </sheetPr>
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -17578,86 +17574,86 @@
     </row>
     <row r="2" spans="1:23" ht="9" customHeight="1"/>
     <row r="3" spans="1:23" ht="63.6" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="66" t="str">
+      <c r="A4" s="64" t="str">
         <f>'PFEA SRC'!$A$3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="67" t="str">
+      <c r="B4" s="70" t="str">
         <f>'PFEA SRC'!B3</f>
         <v>Model</v>
       </c>
-      <c r="C4" s="70" t="str">
+      <c r="C4" s="71" t="str">
         <f>'PFEA SRC'!C3</f>
         <v>vanilla-mode1-01</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="70" t="str">
+      <c r="F4" s="71" t="str">
         <f>'PFEA SRC'!H3</f>
         <v>vanilla-mode1-02</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="70" t="str">
+      <c r="I4" s="71" t="str">
         <f>'PFEA SRC'!M3</f>
         <v>vanilla-mode2-01</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="70" t="str">
+      <c r="L4" s="71" t="str">
         <f>'PFEA SRC'!R3</f>
         <v>base-mode2-01</v>
       </c>
-      <c r="M4" s="70"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="70" t="str">
+      <c r="O4" s="71" t="str">
         <f>'PFEA SRC'!W3</f>
         <v>vanilla4-mode2-01</v>
       </c>
-      <c r="P4" s="70"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="70" t="str">
+      <c r="R4" s="71" t="str">
         <f>'PFEA SRC'!AB3</f>
         <v>vanilla4o-mode2-01</v>
       </c>
-      <c r="S4" s="70"/>
+      <c r="S4" s="71"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" s="24" customFormat="1" ht="13.8">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="54" t="str">
         <f>'PFEA SRC'!C4</f>
         <v>rbp</v>
@@ -17711,7 +17707,7 @@
         <f>'PFEA SRC'!AC4</f>
         <v>p</v>
       </c>
-      <c r="U5" s="65"/>
+      <c r="U5" s="69"/>
       <c r="V5" s="30"/>
       <c r="W5" s="12"/>
     </row>
@@ -21266,46 +21262,46 @@
       <c r="W56" s="11"/>
     </row>
     <row r="57" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="66" t="str">
+      <c r="A57" s="64" t="str">
         <f>'PFEA SRC'!$A$65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="68" t="str">
+      <c r="B57" s="64"/>
+      <c r="C57" s="67" t="str">
         <f>'PFEA SRC'!C65</f>
         <v>V-M1-A</v>
       </c>
-      <c r="D57" s="68"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="49"/>
-      <c r="F57" s="68" t="str">
+      <c r="F57" s="67" t="str">
         <f>'PFEA SRC'!H65</f>
         <v>V-M1-B</v>
       </c>
-      <c r="G57" s="68"/>
+      <c r="G57" s="67"/>
       <c r="H57" s="49"/>
-      <c r="I57" s="68" t="str">
+      <c r="I57" s="67" t="str">
         <f>'PFEA SRC'!M65</f>
         <v>V-M2</v>
       </c>
-      <c r="J57" s="68"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="49"/>
-      <c r="L57" s="68" t="str">
+      <c r="L57" s="67" t="str">
         <f>'PFEA SRC'!R65</f>
         <v>B-M2</v>
       </c>
-      <c r="M57" s="68"/>
+      <c r="M57" s="67"/>
       <c r="N57" s="49"/>
-      <c r="O57" s="68" t="str">
+      <c r="O57" s="67" t="str">
         <f>'PFEA SRC'!W65</f>
         <v>V4-M2</v>
       </c>
-      <c r="P57" s="68"/>
+      <c r="P57" s="67"/>
       <c r="Q57" s="49"/>
-      <c r="R57" s="68" t="str">
+      <c r="R57" s="67" t="str">
         <f>'PFEA SRC'!AB65</f>
         <v>V4o-M2</v>
       </c>
-      <c r="S57" s="68"/>
+      <c r="S57" s="67"/>
       <c r="T57" s="8"/>
       <c r="U57" s="19"/>
       <c r="V57" s="46"/>
@@ -21314,46 +21310,46 @@
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="66" t="str">
+      <c r="A58" s="64" t="str">
         <f>'PFEA SRC'!$A$57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="69">
+      <c r="B58" s="64"/>
+      <c r="C58" s="68">
         <f>'PFEA SRC'!F57</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="D58" s="69"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="59"/>
-      <c r="F58" s="69">
+      <c r="F58" s="68">
         <f>'PFEA SRC'!K57</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="G58" s="69"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="59"/>
-      <c r="I58" s="69">
+      <c r="I58" s="68">
         <f>'PFEA SRC'!P57</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J58" s="69"/>
+      <c r="J58" s="68"/>
       <c r="K58" s="59"/>
-      <c r="L58" s="69">
+      <c r="L58" s="68">
         <f>'PFEA SRC'!U57</f>
         <v>0.39285714285714285</v>
       </c>
-      <c r="M58" s="69"/>
+      <c r="M58" s="68"/>
       <c r="N58" s="59"/>
-      <c r="O58" s="69">
+      <c r="O58" s="68">
         <f>'PFEA SRC'!Z57</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="P58" s="69"/>
+      <c r="P58" s="68"/>
       <c r="Q58" s="59"/>
-      <c r="R58" s="69">
+      <c r="R58" s="68">
         <f>'PFEA SRC'!AE57</f>
         <v>1</v>
       </c>
-      <c r="S58" s="69"/>
+      <c r="S58" s="68"/>
       <c r="T58" s="8"/>
       <c r="U58" s="19"/>
       <c r="V58" s="46"/>
@@ -21361,92 +21357,92 @@
       <c r="X58" s="45"/>
     </row>
     <row r="59" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="66" t="str">
+      <c r="A59" s="64" t="str">
         <f>'PFEA SRC'!A61</f>
         <v>Mean rpb (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="71">
+      <c r="B59" s="64"/>
+      <c r="C59" s="66">
         <f>'PFEA SRC'!C61</f>
         <v>0.18711111111111112</v>
       </c>
-      <c r="D59" s="71"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="71">
+      <c r="F59" s="66">
         <f>'PFEA SRC'!H61</f>
         <v>0.1676</v>
       </c>
-      <c r="G59" s="71"/>
+      <c r="G59" s="66"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="71">
+      <c r="I59" s="66">
         <f>'PFEA SRC'!M61</f>
         <v>-0.13674999999999998</v>
       </c>
-      <c r="J59" s="71"/>
+      <c r="J59" s="66"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="71">
+      <c r="L59" s="66">
         <f>'PFEA SRC'!R61</f>
         <v>0.24912500000000001</v>
       </c>
-      <c r="M59" s="71"/>
+      <c r="M59" s="66"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="71">
+      <c r="O59" s="66">
         <f>'PFEA SRC'!W61</f>
         <v>0.42263157894736847</v>
       </c>
-      <c r="P59" s="71"/>
+      <c r="P59" s="66"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="71">
+      <c r="R59" s="66">
         <f>'PFEA SRC'!AB61</f>
         <v>0.48251999999999995</v>
       </c>
-      <c r="S59" s="71"/>
+      <c r="S59" s="66"/>
       <c r="T59" s="10"/>
       <c r="U59" s="60"/>
       <c r="V59" s="32"/>
       <c r="W59" s="11"/>
     </row>
     <row r="60" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="66" t="str">
+      <c r="A60" s="64" t="str">
         <f>'PFEA SRC'!A62</f>
         <v>Mean rpb (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="71">
+      <c r="B60" s="64"/>
+      <c r="C60" s="66">
         <f>'PFEA SRC'!C62</f>
         <v>0.13150000000000001</v>
       </c>
-      <c r="D60" s="71"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="71">
+      <c r="F60" s="66">
         <f>'PFEA SRC'!H62</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G60" s="71"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="71" t="str">
+      <c r="I60" s="66" t="str">
         <f>'PFEA SRC'!M62</f>
         <v>n/a</v>
       </c>
-      <c r="J60" s="71"/>
+      <c r="J60" s="66"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="71">
+      <c r="L60" s="66">
         <f>'PFEA SRC'!R62</f>
         <v>0.12333333333333334</v>
       </c>
-      <c r="M60" s="71"/>
+      <c r="M60" s="66"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="71">
+      <c r="O60" s="66">
         <f>'PFEA SRC'!W62</f>
         <v>0.35299999999999998</v>
       </c>
-      <c r="P60" s="71"/>
+      <c r="P60" s="66"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="71">
+      <c r="R60" s="66">
         <f>'PFEA SRC'!AB62</f>
         <v>0.49333333333333335</v>
       </c>
-      <c r="S60" s="71"/>
+      <c r="S60" s="66"/>
       <c r="T60" s="10"/>
       <c r="U60" s="60"/>
       <c r="V60" s="32"/>
@@ -21602,16 +21598,20 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:D58"/>
@@ -21626,20 +21626,16 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/study/data/stats/combined/stats-combined-eval-agreement-m1m2.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-agreement-m1m2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="7224" windowWidth="46128" windowHeight="15528" activeTab="3"/>
+    <workbookView xWindow="-12" yWindow="7224" windowWidth="46128" windowHeight="15528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PFEF SRC" sheetId="3" r:id="rId1"/>
@@ -842,14 +842,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,14 +857,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,7 +943,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6691018267791323E-3"/>
+                  <c:x val="3.6691018267791336E-3"/>
                   <c:y val="-1.8456611577062233E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -954,7 +954,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5970158606610135E-2"/>
+                  <c:y val="-1.5970158606610139E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -963,8 +963,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4473813020068616E-3"/>
-                  <c:y val="4.1761579347000803E-2"/>
+                  <c:x val="2.4474213450591405E-3"/>
+                  <c:y val="7.5775081686217799E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr/>
@@ -1052,24 +1052,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="151983232"/>
-        <c:axId val="151984768"/>
+        <c:axId val="114369664"/>
+        <c:axId val="114371200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151983232"/>
+        <c:axId val="114369664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151984768"/>
+        <c:crossAx val="114371200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151984768"/>
+        <c:axId val="114371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1079,7 +1079,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151983232"/>
+        <c:crossAx val="114369664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1089,7 +1089,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1137,7 +1137,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0523057586382415E-2"/>
-          <c:y val="7.2184264004036588E-2"/>
+          <c:y val="7.2184264004036602E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1242,11 +1242,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152835968"/>
-        <c:axId val="152837504"/>
+        <c:axId val="121968512"/>
+        <c:axId val="121970048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152835968"/>
+        <c:axId val="121968512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,24 +1265,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152837504"/>
+        <c:crossAx val="121970048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152837504"/>
+        <c:axId val="121970048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000042"/>
+          <c:max val="0.85000000000000053"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152835968"/>
+        <c:crossAx val="121968512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1292,7 +1292,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1457,11 +1457,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152869888"/>
-        <c:axId val="152875776"/>
+        <c:axId val="122006528"/>
+        <c:axId val="122012416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152869888"/>
+        <c:axId val="122006528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,14 +1480,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152875776"/>
+        <c:crossAx val="122012416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152875776"/>
+        <c:axId val="122012416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -1497,7 +1497,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152869888"/>
+        <c:crossAx val="122006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1507,7 +1507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,7 +1554,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.55806368597208089"/>
+          <c:x val="0.55806368597208078"/>
           <c:y val="6.6076008791583957E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1654,11 +1654,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152899968"/>
-        <c:axId val="152901504"/>
+        <c:axId val="122032512"/>
+        <c:axId val="122034048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152899968"/>
+        <c:axId val="122032512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1677,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152901504"/>
+        <c:crossAx val="122034048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152901504"/>
+        <c:axId val="122034048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1694,7 +1694,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152899968"/>
+        <c:crossAx val="122032512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1704,7 +1704,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1752,7 +1752,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361354E-2"/>
+          <c:y val="6.3365921852361382E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1845,11 +1845,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152946176"/>
-        <c:axId val="152947712"/>
+        <c:axId val="122078720"/>
+        <c:axId val="122080256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152946176"/>
+        <c:axId val="122078720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,14 +1868,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152947712"/>
+        <c:crossAx val="122080256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152947712"/>
+        <c:axId val="122080256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1885,7 +1885,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152946176"/>
+        <c:crossAx val="122078720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1895,7 +1895,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1943,7 +1943,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361409E-2"/>
+          <c:y val="6.3365921852361437E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2054,11 +2054,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152963712"/>
-        <c:axId val="152990080"/>
+        <c:axId val="122096256"/>
+        <c:axId val="122122624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152963712"/>
+        <c:axId val="122096256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,14 +2077,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152990080"/>
+        <c:crossAx val="122122624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152990080"/>
+        <c:axId val="122122624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2094,7 +2094,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152963712"/>
+        <c:crossAx val="122096256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2104,7 +2104,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2175,7 +2175,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0124939268942064E-17"/>
+                  <c:x val="-5.0124939268942107E-17"/>
                   <c:y val="1.0078561227956201E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2270,24 +2270,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152017536"/>
-        <c:axId val="152187264"/>
+        <c:axId val="114399872"/>
+        <c:axId val="116011392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152017536"/>
+        <c:axId val="114399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152187264"/>
+        <c:crossAx val="116011392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152187264"/>
+        <c:axId val="116011392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2297,7 +2297,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152017536"/>
+        <c:crossAx val="114399872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2307,7 +2307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2355,7 +2355,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361243E-2"/>
+          <c:y val="6.3365921852361271E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2460,11 +2460,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152199168"/>
-        <c:axId val="152200704"/>
+        <c:axId val="116023296"/>
+        <c:axId val="116024832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152199168"/>
+        <c:axId val="116023296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,14 +2483,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152200704"/>
+        <c:crossAx val="116024832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152200704"/>
+        <c:axId val="116024832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2500,7 +2500,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152199168"/>
+        <c:crossAx val="116023296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2510,7 +2510,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2675,11 +2675,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152228992"/>
-        <c:axId val="152230528"/>
+        <c:axId val="116053120"/>
+        <c:axId val="116054656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152228992"/>
+        <c:axId val="116053120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,14 +2698,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152230528"/>
+        <c:crossAx val="116054656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152230528"/>
+        <c:axId val="116054656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -2715,7 +2715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152228992"/>
+        <c:crossAx val="116053120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2725,7 +2725,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2773,7 +2773,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361298E-2"/>
+          <c:y val="6.3365921852361326E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2872,11 +2872,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152262912"/>
-        <c:axId val="152276992"/>
+        <c:axId val="117598464"/>
+        <c:axId val="117608448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152262912"/>
+        <c:axId val="117598464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,14 +2895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152276992"/>
+        <c:crossAx val="117608448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152276992"/>
+        <c:axId val="117608448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2912,7 +2912,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152262912"/>
+        <c:crossAx val="117598464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2922,7 +2922,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2970,7 +2970,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361298E-2"/>
+          <c:y val="6.3365921852361326E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3063,11 +3063,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152309120"/>
-        <c:axId val="152315008"/>
+        <c:axId val="117640576"/>
+        <c:axId val="117646464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152309120"/>
+        <c:axId val="117640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,14 +3086,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152315008"/>
+        <c:crossAx val="117646464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152315008"/>
+        <c:axId val="117646464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -3103,7 +3103,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152309120"/>
+        <c:crossAx val="117640576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3113,7 +3113,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3161,7 +3161,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361354E-2"/>
+          <c:y val="6.3365921852361382E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3272,11 +3272,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152326912"/>
-        <c:axId val="152328448"/>
+        <c:axId val="117658368"/>
+        <c:axId val="117659904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152326912"/>
+        <c:axId val="117658368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,14 +3295,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152328448"/>
+        <c:crossAx val="117659904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152328448"/>
+        <c:axId val="117659904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -3312,7 +3312,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152326912"/>
+        <c:crossAx val="117658368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3322,7 +3322,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3393,7 +3393,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6691018267791344E-3"/>
+                  <c:x val="3.6691018267791353E-3"/>
                   <c:y val="-1.8456611577062233E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -3404,7 +3404,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5970158606610146E-2"/>
+                  <c:y val="-1.5970158606610153E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -3413,7 +3413,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4473813020068629E-3"/>
+                  <c:x val="2.4473813020068637E-3"/>
                   <c:y val="4.1761579347000803E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -3502,24 +3502,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152631936"/>
-        <c:axId val="152641920"/>
+        <c:axId val="120580736"/>
+        <c:axId val="120590720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152631936"/>
+        <c:axId val="120580736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152641920"/>
+        <c:crossAx val="120590720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152641920"/>
+        <c:axId val="120590720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3529,7 +3529,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152631936"/>
+        <c:crossAx val="120580736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3539,7 +3539,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3659,7 +3659,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.8057060310581441E-3"/>
-                  <c:y val="0.20994361223139799"/>
+                  <c:y val="0.20994361223139801"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr/>
@@ -3753,33 +3753,33 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="152670976"/>
-        <c:axId val="152672512"/>
+        <c:axId val="120623872"/>
+        <c:axId val="120625408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152670976"/>
+        <c:axId val="120623872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152672512"/>
+        <c:crossAx val="120625408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152672512"/>
+        <c:axId val="120625408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.7000000000000004"/>
+          <c:max val="0.70000000000000051"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152670976"/>
+        <c:crossAx val="120623872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3789,7 +3789,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8906,86 +8906,86 @@
     </row>
     <row r="2" spans="1:23" ht="9" customHeight="1"/>
     <row r="3" spans="1:23" ht="49.8" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="64" t="str">
+      <c r="A4" s="65" t="str">
         <f>'PFEF SRC'!A3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="70" t="str">
+      <c r="B4" s="66" t="str">
         <f>'PFEF SRC'!B3</f>
         <v>Model</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="69" t="str">
         <f>'PFEF SRC'!$C$3</f>
         <v>vanilla-mode1-01</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="69" t="str">
         <f>'PFEF SRC'!$H$3</f>
         <v>vanilla-mode1-02</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="71" t="str">
+      <c r="I4" s="69" t="str">
         <f>'PFEF SRC'!$M$3</f>
         <v>vanilla-mode2-01</v>
       </c>
-      <c r="J4" s="71"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="71" t="str">
+      <c r="L4" s="69" t="str">
         <f>'PFEF SRC'!$R$3</f>
         <v>base-mode2-01</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="71" t="str">
+      <c r="O4" s="69" t="str">
         <f>'PFEF SRC'!$W$3</f>
         <v>vanilla4-mode2-01</v>
       </c>
-      <c r="P4" s="71"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="71" t="str">
+      <c r="R4" s="69" t="str">
         <f>'PFEF SRC'!$AB$3</f>
         <v>vanilla4o-mode2-01</v>
       </c>
-      <c r="S4" s="71"/>
+      <c r="S4" s="69"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="64" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" s="24" customFormat="1" ht="13.8">
-      <c r="A5" s="64"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="54" t="str">
         <f>'PFEF SRC'!C4</f>
         <v>r</v>
@@ -9039,7 +9039,7 @@
         <f>'PFEF SRC'!AC4</f>
         <v>p</v>
       </c>
-      <c r="U5" s="69"/>
+      <c r="U5" s="64"/>
       <c r="V5" s="30"/>
       <c r="W5" s="12"/>
     </row>
@@ -12600,11 +12600,11 @@
       <c r="W56" s="11"/>
     </row>
     <row r="57" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="64" t="str">
+      <c r="A57" s="65" t="str">
         <f>'PFEF SRC'!A65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="64"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="67" t="str">
         <f>'PFEF SRC'!C65</f>
         <v>V-M1-A</v>
@@ -12648,11 +12648,11 @@
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="64" t="str">
+      <c r="A58" s="65" t="str">
         <f>'PFEF SRC'!A57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="64"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="68">
         <f>'PFEF SRC'!F57</f>
         <v>0.5</v>
@@ -12695,92 +12695,92 @@
       <c r="X58" s="45"/>
     </row>
     <row r="59" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="64" t="str">
+      <c r="A59" s="65" t="str">
         <f>'PFEF SRC'!A61</f>
         <v>Mean r (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="66">
+      <c r="B59" s="65"/>
+      <c r="C59" s="70">
         <f>'PFEF SRC'!C61</f>
         <v>0.45118181818181813</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="66">
+      <c r="F59" s="70">
         <f>'PFEF SRC'!H61</f>
         <v>0.31123076923076926</v>
       </c>
-      <c r="G59" s="66"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="66">
+      <c r="I59" s="70">
         <f>'PFEF SRC'!M61</f>
         <v>1.2499999999999983E-2</v>
       </c>
-      <c r="J59" s="66"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="66">
+      <c r="L59" s="70">
         <f>'PFEF SRC'!R61</f>
         <v>0.49058333333333332</v>
       </c>
-      <c r="M59" s="66"/>
+      <c r="M59" s="70"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="66">
+      <c r="O59" s="70">
         <f>'PFEF SRC'!W61</f>
         <v>0.65472727272727271</v>
       </c>
-      <c r="P59" s="66"/>
+      <c r="P59" s="70"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="66">
+      <c r="R59" s="70">
         <f>'PFEF SRC'!AB61</f>
         <v>0.69199999999999984</v>
       </c>
-      <c r="S59" s="66"/>
+      <c r="S59" s="70"/>
       <c r="T59" s="10"/>
       <c r="U59" s="20"/>
       <c r="V59" s="32"/>
       <c r="W59" s="11"/>
     </row>
     <row r="60" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="64" t="str">
+      <c r="A60" s="65" t="str">
         <f>'PFEF SRC'!A62</f>
         <v>Mean r (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="66">
+      <c r="B60" s="65"/>
+      <c r="C60" s="70">
         <f>'PFEF SRC'!C62</f>
         <v>0.23633333333333331</v>
       </c>
-      <c r="D60" s="66"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="66">
+      <c r="F60" s="70">
         <f>'PFEF SRC'!H62</f>
         <v>0.16</v>
       </c>
-      <c r="G60" s="66"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="66" t="str">
+      <c r="I60" s="70" t="str">
         <f>'PFEF SRC'!M62</f>
         <v>n/a</v>
       </c>
-      <c r="J60" s="66"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="66">
+      <c r="L60" s="70">
         <f>'PFEF SRC'!R62</f>
         <v>0.32033333333333336</v>
       </c>
-      <c r="M60" s="66"/>
+      <c r="M60" s="70"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="66">
+      <c r="O60" s="70">
         <f>'PFEF SRC'!W62</f>
         <v>0.67500000000000016</v>
       </c>
-      <c r="P60" s="66"/>
+      <c r="P60" s="70"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="66">
+      <c r="R60" s="70">
         <f>'PFEF SRC'!AB62</f>
         <v>0.70533333333333326</v>
       </c>
-      <c r="S60" s="66"/>
+      <c r="S60" s="70"/>
       <c r="T60" s="10"/>
       <c r="U60" s="20"/>
       <c r="V60" s="32"/>
@@ -12936,6 +12936,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -12952,28 +12974,6 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="L60:M60"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12984,8 +12984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13168,7 +13168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AB36" sqref="AB36:AC43"/>
     </sheetView>
   </sheetViews>
@@ -17574,86 +17574,86 @@
     </row>
     <row r="2" spans="1:23" ht="9" customHeight="1"/>
     <row r="3" spans="1:23" ht="63.6" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="64" t="str">
+      <c r="A4" s="65" t="str">
         <f>'PFEA SRC'!$A$3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="70" t="str">
+      <c r="B4" s="66" t="str">
         <f>'PFEA SRC'!B3</f>
         <v>Model</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="69" t="str">
         <f>'PFEA SRC'!C3</f>
         <v>vanilla-mode1-01</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="69" t="str">
         <f>'PFEA SRC'!H3</f>
         <v>vanilla-mode1-02</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="71" t="str">
+      <c r="I4" s="69" t="str">
         <f>'PFEA SRC'!M3</f>
         <v>vanilla-mode2-01</v>
       </c>
-      <c r="J4" s="71"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="71" t="str">
+      <c r="L4" s="69" t="str">
         <f>'PFEA SRC'!R3</f>
         <v>base-mode2-01</v>
       </c>
-      <c r="M4" s="71"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="71" t="str">
+      <c r="O4" s="69" t="str">
         <f>'PFEA SRC'!W3</f>
         <v>vanilla4-mode2-01</v>
       </c>
-      <c r="P4" s="71"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="71" t="str">
+      <c r="R4" s="69" t="str">
         <f>'PFEA SRC'!AB3</f>
         <v>vanilla4o-mode2-01</v>
       </c>
-      <c r="S4" s="71"/>
+      <c r="S4" s="69"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="64" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" s="24" customFormat="1" ht="13.8">
-      <c r="A5" s="64"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="54" t="str">
         <f>'PFEA SRC'!C4</f>
         <v>rbp</v>
@@ -17707,7 +17707,7 @@
         <f>'PFEA SRC'!AC4</f>
         <v>p</v>
       </c>
-      <c r="U5" s="69"/>
+      <c r="U5" s="64"/>
       <c r="V5" s="30"/>
       <c r="W5" s="12"/>
     </row>
@@ -21262,11 +21262,11 @@
       <c r="W56" s="11"/>
     </row>
     <row r="57" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="64" t="str">
+      <c r="A57" s="65" t="str">
         <f>'PFEA SRC'!$A$65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="64"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="67" t="str">
         <f>'PFEA SRC'!C65</f>
         <v>V-M1-A</v>
@@ -21310,11 +21310,11 @@
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="64" t="str">
+      <c r="A58" s="65" t="str">
         <f>'PFEA SRC'!$A$57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="64"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="68">
         <f>'PFEA SRC'!F57</f>
         <v>0.39285714285714285</v>
@@ -21357,92 +21357,92 @@
       <c r="X58" s="45"/>
     </row>
     <row r="59" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="64" t="str">
+      <c r="A59" s="65" t="str">
         <f>'PFEA SRC'!A61</f>
         <v>Mean rpb (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="66">
+      <c r="B59" s="65"/>
+      <c r="C59" s="70">
         <f>'PFEA SRC'!C61</f>
         <v>0.18711111111111112</v>
       </c>
-      <c r="D59" s="66"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="66">
+      <c r="F59" s="70">
         <f>'PFEA SRC'!H61</f>
         <v>0.1676</v>
       </c>
-      <c r="G59" s="66"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="66">
+      <c r="I59" s="70">
         <f>'PFEA SRC'!M61</f>
         <v>-0.13674999999999998</v>
       </c>
-      <c r="J59" s="66"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="66">
+      <c r="L59" s="70">
         <f>'PFEA SRC'!R61</f>
         <v>0.24912500000000001</v>
       </c>
-      <c r="M59" s="66"/>
+      <c r="M59" s="70"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="66">
+      <c r="O59" s="70">
         <f>'PFEA SRC'!W61</f>
         <v>0.42263157894736847</v>
       </c>
-      <c r="P59" s="66"/>
+      <c r="P59" s="70"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="66">
+      <c r="R59" s="70">
         <f>'PFEA SRC'!AB61</f>
         <v>0.48251999999999995</v>
       </c>
-      <c r="S59" s="66"/>
+      <c r="S59" s="70"/>
       <c r="T59" s="10"/>
       <c r="U59" s="60"/>
       <c r="V59" s="32"/>
       <c r="W59" s="11"/>
     </row>
     <row r="60" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="64" t="str">
+      <c r="A60" s="65" t="str">
         <f>'PFEA SRC'!A62</f>
         <v>Mean rpb (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="66">
+      <c r="B60" s="65"/>
+      <c r="C60" s="70">
         <f>'PFEA SRC'!C62</f>
         <v>0.13150000000000001</v>
       </c>
-      <c r="D60" s="66"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="66">
+      <c r="F60" s="70">
         <f>'PFEA SRC'!H62</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G60" s="66"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="66" t="str">
+      <c r="I60" s="70" t="str">
         <f>'PFEA SRC'!M62</f>
         <v>n/a</v>
       </c>
-      <c r="J60" s="66"/>
+      <c r="J60" s="70"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="66">
+      <c r="L60" s="70">
         <f>'PFEA SRC'!R62</f>
         <v>0.12333333333333334</v>
       </c>
-      <c r="M60" s="66"/>
+      <c r="M60" s="70"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="66">
+      <c r="O60" s="70">
         <f>'PFEA SRC'!W62</f>
         <v>0.35299999999999998</v>
       </c>
-      <c r="P60" s="66"/>
+      <c r="P60" s="70"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="66">
+      <c r="R60" s="70">
         <f>'PFEA SRC'!AB62</f>
         <v>0.49333333333333335</v>
       </c>
-      <c r="S60" s="66"/>
+      <c r="S60" s="70"/>
       <c r="T60" s="10"/>
       <c r="U60" s="60"/>
       <c r="V60" s="32"/>
@@ -21598,6 +21598,30 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="O57:P57"/>
     <mergeCell ref="R59:S59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:D60"/>
@@ -21612,30 +21636,6 @@
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="O59:P59"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/study/data/stats/combined/stats-combined-eval-agreement-m1m2.xlsx
+++ b/study/data/stats/combined/stats-combined-eval-agreement-m1m2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="7224" windowWidth="46128" windowHeight="15528" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="7068" windowWidth="46128" windowHeight="9552" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PFEF SRC" sheetId="3" r:id="rId1"/>
@@ -41,6 +41,8 @@
     <definedName name="pfef_vanilla_mode1_01" localSheetId="2">'PFEF C'!#REF!</definedName>
     <definedName name="pfef_vanilla_mode1_01" localSheetId="1">'PFEF T'!$C$4:$D$44</definedName>
     <definedName name="pfef_vanilla_mode1_01">'PFEF SRC'!$C$3:$F$43</definedName>
+    <definedName name="PHOEBE_ALL">'PFEF SRC'!$AJ$28</definedName>
+    <definedName name="PHOEBE_ALL_A">'PFEA SRC'!$AK$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'PFEA T'!$A$1:$W$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'PFEF T'!$A$1:$W$60</definedName>
     <definedName name="SUSAN_ALL" localSheetId="5">'PFEA C'!#REF!</definedName>
@@ -49,6 +51,8 @@
     <definedName name="SUSAN_ALL" localSheetId="2">'PFEF C'!#REF!</definedName>
     <definedName name="SUSAN_ALL" localSheetId="1">'PFEF T'!$U$7</definedName>
     <definedName name="SUSAN_ALL">'PFEF SRC'!$AJ$6</definedName>
+    <definedName name="USHA_ALL">'PFEF SRC'!$AJ$45</definedName>
+    <definedName name="USHA_ALL_A">'PFEA SRC'!$AK$45</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -166,30 +170,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Goddard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Leave blank for now to avoid braking averages</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A65" authorId="0">
       <text>
         <r>
@@ -219,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="96">
   <si>
     <t>cycling</t>
   </si>
@@ -501,6 +481,12 @@
   </si>
   <si>
     <t>Mean r (significant only)</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Usha</t>
   </si>
 </sst>
 </file>
@@ -842,14 +828,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,14 +843,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,7 +929,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6691018267791336E-3"/>
+                  <c:x val="3.6691018267791362E-3"/>
                   <c:y val="-1.8456611577062233E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -954,7 +940,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5970158606610139E-2"/>
+                  <c:y val="-1.597015860661016E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -963,7 +949,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4474213450591405E-3"/>
+                  <c:x val="2.4474213450591418E-3"/>
                   <c:y val="7.5775081686217799E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1029,22 +1015,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.31111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.35555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>4.4444444444444446E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8928571428571429</c:v>
+                  <c:v>0.93333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9642857142857143</c:v>
+                  <c:v>0.97777777777777775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,24 +1038,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="114369664"/>
-        <c:axId val="114371200"/>
+        <c:axId val="121161984"/>
+        <c:axId val="130673280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114369664"/>
+        <c:axId val="121161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114371200"/>
+        <c:crossAx val="130673280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114371200"/>
+        <c:axId val="130673280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1079,7 +1065,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114369664"/>
+        <c:crossAx val="121161984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1089,8 +1075,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1137,7 +1123,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.0523057586382415E-2"/>
-          <c:y val="7.2184264004036602E-2"/>
+          <c:y val="7.2184264004036672E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1242,11 +1228,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="121968512"/>
-        <c:axId val="121970048"/>
+        <c:axId val="83577856"/>
+        <c:axId val="83583744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121968512"/>
+        <c:axId val="83577856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,24 +1251,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121970048"/>
+        <c:crossAx val="83583744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121970048"/>
+        <c:axId val="83583744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.85000000000000053"/>
+          <c:max val="0.85000000000000064"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121968512"/>
+        <c:crossAx val="83577856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1292,7 +1278,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1457,11 +1443,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="122006528"/>
-        <c:axId val="122012416"/>
+        <c:axId val="83603840"/>
+        <c:axId val="83605376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122006528"/>
+        <c:axId val="83603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,14 +1466,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122012416"/>
+        <c:crossAx val="83605376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122012416"/>
+        <c:axId val="83605376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -1497,7 +1483,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122006528"/>
+        <c:crossAx val="83603840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1507,7 +1493,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,7 +1540,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.55806368597208078"/>
+          <c:x val="0.55806368597208056"/>
           <c:y val="6.6076008791583957E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1654,11 +1640,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="122032512"/>
-        <c:axId val="122034048"/>
+        <c:axId val="87758336"/>
+        <c:axId val="87759872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122032512"/>
+        <c:axId val="87758336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1663,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122034048"/>
+        <c:crossAx val="87759872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122034048"/>
+        <c:axId val="87759872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1694,7 +1680,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122032512"/>
+        <c:crossAx val="87758336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1704,7 +1690,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1752,7 +1738,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361382E-2"/>
+          <c:y val="6.3365921852361465E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1819,25 +1805,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.39088818728618457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.34453646008890459</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.28284498866231034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.36268065111041747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.37968910650929122</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.45306897851358424</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.50481479523025863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,11 +1831,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="122078720"/>
-        <c:axId val="122080256"/>
+        <c:axId val="110185088"/>
+        <c:axId val="110207360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122078720"/>
+        <c:axId val="110185088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,14 +1854,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122080256"/>
+        <c:crossAx val="110207360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122080256"/>
+        <c:axId val="110207360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1885,7 +1871,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122078720"/>
+        <c:crossAx val="110185088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -1895,8 +1881,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1943,7 +1929,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361437E-2"/>
+          <c:y val="6.3365921852361506E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1957,6 +1943,24 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2019,34 +2023,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.45490434437979216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.46633174901892627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.3816448625055866</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.57411827398629334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.45002765103318054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.55500000000000016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.36634692062348523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.55836228973674629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.28273865898102979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,11 +2058,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="122096256"/>
-        <c:axId val="122122624"/>
+        <c:axId val="119972224"/>
+        <c:axId val="119973760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122096256"/>
+        <c:axId val="119972224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,14 +2081,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122122624"/>
+        <c:crossAx val="119973760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122122624"/>
+        <c:axId val="119973760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2094,7 +2098,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122096256"/>
+        <c:crossAx val="119972224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2104,8 +2108,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2175,7 +2179,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.0124939268942107E-17"/>
+                  <c:x val="-5.012493926894223E-17"/>
                   <c:y val="1.0078561227956201E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -2259,10 +2263,10 @@
                   <c:v>0.32069243252953417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69887142549059733</c:v>
+                  <c:v>0.71933610664112035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70659317575962244</c:v>
+                  <c:v>0.77712958558381273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2270,24 +2274,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="114399872"/>
-        <c:axId val="116011392"/>
+        <c:axId val="259517824"/>
+        <c:axId val="83084416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114399872"/>
+        <c:axId val="259517824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116011392"/>
+        <c:crossAx val="83084416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116011392"/>
+        <c:axId val="83084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2297,7 +2301,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114399872"/>
+        <c:crossAx val="259517824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2307,8 +2311,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2355,7 +2359,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361271E-2"/>
+          <c:y val="6.3365921852361354E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2460,11 +2464,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="116023296"/>
-        <c:axId val="116024832"/>
+        <c:axId val="83096320"/>
+        <c:axId val="83097856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116023296"/>
+        <c:axId val="83096320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,14 +2487,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116024832"/>
+        <c:crossAx val="83097856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116024832"/>
+        <c:axId val="83097856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2500,7 +2504,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116023296"/>
+        <c:crossAx val="83096320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2510,7 +2514,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2675,11 +2679,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="116053120"/>
-        <c:axId val="116054656"/>
+        <c:axId val="83126144"/>
+        <c:axId val="83127680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116053120"/>
+        <c:axId val="83126144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,14 +2702,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116054656"/>
+        <c:crossAx val="83127680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116054656"/>
+        <c:axId val="83127680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -2715,7 +2719,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116053120"/>
+        <c:crossAx val="83126144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2725,7 +2729,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2773,7 +2777,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361326E-2"/>
+          <c:y val="6.3365921852361409E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2872,11 +2876,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="117598464"/>
-        <c:axId val="117608448"/>
+        <c:axId val="83143680"/>
+        <c:axId val="83149568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117598464"/>
+        <c:axId val="83143680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,14 +2899,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117608448"/>
+        <c:crossAx val="83149568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117608448"/>
+        <c:axId val="83149568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2912,7 +2916,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117598464"/>
+        <c:crossAx val="83143680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -2922,7 +2926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2970,7 +2974,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361326E-2"/>
+          <c:y val="3.3555683588331942E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3037,25 +3041,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.83981583057014642</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.74528574473453002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.77577492552180716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.6189601400933934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.85591745799532248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.87981666930171709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.91257044475881888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,11 +3067,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="117640576"/>
-        <c:axId val="117646464"/>
+        <c:axId val="83161472"/>
+        <c:axId val="83163008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117640576"/>
+        <c:axId val="83161472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,24 +3090,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117646464"/>
+        <c:crossAx val="83163008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117646464"/>
+        <c:axId val="83163008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
+          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117640576"/>
+        <c:crossAx val="83161472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3113,8 +3117,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3161,7 +3165,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.1357293772731293E-2"/>
-          <c:y val="6.3365921852361382E-2"/>
+          <c:y val="3.8975737788873983E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3237,34 +3241,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.77074865243019797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.70947036733326396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.76333017280799076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.86268162945959947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.83050066917751153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.61357128872292921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.76867737977306394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.8543017457430877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.81047637806167439</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.7940834041936421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,11 +3276,11 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="117658368"/>
-        <c:axId val="117659904"/>
+        <c:axId val="83187200"/>
+        <c:axId val="83188736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="117658368"/>
+        <c:axId val="83187200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,24 +3299,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117659904"/>
+        <c:crossAx val="83188736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117659904"/>
+        <c:axId val="83188736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
+          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117658368"/>
+        <c:crossAx val="83187200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3322,8 +3326,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3393,8 +3397,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6691018267791353E-3"/>
-                  <c:y val="-1.8456611577062233E-2"/>
+                  <c:x val="3.6690016020724699E-3"/>
+                  <c:y val="1.9516310461192355E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -3404,7 +3408,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0"/>
-                  <c:y val="-1.5970158606610153E-2"/>
+                  <c:y val="-5.7659756816112288E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -3413,8 +3417,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.4473813020068637E-3"/>
-                  <c:y val="4.1761579347000803E-2"/>
+                  <c:x val="2.4474213450591414E-3"/>
+                  <c:y val="6.8972360597782417E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr/>
@@ -3479,22 +3483,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.39285714285714285</c:v>
+                  <c:v>0.24444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>8.8888888888888892E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39285714285714285</c:v>
+                  <c:v>0.24444444444444444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>0.82222222222222219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.97777777777777775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,24 +3506,24 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="120580736"/>
-        <c:axId val="120590720"/>
+        <c:axId val="83525632"/>
+        <c:axId val="83527168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120580736"/>
+        <c:axId val="83525632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120590720"/>
+        <c:crossAx val="83527168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120590720"/>
+        <c:axId val="83527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3529,7 +3533,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120580736"/>
+        <c:crossAx val="83525632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3539,8 +3543,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3659,7 +3663,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="1.8057060310581441E-3"/>
-                  <c:y val="0.20994361223139801"/>
+                  <c:y val="0.20994361223139812"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr/>
@@ -3742,10 +3746,10 @@
                   <c:v>0.12334575156775951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35641632312792276</c:v>
+                  <c:v>0.35992027991407444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49642499438399829</c:v>
+                  <c:v>0.4892599960590428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,33 +3757,33 @@
         </c:ser>
         <c:gapWidth val="55"/>
         <c:overlap val="-7"/>
-        <c:axId val="120623872"/>
-        <c:axId val="120625408"/>
+        <c:axId val="83548032"/>
+        <c:axId val="83549568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120623872"/>
+        <c:axId val="83548032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120625408"/>
+        <c:crossAx val="83549568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120625408"/>
+        <c:axId val="83549568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.70000000000000051"/>
+          <c:max val="0.70000000000000062"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120623872"/>
+        <c:crossAx val="83548032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -3789,8 +3793,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4512,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AE40" sqref="AE40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6810,7 +6814,9 @@
       <c r="AL27" s="13"/>
     </row>
     <row r="28" spans="1:38" s="6" customFormat="1">
-      <c r="A28" s="35"/>
+      <c r="A28" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
@@ -6830,24 +6836,56 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="8"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="8"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="8"/>
-      <c r="AG28" s="36"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="31"/>
+      <c r="W28" s="33">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="X28" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="34">
+        <f t="shared" si="8"/>
+        <v>1.0608788732072965</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB28" s="33">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AC28" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="34">
+        <f t="shared" si="9"/>
+        <v>1.3802176680947504</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG28" s="36">
+        <f t="shared" ref="AG28:AG34" si="14">(IF(F28="Y", E28, 0) + IF(K28="Y", J28, 0) + IF(P28="Y", O28, 0) + IF(U28="Y", T28, 0) + IF(Z28="Y", Y28, 0) + IF(AE28="Y", AD28, 0)) / (IF(F28="Y", 1, 0) + IF(K28="Y", 1, 0) + IF(P28="Y", 1, 0) + IF(U28="Y", 1, 0) + IF(Z28="Y", 1, 0) + IF(AE28="Y", 1, 0))</f>
+        <v>1.2205482706510233</v>
+      </c>
+      <c r="AI28" s="37">
+        <f t="shared" ref="AI28:AI34" si="15">(IF(F28="Y", C28, 0) + IF(K28="Y", H28, 0) + IF(P28="Y", M28, 0) + IF(U28="Y", R28, 0) + IF(Z28="Y", W28, 0) + IF(AE28="Y", AB28, 0)) / (IF(F28="Y", 1, 0) + IF(K28="Y", 1, 0) + IF(P28="Y", 1, 0) + IF(U28="Y", 1, 0) + IF(Z28="Y", 1, 0) + IF(AE28="Y", 1, 0))</f>
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="AJ28" s="37">
+        <f t="shared" ref="AJ28:AJ34" si="16">(EXP(2 * AG28) - 1) / (EXP(2 * AG28) + 1)</f>
+        <v>0.83981583057014642</v>
+      </c>
+      <c r="AK28" s="31">
+        <f t="shared" ref="AK28:AK34" si="17">AJ28-PHOEBE_ALL</f>
+        <v>0</v>
+      </c>
       <c r="AL28" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:38" s="6" customFormat="1">
-      <c r="A29" s="35"/>
+      <c r="A29" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>21</v>
       </c>
@@ -6867,24 +6905,56 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="8"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="8"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="8"/>
-      <c r="AG29" s="36"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="31"/>
+      <c r="W29" s="33">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="X29" s="34">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y29" s="34">
+        <f t="shared" si="8"/>
+        <v>0.7945875011164224</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB29" s="33">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AC29" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="34">
+        <f t="shared" si="9"/>
+        <v>1.1299437214118857</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG29" s="36">
+        <f t="shared" si="14"/>
+        <v>0.96226561126415411</v>
+      </c>
+      <c r="AI29" s="37">
+        <f t="shared" si="15"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AJ29" s="37">
+        <f t="shared" si="16"/>
+        <v>0.74528574473453002</v>
+      </c>
+      <c r="AK29" s="31">
+        <f t="shared" si="17"/>
+        <v>-9.4530085835616395E-2</v>
+      </c>
       <c r="AL29" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:38" s="6" customFormat="1">
-      <c r="A30" s="35"/>
+      <c r="A30" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -6904,24 +6974,56 @@
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
       <c r="U30" s="8"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="8"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="8"/>
-      <c r="AG30" s="36"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="31"/>
+      <c r="W30" s="33">
+        <v>0.875</v>
+      </c>
+      <c r="X30" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="34">
+        <f t="shared" si="8"/>
+        <v>1.354025100551105</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB30" s="33">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AC30" s="34">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AD30" s="34">
+        <f t="shared" si="9"/>
+        <v>0.71531673968253162</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG30" s="36">
+        <f t="shared" si="14"/>
+        <v>1.0346709201168183</v>
+      </c>
+      <c r="AI30" s="37">
+        <f t="shared" si="15"/>
+        <v>0.74449999999999994</v>
+      </c>
+      <c r="AJ30" s="37">
+        <f t="shared" si="16"/>
+        <v>0.77577492552180716</v>
+      </c>
+      <c r="AK30" s="31">
+        <f t="shared" si="17"/>
+        <v>-6.4040905048339258E-2</v>
+      </c>
       <c r="AL30" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:38" s="6" customFormat="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -6941,24 +7043,56 @@
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
       <c r="U31" s="8"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="8"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="8"/>
-      <c r="AG31" s="36"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="31"/>
+      <c r="W31" s="33">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="X31" s="34">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="Y31" s="34">
+        <f t="shared" si="8"/>
+        <v>0.59293052719144501</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB31" s="33">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AC31" s="34">
+        <v>1E-4</v>
+      </c>
+      <c r="AD31" s="34">
+        <f t="shared" si="9"/>
+        <v>0.85370481727296899</v>
+      </c>
+      <c r="AE31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG31" s="36">
+        <f t="shared" si="14"/>
+        <v>0.723317672232207</v>
+      </c>
+      <c r="AI31" s="37">
+        <f t="shared" si="15"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="AJ31" s="37">
+        <f t="shared" si="16"/>
+        <v>0.6189601400933934</v>
+      </c>
+      <c r="AK31" s="31">
+        <f t="shared" si="17"/>
+        <v>-0.22085569047675302</v>
+      </c>
       <c r="AL31" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:38" s="6" customFormat="1">
-      <c r="A32" s="35"/>
+      <c r="A32" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
@@ -6978,24 +7112,56 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="8"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="8"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="8"/>
-      <c r="AG32" s="36"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="31"/>
+      <c r="W32" s="33">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="X32" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="34">
+        <f t="shared" si="8"/>
+        <v>1.1041927037368742</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB32" s="33">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AC32" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="34">
+        <f t="shared" si="9"/>
+        <v>1.4515553918367974</v>
+      </c>
+      <c r="AE32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG32" s="36">
+        <f t="shared" si="14"/>
+        <v>1.2778740477868358</v>
+      </c>
+      <c r="AI32" s="37">
+        <f t="shared" si="15"/>
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AJ32" s="37">
+        <f t="shared" si="16"/>
+        <v>0.85591745799532248</v>
+      </c>
+      <c r="AK32" s="31">
+        <f t="shared" si="17"/>
+        <v>1.6101627425176068E-2</v>
+      </c>
       <c r="AL32" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:38" s="6" customFormat="1">
-      <c r="A33" s="35"/>
+      <c r="A33" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
@@ -7015,24 +7181,56 @@
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
       <c r="U33" s="8"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="8"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="8"/>
-      <c r="AG33" s="36"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="31"/>
+      <c r="W33" s="33">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="X33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="34">
+        <f t="shared" si="8"/>
+        <v>1.2670643197533116</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB33" s="33">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="AC33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="34">
+        <f t="shared" si="9"/>
+        <v>1.4828468822173819</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG33" s="36">
+        <f t="shared" si="14"/>
+        <v>1.3749556009853467</v>
+      </c>
+      <c r="AI33" s="37">
+        <f t="shared" si="15"/>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="AJ33" s="37">
+        <f t="shared" si="16"/>
+        <v>0.87981666930171709</v>
+      </c>
+      <c r="AK33" s="31">
+        <f t="shared" si="17"/>
+        <v>4.0000838731570676E-2</v>
+      </c>
       <c r="AL33" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:38" s="6" customFormat="1">
-      <c r="A34" s="35"/>
+      <c r="A34" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
@@ -7052,18 +7250,48 @@
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
       <c r="U34" s="8"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="8"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="8"/>
-      <c r="AG34" s="36"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="31"/>
+      <c r="W34" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="X34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="34">
+        <f t="shared" si="8"/>
+        <v>1.1881364043926024</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB34" s="33">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="AC34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="34">
+        <f t="shared" si="9"/>
+        <v>1.8972336083382502</v>
+      </c>
+      <c r="AE34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG34" s="36">
+        <f t="shared" si="14"/>
+        <v>1.5426850063654263</v>
+      </c>
+      <c r="AI34" s="37">
+        <f t="shared" si="15"/>
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="AJ34" s="37">
+        <f t="shared" si="16"/>
+        <v>0.91257044475881888</v>
+      </c>
+      <c r="AK34" s="31">
+        <f t="shared" si="17"/>
+        <v>7.2754614188672462E-2</v>
+      </c>
       <c r="AL34" s="13" t="s">
         <v>28</v>
       </c>
@@ -7185,19 +7413,19 @@
         <v>49</v>
       </c>
       <c r="AG36" s="36">
-        <f t="shared" ref="AG36:AG43" si="14">(IF(F36="Y", E36, 0) + IF(K36="Y", J36, 0) + IF(P36="Y", O36, 0) + IF(U36="Y", T36, 0) + IF(Z36="Y", Y36, 0) + IF(AE36="Y", AD36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
+        <f t="shared" ref="AG36:AG43" si="18">(IF(F36="Y", E36, 0) + IF(K36="Y", J36, 0) + IF(P36="Y", O36, 0) + IF(U36="Y", T36, 0) + IF(Z36="Y", Y36, 0) + IF(AE36="Y", AD36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
         <v>0.58968571417919402</v>
       </c>
       <c r="AI36" s="37">
-        <f t="shared" ref="AI36:AI43" si="15">(IF(F36="Y", C36, 0) + IF(K36="Y", H36, 0) + IF(P36="Y", M36, 0) + IF(U36="Y", R36, 0) + IF(Z36="Y", W36, 0) + IF(AE36="Y", AB36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
+        <f t="shared" ref="AI36:AI43" si="19">(IF(F36="Y", C36, 0) + IF(K36="Y", H36, 0) + IF(P36="Y", M36, 0) + IF(U36="Y", R36, 0) + IF(Z36="Y", W36, 0) + IF(AE36="Y", AB36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
         <v>0.46939999999999998</v>
       </c>
       <c r="AJ36" s="37">
-        <f t="shared" ref="AJ36:AJ43" si="16">(EXP(2 * AG36) - 1) / (EXP(2 * AG36) + 1)</f>
+        <f t="shared" ref="AJ36:AJ43" si="20">(EXP(2 * AG36) - 1) / (EXP(2 * AG36) + 1)</f>
         <v>0.5296695321767485</v>
       </c>
       <c r="AK36" s="31">
-        <f t="shared" ref="AK36:AK43" si="17">AJ36-KENTON_ALL</f>
+        <f t="shared" ref="AK36:AK43" si="21">AJ36-KENTON_ALL</f>
         <v>0</v>
       </c>
       <c r="AL36" s="13" t="s">
@@ -7285,19 +7513,19 @@
         <v>49</v>
       </c>
       <c r="AG37" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.67219249293534733</v>
       </c>
       <c r="AI37" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.61050000000000004</v>
       </c>
       <c r="AJ37" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.5864202518514342</v>
       </c>
       <c r="AK37" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.6750719674685701E-2</v>
       </c>
       <c r="AL37" s="13" t="s">
@@ -7375,19 +7603,19 @@
         <v>49</v>
       </c>
       <c r="AG38" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.42954558352822902</v>
       </c>
       <c r="AI38" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.39849999999999997</v>
       </c>
       <c r="AJ38" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.40494147625966653</v>
       </c>
       <c r="AK38" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.12472805591708197</v>
       </c>
       <c r="AL38" s="11" t="s">
@@ -7465,19 +7693,19 @@
       </c>
       <c r="AE39" s="8"/>
       <c r="AG39" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.35633117264878905</v>
       </c>
       <c r="AI39" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.33550000000000002</v>
       </c>
       <c r="AJ39" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.34197834737448413</v>
       </c>
       <c r="AK39" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-0.18769118480226438</v>
       </c>
       <c r="AL39" s="11" t="s">
@@ -7566,19 +7794,19 @@
         <v>49</v>
       </c>
       <c r="AG40" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.72936026640684148</v>
       </c>
       <c r="AI40" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.54875000000000007</v>
       </c>
       <c r="AJ40" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.62267381122024146</v>
       </c>
       <c r="AK40" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9.3004279043492954E-2</v>
       </c>
       <c r="AL40" s="11" t="s">
@@ -7669,19 +7897,19 @@
         <v>49</v>
       </c>
       <c r="AG41" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.6775912407694068</v>
       </c>
       <c r="AI41" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.57619999999999993</v>
       </c>
       <c r="AJ41" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.58995121813263396</v>
       </c>
       <c r="AK41" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6.0281685955885456E-2</v>
       </c>
       <c r="AL41" s="11" t="s">
@@ -7768,19 +7996,19 @@
         <v>49</v>
       </c>
       <c r="AG42" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.82716144737123642</v>
       </c>
       <c r="AI42" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.63300000000000001</v>
       </c>
       <c r="AJ42" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.67894889283158755</v>
       </c>
       <c r="AK42" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.14927936065483904</v>
       </c>
       <c r="AL42" s="11" t="s">
@@ -7867,19 +8095,19 @@
         <v>49</v>
       </c>
       <c r="AG43" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.97994030410389454</v>
       </c>
       <c r="AI43" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0.6429999999999999</v>
       </c>
       <c r="AJ43" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.75304006184730066</v>
       </c>
       <c r="AK43" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0.22337052967055215</v>
       </c>
       <c r="AL43" s="11" t="s">
@@ -7920,7 +8148,9 @@
       <c r="AL44" s="11"/>
     </row>
     <row r="45" spans="1:38" s="6" customFormat="1">
-      <c r="A45" s="35"/>
+      <c r="A45" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B45" s="7" t="s">
         <v>10</v>
       </c>
@@ -7940,24 +8170,56 @@
       <c r="S45" s="34"/>
       <c r="T45" s="34"/>
       <c r="U45" s="8"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="8"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="8"/>
-      <c r="AG45" s="36"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="31"/>
+      <c r="W45" s="33">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="X45" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="34">
+        <f t="shared" ref="Y45:Y54" si="22">0.5 * LN((1 + VALUE(W45)) / (1 - VALUE(W45)))</f>
+        <v>0.87518712653260033</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB45" s="33">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="AC45" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="34">
+        <f t="shared" ref="AD45:AD54" si="23">0.5 * LN((1 + VALUE(AB45)) / (1 - VALUE(AB45)))</f>
+        <v>1.1691515877980623</v>
+      </c>
+      <c r="AE45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG45" s="36">
+        <f t="shared" ref="AG45:AG54" si="24">(IF(F45="Y", E45, 0) + IF(K45="Y", J45, 0) + IF(P45="Y", O45, 0) + IF(U45="Y", T45, 0) + IF(Z45="Y", Y45, 0) + IF(AE45="Y", AD45, 0)) / (IF(F45="Y", 1, 0) + IF(K45="Y", 1, 0) + IF(P45="Y", 1, 0) + IF(U45="Y", 1, 0) + IF(Z45="Y", 1, 0) + IF(AE45="Y", 1, 0))</f>
+        <v>1.0221693571653314</v>
+      </c>
+      <c r="AI45" s="37">
+        <f t="shared" ref="AI45:AI54" si="25">(IF(F45="Y", C45, 0) + IF(K45="Y", H45, 0) + IF(P45="Y", M45, 0) + IF(U45="Y", R45, 0) + IF(Z45="Y", W45, 0) + IF(AE45="Y", AB45, 0)) / (IF(F45="Y", 1, 0) + IF(K45="Y", 1, 0) + IF(P45="Y", 1, 0) + IF(U45="Y", 1, 0) + IF(Z45="Y", 1, 0) + IF(AE45="Y", 1, 0))</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AJ45" s="37">
+        <f t="shared" ref="AJ45:AJ54" si="26">(EXP(2 * AG45) - 1) / (EXP(2 * AG45) + 1)</f>
+        <v>0.77074865243019797</v>
+      </c>
+      <c r="AK45" s="31">
+        <f t="shared" ref="AK45:AK54" si="27">AJ45-USHA_ALL</f>
+        <v>0</v>
+      </c>
       <c r="AL45" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:38" s="6" customFormat="1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B46" s="7" t="s">
         <v>20</v>
       </c>
@@ -7977,24 +8239,56 @@
       <c r="S46" s="34"/>
       <c r="T46" s="34"/>
       <c r="U46" s="8"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="8"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="8"/>
-      <c r="AG46" s="36"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="31"/>
+      <c r="W46" s="33">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="X46" s="34">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="Y46" s="34">
+        <f t="shared" si="22"/>
+        <v>0.4224590200651368</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB46" s="33">
+        <v>0.874</v>
+      </c>
+      <c r="AC46" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="34">
+        <f t="shared" si="23"/>
+        <v>1.3497742779234447</v>
+      </c>
+      <c r="AE46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG46" s="36">
+        <f t="shared" si="24"/>
+        <v>0.88611664899429077</v>
+      </c>
+      <c r="AI46" s="37">
+        <f t="shared" si="25"/>
+        <v>0.63650000000000007</v>
+      </c>
+      <c r="AJ46" s="37">
+        <f t="shared" si="26"/>
+        <v>0.70947036733326396</v>
+      </c>
+      <c r="AK46" s="31">
+        <f t="shared" si="27"/>
+        <v>-6.1278285096934004E-2</v>
+      </c>
       <c r="AL46" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:38" s="6" customFormat="1">
-      <c r="A47" s="35"/>
+      <c r="A47" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B47" s="7" t="s">
         <v>2</v>
       </c>
@@ -8014,24 +8308,56 @@
       <c r="S47" s="34"/>
       <c r="T47" s="34"/>
       <c r="U47" s="8"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="8"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="8"/>
-      <c r="AG47" s="36"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="31"/>
+      <c r="W47" s="33">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="X47" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="34">
+        <f t="shared" si="22"/>
+        <v>1.0687769750163265</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB47" s="33">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AC47" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="34">
+        <f t="shared" si="23"/>
+        <v>0.93951643319736866</v>
+      </c>
+      <c r="AE47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG47" s="36">
+        <f t="shared" si="24"/>
+        <v>1.0041467041068475</v>
+      </c>
+      <c r="AI47" s="37">
+        <f t="shared" si="25"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AJ47" s="37">
+        <f t="shared" si="26"/>
+        <v>0.76333017280799076</v>
+      </c>
+      <c r="AK47" s="31">
+        <f t="shared" si="27"/>
+        <v>-7.418479622207208E-3</v>
+      </c>
       <c r="AL47" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:38" s="6" customFormat="1">
-      <c r="A48" s="35"/>
+      <c r="A48" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B48" s="7" t="s">
         <v>17</v>
       </c>
@@ -8051,24 +8377,56 @@
       <c r="S48" s="34"/>
       <c r="T48" s="34"/>
       <c r="U48" s="8"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="8"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="8"/>
-      <c r="AG48" s="36"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="31"/>
+      <c r="W48" s="33">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="X48" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="34">
+        <f t="shared" si="22"/>
+        <v>1.5333727872540668</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB48" s="33">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="AC48" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="34">
+        <f t="shared" si="23"/>
+        <v>1.0740975750479504</v>
+      </c>
+      <c r="AE48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG48" s="36">
+        <f t="shared" si="24"/>
+        <v>1.3037351811510085</v>
+      </c>
+      <c r="AI48" s="37">
+        <f t="shared" si="25"/>
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="AJ48" s="37">
+        <f t="shared" si="26"/>
+        <v>0.86268162945959947</v>
+      </c>
+      <c r="AK48" s="31">
+        <f t="shared" si="27"/>
+        <v>9.1932977029401508E-2</v>
+      </c>
       <c r="AL48" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:38" s="6" customFormat="1">
-      <c r="A49" s="35"/>
+      <c r="A49" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B49" s="7" t="s">
         <v>18</v>
       </c>
@@ -8088,24 +8446,56 @@
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
       <c r="U49" s="8"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="8"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="8"/>
-      <c r="AG49" s="36"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="31"/>
+      <c r="W49" s="33">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="X49" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="34">
+        <f t="shared" si="22"/>
+        <v>1.1913594148757185</v>
+      </c>
+      <c r="Z49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB49" s="33">
+        <v>0.83</v>
+      </c>
+      <c r="AC49" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="34">
+        <f t="shared" si="23"/>
+        <v>1.1881364043926024</v>
+      </c>
+      <c r="AE49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG49" s="36">
+        <f t="shared" si="24"/>
+        <v>1.1897479096341605</v>
+      </c>
+      <c r="AI49" s="37">
+        <f t="shared" si="25"/>
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="AJ49" s="37">
+        <f t="shared" si="26"/>
+        <v>0.83050066917751153</v>
+      </c>
+      <c r="AK49" s="31">
+        <f t="shared" si="27"/>
+        <v>5.9752016747313563E-2</v>
+      </c>
       <c r="AL49" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:38" s="6" customFormat="1">
-      <c r="A50" s="35"/>
+      <c r="A50" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B50" s="7" t="s">
         <v>19</v>
       </c>
@@ -8125,24 +8515,56 @@
       <c r="S50" s="34"/>
       <c r="T50" s="34"/>
       <c r="U50" s="8"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="8"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="8"/>
-      <c r="AG50" s="36"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="31"/>
+      <c r="W50" s="33">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="X50" s="34">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="Y50" s="34">
+        <f t="shared" si="22"/>
+        <v>0.30512976037708883</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB50" s="33">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AC50" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="34">
+        <f t="shared" si="23"/>
+        <v>1.1241280286743327</v>
+      </c>
+      <c r="AE50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG50" s="36">
+        <f t="shared" si="24"/>
+        <v>0.71462889452571077</v>
+      </c>
+      <c r="AI50" s="37">
+        <f t="shared" si="25"/>
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="AJ50" s="37">
+        <f t="shared" si="26"/>
+        <v>0.61357128872292921</v>
+      </c>
+      <c r="AK50" s="31">
+        <f t="shared" si="27"/>
+        <v>-0.15717736370726876</v>
+      </c>
       <c r="AL50" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:38" s="6" customFormat="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B51" s="7" t="s">
         <v>5</v>
       </c>
@@ -8162,24 +8584,56 @@
       <c r="S51" s="34"/>
       <c r="T51" s="34"/>
       <c r="U51" s="8"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="8"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="8"/>
-      <c r="AG51" s="36"/>
-      <c r="AI51" s="37"/>
-      <c r="AJ51" s="37"/>
-      <c r="AK51" s="31"/>
+      <c r="W51" s="33">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="X51" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="34">
+        <f t="shared" si="22"/>
+        <v>1.0635006747250015</v>
+      </c>
+      <c r="Z51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB51" s="33">
+        <v>0.749</v>
+      </c>
+      <c r="AC51" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="34">
+        <f t="shared" si="23"/>
+        <v>0.97067326794340913</v>
+      </c>
+      <c r="AE51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG51" s="36">
+        <f t="shared" si="24"/>
+        <v>1.0170869713342054</v>
+      </c>
+      <c r="AI51" s="37">
+        <f t="shared" si="25"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AJ51" s="37">
+        <f t="shared" si="26"/>
+        <v>0.76867737977306394</v>
+      </c>
+      <c r="AK51" s="31">
+        <f t="shared" si="27"/>
+        <v>-2.0712726571340268E-3</v>
+      </c>
       <c r="AL51" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:38" s="6" customFormat="1">
-      <c r="A52" s="35"/>
+      <c r="A52" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B52" s="7" t="s">
         <v>6</v>
       </c>
@@ -8199,24 +8653,56 @@
       <c r="S52" s="34"/>
       <c r="T52" s="34"/>
       <c r="U52" s="8"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="8"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="8"/>
-      <c r="AG52" s="36"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37"/>
-      <c r="AK52" s="31"/>
+      <c r="W52" s="33">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="X52" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="34">
+        <f t="shared" si="22"/>
+        <v>1.4828468822173819</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB52" s="33">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AC52" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="34">
+        <f t="shared" si="23"/>
+        <v>1.0608788732072965</v>
+      </c>
+      <c r="AE52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG52" s="36">
+        <f t="shared" si="24"/>
+        <v>1.2718628777123393</v>
+      </c>
+      <c r="AI52" s="37">
+        <f t="shared" si="25"/>
+        <v>0.84400000000000008</v>
+      </c>
+      <c r="AJ52" s="37">
+        <f t="shared" si="26"/>
+        <v>0.8543017457430877</v>
+      </c>
+      <c r="AK52" s="31">
+        <f t="shared" si="27"/>
+        <v>8.3553093312889737E-2</v>
+      </c>
       <c r="AL52" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:38" s="6" customFormat="1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B53" s="7" t="s">
         <v>7</v>
       </c>
@@ -8236,24 +8722,56 @@
       <c r="S53" s="34"/>
       <c r="T53" s="34"/>
       <c r="U53" s="8"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="8"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="8"/>
-      <c r="AG53" s="36"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
-      <c r="AK53" s="31"/>
+      <c r="W53" s="33">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="X53" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="34">
+        <f t="shared" si="22"/>
+        <v>0.69942078858598955</v>
+      </c>
+      <c r="Z53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB53" s="33">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AC53" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="34">
+        <f t="shared" si="23"/>
+        <v>1.5574108225622152</v>
+      </c>
+      <c r="AE53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG53" s="36">
+        <f t="shared" si="24"/>
+        <v>1.1284158055741025</v>
+      </c>
+      <c r="AI53" s="37">
+        <f t="shared" si="25"/>
+        <v>0.75950000000000006</v>
+      </c>
+      <c r="AJ53" s="37">
+        <f t="shared" si="26"/>
+        <v>0.81047637806167439</v>
+      </c>
+      <c r="AK53" s="31">
+        <f t="shared" si="27"/>
+        <v>3.9727725631476418E-2</v>
+      </c>
       <c r="AL53" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:38" s="6" customFormat="1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
@@ -8273,18 +8791,48 @@
       <c r="S54" s="34"/>
       <c r="T54" s="34"/>
       <c r="U54" s="8"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="8"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="8"/>
-      <c r="AG54" s="36"/>
-      <c r="AI54" s="37"/>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="31"/>
+      <c r="W54" s="33">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="X54" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="34">
+        <f t="shared" si="22"/>
+        <v>1.1849305459441029</v>
+      </c>
+      <c r="Z54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB54" s="33">
+        <v>0.753</v>
+      </c>
+      <c r="AC54" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="34">
+        <f t="shared" si="23"/>
+        <v>0.97984777414662871</v>
+      </c>
+      <c r="AE54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG54" s="36">
+        <f t="shared" si="24"/>
+        <v>1.0823891600453659</v>
+      </c>
+      <c r="AI54" s="37">
+        <f t="shared" si="25"/>
+        <v>0.79099999999999993</v>
+      </c>
+      <c r="AJ54" s="37">
+        <f t="shared" si="26"/>
+        <v>0.7940834041936421</v>
+      </c>
+      <c r="AK54" s="31">
+        <f t="shared" si="27"/>
+        <v>2.3334751763444128E-2</v>
+      </c>
       <c r="AL54" s="11" t="s">
         <v>28</v>
       </c>
@@ -8361,42 +8909,42 @@
       <c r="E57" s="33"/>
       <c r="F57" s="38">
         <f>COUNTIFS(F6:F54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.5</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
       <c r="K57" s="38">
         <f>COUNTIFS(K6:K54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.5714285714285714</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="M57" s="33"/>
       <c r="N57" s="34"/>
       <c r="O57" s="34"/>
       <c r="P57" s="38">
         <f>COUNTIFS(P6:P54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>7.1428571428571425E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="R57" s="33"/>
       <c r="S57" s="34"/>
       <c r="T57" s="34"/>
       <c r="U57" s="38">
         <f>COUNTIFS(U6:U54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.5357142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="34"/>
       <c r="Y57" s="34"/>
       <c r="Z57" s="38">
         <f>COUNTIFS(Z6:Z54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.8928571428571429</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AB57" s="33"/>
       <c r="AC57" s="34"/>
       <c r="AD57" s="34"/>
       <c r="AE57" s="38">
         <f>COUNTIFS(AE6:AE54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.9642857142857143</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="33"/>
@@ -8439,14 +8987,14 @@
       <c r="X58" s="34"/>
       <c r="Y58" s="33">
         <f>AVERAGEIFS(Y6:Y54,B6:B54, "&lt;&gt;ALL",Z6:Z54, "Y")</f>
-        <v>0.84635271290681091</v>
+        <v>0.91547278620952477</v>
       </c>
       <c r="Z58" s="38"/>
       <c r="AB58" s="33"/>
       <c r="AC58" s="34"/>
       <c r="AD58" s="33">
         <f>AVERAGEIFS(AD6:AD54,B6:B54, "&lt;&gt;ALL",AE6:AE54, "Y")</f>
-        <v>0.95345566665001591</v>
+        <v>1.0425128363450116</v>
       </c>
       <c r="AE58" s="38"/>
       <c r="AI58" s="33"/>
@@ -8489,14 +9037,14 @@
       <c r="X59" s="34"/>
       <c r="Y59" s="33">
         <f>AVERAGEIFS(Y6:Y54,B6:B54, "ALL",Z6:Z54, "Y")</f>
-        <v>0.86509105542342013</v>
+        <v>0.90626783320203153</v>
       </c>
       <c r="Z59" s="38"/>
       <c r="AB59" s="33"/>
       <c r="AC59" s="34"/>
       <c r="AD59" s="33">
         <f>AVERAGEIFS(AD6:AD54,B6:B54, "ALL",AE6:AE54, "Y")</f>
-        <v>0.88034712137594695</v>
+        <v>1.0380821240041305</v>
       </c>
       <c r="AE59" s="38"/>
       <c r="AI59" s="33"/>
@@ -8580,22 +9128,22 @@
       <c r="U61" s="10"/>
       <c r="W61" s="37">
         <f>AVERAGEIFS(W:W,B:B, "&lt;&gt;ALL",Z:Z, "Y")</f>
-        <v>0.65472727272727271</v>
+        <v>0.68391891891891898</v>
       </c>
       <c r="X61" s="40"/>
       <c r="Y61" s="37">
         <f>(EXP(2 * Y58) - 1) / (EXP(2 * Y58) + 1)</f>
-        <v>0.68915923688544078</v>
+        <v>0.72374866575846386</v>
       </c>
       <c r="Z61" s="10"/>
       <c r="AB61" s="37">
         <f>AVERAGEIFS(AB:AB,B:B, "&lt;&gt;ALL",AE:AE, "Y")</f>
-        <v>0.69199999999999984</v>
+        <v>0.73646153846153839</v>
       </c>
       <c r="AC61" s="40"/>
       <c r="AD61" s="37">
         <f>(EXP(2 * AD58) - 1) / (EXP(2 * AD58) + 1)</f>
-        <v>0.74134350883026401</v>
+        <v>0.7788784229736736</v>
       </c>
       <c r="AE61" s="10"/>
       <c r="AI61" s="37"/>
@@ -8647,22 +9195,22 @@
       <c r="U62" s="10"/>
       <c r="W62" s="37">
         <f>AVERAGEIFS(W:W,B:B, "ALL",Z:Z, "Y")</f>
-        <v>0.67500000000000016</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="X62" s="40"/>
       <c r="Y62" s="37">
         <f>(EXP(2 * Y59) - 1) / (EXP(2 * Y59) + 1)</f>
-        <v>0.69887142549059733</v>
+        <v>0.71933610664112035</v>
       </c>
       <c r="Z62" s="10"/>
       <c r="AB62" s="37">
         <f>AVERAGEIFS(AB:AB,B:B, "ALL",AE:AE, "Y")</f>
-        <v>0.70533333333333326</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="AC62" s="40"/>
       <c r="AD62" s="37">
         <f>(EXP(2 * AD59) - 1) / (EXP(2 * AD59) + 1)</f>
-        <v>0.70659317575962244</v>
+        <v>0.77712958558381273</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AI62" s="37"/>
@@ -8868,8 +9416,8 @@
   </sheetPr>
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8906,86 +9454,86 @@
     </row>
     <row r="2" spans="1:23" ht="9" customHeight="1"/>
     <row r="3" spans="1:23" ht="49.8" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="65" t="str">
+      <c r="A4" s="64" t="str">
         <f>'PFEF SRC'!A3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="66" t="str">
+      <c r="B4" s="70" t="str">
         <f>'PFEF SRC'!B3</f>
         <v>Model</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="71" t="str">
         <f>'PFEF SRC'!$C$3</f>
         <v>vanilla-mode1-01</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="69" t="str">
+      <c r="F4" s="71" t="str">
         <f>'PFEF SRC'!$H$3</f>
         <v>vanilla-mode1-02</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="69" t="str">
+      <c r="I4" s="71" t="str">
         <f>'PFEF SRC'!$M$3</f>
         <v>vanilla-mode2-01</v>
       </c>
-      <c r="J4" s="69"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="69" t="str">
+      <c r="L4" s="71" t="str">
         <f>'PFEF SRC'!$R$3</f>
         <v>base-mode2-01</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="69" t="str">
+      <c r="O4" s="71" t="str">
         <f>'PFEF SRC'!$W$3</f>
         <v>vanilla4-mode2-01</v>
       </c>
-      <c r="P4" s="69"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="69" t="str">
+      <c r="R4" s="71" t="str">
         <f>'PFEF SRC'!$AB$3</f>
         <v>vanilla4o-mode2-01</v>
       </c>
-      <c r="S4" s="69"/>
+      <c r="S4" s="71"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="69" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" s="24" customFormat="1" ht="13.8">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="54" t="str">
         <f>'PFEF SRC'!C4</f>
         <v>r</v>
@@ -9039,7 +9587,7 @@
         <f>'PFEF SRC'!AC4</f>
         <v>p</v>
       </c>
-      <c r="U5" s="64"/>
+      <c r="U5" s="69"/>
       <c r="V5" s="30"/>
       <c r="W5" s="12"/>
     </row>
@@ -10632,53 +11180,29 @@
       <c r="W28" s="13"/>
     </row>
     <row r="29" spans="1:23" s="6" customFormat="1">
-      <c r="A29" s="52">
+      <c r="A29" s="52" t="str">
         <f>'PFEF SRC'!A28</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B29" s="7" t="str">
         <f>'PFEF SRC'!B28</f>
         <v>ALL</v>
       </c>
-      <c r="C29" s="19">
-        <f>'PFEF SRC'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <f>'PFEF SRC'!D28</f>
-        <v>0</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="19">
-        <f>'PFEF SRC'!H28</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <f>'PFEF SRC'!I28</f>
-        <v>0</v>
-      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="19">
-        <f>'PFEF SRC'!M28</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
-        <f>'PFEF SRC'!N28</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="19">
-        <f>'PFEF SRC'!R28</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="15">
-        <f>'PFEF SRC'!S28</f>
-        <v>0</v>
-      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="8"/>
       <c r="O29" s="19">
         <f>'PFEF SRC'!W28</f>
-        <v>0</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="P29" s="15">
         <f>'PFEF SRC'!X28</f>
@@ -10687,7 +11211,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="19">
         <f>'PFEF SRC'!AB28</f>
-        <v>0</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="S29" s="15">
         <f>'PFEF SRC'!AC28</f>
@@ -10696,74 +11220,47 @@
       <c r="T29" s="8"/>
       <c r="U29" s="20">
         <f>'PFEF SRC'!AJ28</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="31">
-        <f>'PFEF SRC'!AK28</f>
-        <v>0</v>
-      </c>
+        <v>0.83981583057014642</v>
+      </c>
+      <c r="V29" s="31"/>
       <c r="W29" s="13" t="str">
         <f>'PFEF SRC'!AL28</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1">
-      <c r="A30" s="52">
+      <c r="A30" s="52" t="str">
         <f>'PFEF SRC'!A29</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B30" s="7" t="str">
         <f>'PFEF SRC'!B29</f>
         <v>friend-group</v>
       </c>
-      <c r="C30" s="19">
-        <f>'PFEF SRC'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <f>'PFEF SRC'!D29</f>
-        <v>0</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="19">
-        <f>'PFEF SRC'!H29</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <f>'PFEF SRC'!I29</f>
-        <v>0</v>
-      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="19">
-        <f>'PFEF SRC'!M29</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <f>'PFEF SRC'!N29</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="19">
-        <f>'PFEF SRC'!R29</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <f>'PFEF SRC'!S29</f>
-        <v>0</v>
-      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="8"/>
       <c r="O30" s="19">
         <f>'PFEF SRC'!W29</f>
-        <v>0</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="P30" s="15">
         <f>'PFEF SRC'!X29</f>
-        <v>0</v>
+        <v>1.5E-3</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="19">
         <f>'PFEF SRC'!AB29</f>
-        <v>0</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="S30" s="15">
         <f>'PFEF SRC'!AC29</f>
@@ -10772,11 +11269,11 @@
       <c r="T30" s="8"/>
       <c r="U30" s="20">
         <f>'PFEF SRC'!AJ29</f>
-        <v>0</v>
+        <v>0.74528574473453002</v>
       </c>
       <c r="V30" s="31">
         <f>'PFEF SRC'!AK29</f>
-        <v>0</v>
+        <v>-9.4530085835616395E-2</v>
       </c>
       <c r="W30" s="13" t="str">
         <f>'PFEF SRC'!AL29</f>
@@ -10784,53 +11281,29 @@
       </c>
     </row>
     <row r="31" spans="1:23" s="6" customFormat="1">
-      <c r="A31" s="52">
+      <c r="A31" s="52" t="str">
         <f>'PFEF SRC'!A30</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B31" s="7" t="str">
         <f>'PFEF SRC'!B30</f>
         <v>personal-interested</v>
       </c>
-      <c r="C31" s="19">
-        <f>'PFEF SRC'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <f>'PFEF SRC'!D30</f>
-        <v>0</v>
-      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="19">
-        <f>'PFEF SRC'!H30</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
-        <f>'PFEF SRC'!I30</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="19">
-        <f>'PFEF SRC'!M30</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
-        <f>'PFEF SRC'!N30</f>
-        <v>0</v>
-      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="19">
-        <f>'PFEF SRC'!R30</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <f>'PFEF SRC'!S30</f>
-        <v>0</v>
-      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="8"/>
       <c r="O31" s="19">
         <f>'PFEF SRC'!W30</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="P31" s="15">
         <f>'PFEF SRC'!X30</f>
@@ -10839,20 +11312,20 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="19">
         <f>'PFEF SRC'!AB30</f>
-        <v>0</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="S31" s="15">
         <f>'PFEF SRC'!AC30</f>
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="T31" s="8"/>
       <c r="U31" s="20">
         <f>'PFEF SRC'!AJ30</f>
-        <v>0</v>
+        <v>0.77577492552180716</v>
       </c>
       <c r="V31" s="31">
         <f>'PFEF SRC'!AK30</f>
-        <v>0</v>
+        <v>-6.4040905048339258E-2</v>
       </c>
       <c r="W31" s="13" t="str">
         <f>'PFEF SRC'!AL30</f>
@@ -10860,75 +11333,51 @@
       </c>
     </row>
     <row r="32" spans="1:23" s="6" customFormat="1">
-      <c r="A32" s="52">
+      <c r="A32" s="52" t="str">
         <f>'PFEF SRC'!A31</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B32" s="7" t="str">
         <f>'PFEF SRC'!B31</f>
         <v>urgency</v>
       </c>
-      <c r="C32" s="19">
-        <f>'PFEF SRC'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <f>'PFEF SRC'!D31</f>
-        <v>0</v>
-      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="19">
-        <f>'PFEF SRC'!H31</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <f>'PFEF SRC'!I31</f>
-        <v>0</v>
-      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="19">
-        <f>'PFEF SRC'!M31</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="15">
-        <f>'PFEF SRC'!N31</f>
-        <v>0</v>
-      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="19">
-        <f>'PFEF SRC'!R31</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="15">
-        <f>'PFEF SRC'!S31</f>
-        <v>0</v>
-      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="8"/>
       <c r="O32" s="19">
         <f>'PFEF SRC'!W31</f>
-        <v>0</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="P32" s="15">
         <f>'PFEF SRC'!X31</f>
-        <v>0</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="19">
         <f>'PFEF SRC'!AB31</f>
-        <v>0</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="S32" s="15">
         <f>'PFEF SRC'!AC31</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="T32" s="8"/>
       <c r="U32" s="20">
         <f>'PFEF SRC'!AJ31</f>
-        <v>0</v>
+        <v>0.6189601400933934</v>
       </c>
       <c r="V32" s="31">
         <f>'PFEF SRC'!AK31</f>
-        <v>0</v>
+        <v>-0.22085569047675302</v>
       </c>
       <c r="W32" s="13" t="str">
         <f>'PFEF SRC'!AL31</f>
@@ -10936,53 +11385,29 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="6" customFormat="1">
-      <c r="A33" s="52">
+      <c r="A33" s="52" t="str">
         <f>'PFEF SRC'!A32</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>'PFEF SRC'!B32</f>
         <v>work-logistics</v>
       </c>
-      <c r="C33" s="19">
-        <f>'PFEF SRC'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <f>'PFEF SRC'!D32</f>
-        <v>0</v>
-      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="19">
-        <f>'PFEF SRC'!H32</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
-        <f>'PFEF SRC'!I32</f>
-        <v>0</v>
-      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="19">
-        <f>'PFEF SRC'!M32</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <f>'PFEF SRC'!N32</f>
-        <v>0</v>
-      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="19">
-        <f>'PFEF SRC'!R32</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="15">
-        <f>'PFEF SRC'!S32</f>
-        <v>0</v>
-      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
       <c r="O33" s="19">
         <f>'PFEF SRC'!W32</f>
-        <v>0</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="P33" s="15">
         <f>'PFEF SRC'!X32</f>
@@ -10991,7 +11416,7 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="19">
         <f>'PFEF SRC'!AB32</f>
-        <v>0</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="S33" s="15">
         <f>'PFEF SRC'!AC32</f>
@@ -11000,11 +11425,11 @@
       <c r="T33" s="8"/>
       <c r="U33" s="20">
         <f>'PFEF SRC'!AJ32</f>
-        <v>0</v>
+        <v>0.85591745799532248</v>
       </c>
       <c r="V33" s="31">
         <f>'PFEF SRC'!AK32</f>
-        <v>0</v>
+        <v>1.6101627425176068E-2</v>
       </c>
       <c r="W33" s="13" t="str">
         <f>'PFEF SRC'!AL32</f>
@@ -11012,53 +11437,29 @@
       </c>
     </row>
     <row r="34" spans="1:23" s="6" customFormat="1">
-      <c r="A34" s="52">
+      <c r="A34" s="52" t="str">
         <f>'PFEF SRC'!A33</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B34" s="7" t="str">
         <f>'PFEF SRC'!B33</f>
         <v>work-pers</v>
       </c>
-      <c r="C34" s="19">
-        <f>'PFEF SRC'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <f>'PFEF SRC'!D33</f>
-        <v>0</v>
-      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="19">
-        <f>'PFEF SRC'!H33</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <f>'PFEF SRC'!I33</f>
-        <v>0</v>
-      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="19">
-        <f>'PFEF SRC'!M33</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <f>'PFEF SRC'!N33</f>
-        <v>0</v>
-      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="19">
-        <f>'PFEF SRC'!R33</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="15">
-        <f>'PFEF SRC'!S33</f>
-        <v>0</v>
-      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="8"/>
       <c r="O34" s="19">
         <f>'PFEF SRC'!W33</f>
-        <v>0</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="P34" s="15">
         <f>'PFEF SRC'!X33</f>
@@ -11067,7 +11468,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="19">
         <f>'PFEF SRC'!AB33</f>
-        <v>0</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="S34" s="15">
         <f>'PFEF SRC'!AC33</f>
@@ -11076,11 +11477,11 @@
       <c r="T34" s="8"/>
       <c r="U34" s="20">
         <f>'PFEF SRC'!AJ33</f>
-        <v>0</v>
+        <v>0.87981666930171709</v>
       </c>
       <c r="V34" s="31">
         <f>'PFEF SRC'!AK33</f>
-        <v>0</v>
+        <v>4.0000838731570676E-2</v>
       </c>
       <c r="W34" s="13" t="str">
         <f>'PFEF SRC'!AL33</f>
@@ -11088,53 +11489,29 @@
       </c>
     </row>
     <row r="35" spans="1:23" s="6" customFormat="1">
-      <c r="A35" s="52">
+      <c r="A35" s="52" t="str">
         <f>'PFEF SRC'!A34</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B35" s="7" t="str">
         <f>'PFEF SRC'!B34</f>
         <v>work-relevant</v>
       </c>
-      <c r="C35" s="19">
-        <f>'PFEF SRC'!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
-        <f>'PFEF SRC'!D34</f>
-        <v>0</v>
-      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="19">
-        <f>'PFEF SRC'!H34</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <f>'PFEF SRC'!I34</f>
-        <v>0</v>
-      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="19">
-        <f>'PFEF SRC'!M34</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <f>'PFEF SRC'!N34</f>
-        <v>0</v>
-      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="19">
-        <f>'PFEF SRC'!R34</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <f>'PFEF SRC'!S34</f>
-        <v>0</v>
-      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="8"/>
       <c r="O35" s="19">
         <f>'PFEF SRC'!W34</f>
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="P35" s="15">
         <f>'PFEF SRC'!X34</f>
@@ -11143,7 +11520,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="19">
         <f>'PFEF SRC'!AB34</f>
-        <v>0</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="S35" s="15">
         <f>'PFEF SRC'!AC34</f>
@@ -11152,11 +11529,11 @@
       <c r="T35" s="8"/>
       <c r="U35" s="20">
         <f>'PFEF SRC'!AJ34</f>
-        <v>0</v>
+        <v>0.91257044475881888</v>
       </c>
       <c r="V35" s="31">
         <f>'PFEF SRC'!AK34</f>
-        <v>0</v>
+        <v>7.2754614188672462E-2</v>
       </c>
       <c r="W35" s="13" t="str">
         <f>'PFEF SRC'!AL34</f>
@@ -11819,53 +12196,29 @@
       <c r="W45" s="11"/>
     </row>
     <row r="46" spans="1:23" s="6" customFormat="1">
-      <c r="A46" s="52">
+      <c r="A46" s="52" t="str">
         <f>'PFEF SRC'!A45</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B46" s="7" t="str">
         <f>'PFEF SRC'!B45</f>
         <v>ALL</v>
       </c>
-      <c r="C46" s="19">
-        <f>'PFEF SRC'!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="15">
-        <f>'PFEF SRC'!D45</f>
-        <v>0</v>
-      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="19">
-        <f>'PFEF SRC'!H45</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="15">
-        <f>'PFEF SRC'!I45</f>
-        <v>0</v>
-      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="19">
-        <f>'PFEF SRC'!M45</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="15">
-        <f>'PFEF SRC'!N45</f>
-        <v>0</v>
-      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="15"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="19">
-        <f>'PFEF SRC'!R45</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="15">
-        <f>'PFEF SRC'!S45</f>
-        <v>0</v>
-      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="8"/>
       <c r="O46" s="19">
         <f>'PFEF SRC'!W45</f>
-        <v>0</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="P46" s="15">
         <f>'PFEF SRC'!X45</f>
@@ -11874,7 +12227,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="19">
         <f>'PFEF SRC'!AB45</f>
-        <v>0</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="S46" s="15">
         <f>'PFEF SRC'!AC45</f>
@@ -11883,74 +12236,47 @@
       <c r="T46" s="8"/>
       <c r="U46" s="20">
         <f>'PFEF SRC'!AJ45</f>
-        <v>0</v>
-      </c>
-      <c r="V46" s="31">
-        <f>'PFEF SRC'!AK45</f>
-        <v>0</v>
-      </c>
+        <v>0.77074865243019797</v>
+      </c>
+      <c r="V46" s="31"/>
       <c r="W46" s="11" t="str">
         <f>'PFEF SRC'!AL45</f>
         <v>ALL</v>
       </c>
     </row>
     <row r="47" spans="1:23" s="6" customFormat="1">
-      <c r="A47" s="52">
+      <c r="A47" s="52" t="str">
         <f>'PFEF SRC'!A46</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>'PFEF SRC'!B46</f>
         <v>company-law</v>
       </c>
-      <c r="C47" s="19">
-        <f>'PFEF SRC'!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="15">
-        <f>'PFEF SRC'!D46</f>
-        <v>0</v>
-      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="19">
-        <f>'PFEF SRC'!H46</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <f>'PFEF SRC'!I46</f>
-        <v>0</v>
-      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="19">
-        <f>'PFEF SRC'!M46</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <f>'PFEF SRC'!N46</f>
-        <v>0</v>
-      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="19">
-        <f>'PFEF SRC'!R46</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <f>'PFEF SRC'!S46</f>
-        <v>0</v>
-      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="8"/>
       <c r="O47" s="19">
         <f>'PFEF SRC'!W46</f>
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="P47" s="15">
         <f>'PFEF SRC'!X46</f>
-        <v>0</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="19">
         <f>'PFEF SRC'!AB46</f>
-        <v>0</v>
+        <v>0.874</v>
       </c>
       <c r="S47" s="15">
         <f>'PFEF SRC'!AC46</f>
@@ -11959,11 +12285,11 @@
       <c r="T47" s="8"/>
       <c r="U47" s="20">
         <f>'PFEF SRC'!AJ46</f>
-        <v>0</v>
+        <v>0.70947036733326396</v>
       </c>
       <c r="V47" s="31">
         <f>'PFEF SRC'!AK46</f>
-        <v>0</v>
+        <v>-6.1278285096934004E-2</v>
       </c>
       <c r="W47" s="11" t="str">
         <f>'PFEF SRC'!AL46</f>
@@ -11971,53 +12297,29 @@
       </c>
     </row>
     <row r="48" spans="1:23" s="6" customFormat="1">
-      <c r="A48" s="52">
+      <c r="A48" s="52" t="str">
         <f>'PFEF SRC'!A47</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>'PFEF SRC'!B47</f>
         <v>interested</v>
       </c>
-      <c r="C48" s="19">
-        <f>'PFEF SRC'!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="15">
-        <f>'PFEF SRC'!D47</f>
-        <v>0</v>
-      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="19">
-        <f>'PFEF SRC'!H47</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="15">
-        <f>'PFEF SRC'!I47</f>
-        <v>0</v>
-      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="19">
-        <f>'PFEF SRC'!M47</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="15">
-        <f>'PFEF SRC'!N47</f>
-        <v>0</v>
-      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="19">
-        <f>'PFEF SRC'!R47</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="15">
-        <f>'PFEF SRC'!S47</f>
-        <v>0</v>
-      </c>
+      <c r="L48" s="19"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="8"/>
       <c r="O48" s="19">
         <f>'PFEF SRC'!W47</f>
-        <v>0</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="P48" s="15">
         <f>'PFEF SRC'!X47</f>
@@ -12026,7 +12328,7 @@
       <c r="Q48" s="8"/>
       <c r="R48" s="19">
         <f>'PFEF SRC'!AB47</f>
-        <v>0</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="S48" s="15">
         <f>'PFEF SRC'!AC47</f>
@@ -12035,11 +12337,11 @@
       <c r="T48" s="8"/>
       <c r="U48" s="20">
         <f>'PFEF SRC'!AJ47</f>
-        <v>0</v>
+        <v>0.76333017280799076</v>
       </c>
       <c r="V48" s="31">
         <f>'PFEF SRC'!AK47</f>
-        <v>0</v>
+        <v>-7.418479622207208E-3</v>
       </c>
       <c r="W48" s="11" t="str">
         <f>'PFEF SRC'!AL47</f>
@@ -12047,49 +12349,29 @@
       </c>
     </row>
     <row r="49" spans="1:25" s="6" customFormat="1">
+      <c r="A49" s="52" t="str">
+        <f>'PFEF SRC'!A48</f>
+        <v>Usha</v>
+      </c>
       <c r="B49" s="7" t="str">
         <f>'PFEF SRC'!B48</f>
         <v>riding</v>
       </c>
-      <c r="C49" s="19">
-        <f>'PFEF SRC'!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
-        <f>'PFEF SRC'!D48</f>
-        <v>0</v>
-      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="19">
-        <f>'PFEF SRC'!H48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <f>'PFEF SRC'!I48</f>
-        <v>0</v>
-      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="19">
-        <f>'PFEF SRC'!M48</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <f>'PFEF SRC'!N48</f>
-        <v>0</v>
-      </c>
+      <c r="I49" s="19"/>
+      <c r="J49" s="15"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="19">
-        <f>'PFEF SRC'!R48</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <f>'PFEF SRC'!S48</f>
-        <v>0</v>
-      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="8"/>
       <c r="O49" s="19">
         <f>'PFEF SRC'!W48</f>
-        <v>0</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="P49" s="15">
         <f>'PFEF SRC'!X48</f>
@@ -12098,7 +12380,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="19">
         <f>'PFEF SRC'!AB48</f>
-        <v>0</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="S49" s="15">
         <f>'PFEF SRC'!AC48</f>
@@ -12107,11 +12389,11 @@
       <c r="T49" s="8"/>
       <c r="U49" s="20">
         <f>'PFEF SRC'!AJ48</f>
-        <v>0</v>
+        <v>0.86268162945959947</v>
       </c>
       <c r="V49" s="31">
         <f>'PFEF SRC'!AK48</f>
-        <v>0</v>
+        <v>9.1932977029401508E-2</v>
       </c>
       <c r="W49" s="11" t="str">
         <f>'PFEF SRC'!AL48</f>
@@ -12119,53 +12401,29 @@
       </c>
     </row>
     <row r="50" spans="1:25" s="6" customFormat="1">
-      <c r="A50" s="52">
+      <c r="A50" s="52" t="str">
         <f>'PFEF SRC'!A49</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B50" s="7" t="str">
         <f>'PFEF SRC'!B49</f>
         <v>riding-arrangements</v>
       </c>
-      <c r="C50" s="19">
-        <f>'PFEF SRC'!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
-        <f>'PFEF SRC'!D49</f>
-        <v>0</v>
-      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="19">
-        <f>'PFEF SRC'!H49</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
-        <f>'PFEF SRC'!I49</f>
-        <v>0</v>
-      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="19">
-        <f>'PFEF SRC'!M49</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="15">
-        <f>'PFEF SRC'!N49</f>
-        <v>0</v>
-      </c>
+      <c r="I50" s="19"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="19">
-        <f>'PFEF SRC'!R49</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="15">
-        <f>'PFEF SRC'!S49</f>
-        <v>0</v>
-      </c>
+      <c r="L50" s="19"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="8"/>
       <c r="O50" s="19">
         <f>'PFEF SRC'!W49</f>
-        <v>0</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="P50" s="15">
         <f>'PFEF SRC'!X49</f>
@@ -12174,7 +12432,7 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="19">
         <f>'PFEF SRC'!AB49</f>
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="S50" s="15">
         <f>'PFEF SRC'!AC49</f>
@@ -12183,11 +12441,11 @@
       <c r="T50" s="8"/>
       <c r="U50" s="20">
         <f>'PFEF SRC'!AJ49</f>
-        <v>0</v>
+        <v>0.83050066917751153</v>
       </c>
       <c r="V50" s="31">
         <f>'PFEF SRC'!AK49</f>
-        <v>0</v>
+        <v>5.9752016747313563E-2</v>
       </c>
       <c r="W50" s="11" t="str">
         <f>'PFEF SRC'!AL49</f>
@@ -12195,62 +12453,38 @@
       </c>
     </row>
     <row r="51" spans="1:25" s="6" customFormat="1">
-      <c r="A51" s="52">
+      <c r="A51" s="52" t="str">
         <f>'PFEF SRC'!A50</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B51" s="7" t="str">
         <f>'PFEF SRC'!B50</f>
         <v>school-importance</v>
       </c>
-      <c r="C51" s="19">
-        <f>'PFEF SRC'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="15">
-        <f>'PFEF SRC'!D50</f>
-        <v>0</v>
-      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="19">
-        <f>'PFEF SRC'!H50</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="15">
-        <f>'PFEF SRC'!I50</f>
-        <v>0</v>
-      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="19">
-        <f>'PFEF SRC'!M50</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <f>'PFEF SRC'!N50</f>
-        <v>0</v>
-      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="19">
-        <f>'PFEF SRC'!R50</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <f>'PFEF SRC'!S50</f>
-        <v>0</v>
-      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="8"/>
       <c r="O51" s="19">
         <f>'PFEF SRC'!W50</f>
-        <v>0</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="P51" s="15">
         <f>'PFEF SRC'!X50</f>
-        <v>0</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="19">
         <f>'PFEF SRC'!AB50</f>
-        <v>0</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="S51" s="15">
         <f>'PFEF SRC'!AC50</f>
@@ -12259,11 +12493,11 @@
       <c r="T51" s="8"/>
       <c r="U51" s="20">
         <f>'PFEF SRC'!AJ50</f>
-        <v>0</v>
+        <v>0.61357128872292921</v>
       </c>
       <c r="V51" s="31">
         <f>'PFEF SRC'!AK50</f>
-        <v>0</v>
+        <v>-0.15717736370726876</v>
       </c>
       <c r="W51" s="11" t="str">
         <f>'PFEF SRC'!AL50</f>
@@ -12271,53 +12505,29 @@
       </c>
     </row>
     <row r="52" spans="1:25" s="6" customFormat="1">
-      <c r="A52" s="52">
+      <c r="A52" s="52" t="str">
         <f>'PFEF SRC'!A51</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B52" s="7" t="str">
         <f>'PFEF SRC'!B51</f>
         <v>urgency</v>
       </c>
-      <c r="C52" s="19">
-        <f>'PFEF SRC'!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="15">
-        <f>'PFEF SRC'!D51</f>
-        <v>0</v>
-      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="19">
-        <f>'PFEF SRC'!H51</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <f>'PFEF SRC'!I51</f>
-        <v>0</v>
-      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="19">
-        <f>'PFEF SRC'!M51</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="15">
-        <f>'PFEF SRC'!N51</f>
-        <v>0</v>
-      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="19">
-        <f>'PFEF SRC'!R51</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="15">
-        <f>'PFEF SRC'!S51</f>
-        <v>0</v>
-      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="8"/>
       <c r="O52" s="19">
         <f>'PFEF SRC'!W51</f>
-        <v>0</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="P52" s="15">
         <f>'PFEF SRC'!X51</f>
@@ -12326,7 +12536,7 @@
       <c r="Q52" s="8"/>
       <c r="R52" s="19">
         <f>'PFEF SRC'!AB51</f>
-        <v>0</v>
+        <v>0.749</v>
       </c>
       <c r="S52" s="15">
         <f>'PFEF SRC'!AC51</f>
@@ -12335,11 +12545,11 @@
       <c r="T52" s="8"/>
       <c r="U52" s="20">
         <f>'PFEF SRC'!AJ51</f>
-        <v>0</v>
+        <v>0.76867737977306394</v>
       </c>
       <c r="V52" s="31">
         <f>'PFEF SRC'!AK51</f>
-        <v>0</v>
+        <v>-2.0712726571340268E-3</v>
       </c>
       <c r="W52" s="11" t="str">
         <f>'PFEF SRC'!AL51</f>
@@ -12347,53 +12557,29 @@
       </c>
     </row>
     <row r="53" spans="1:25" s="6" customFormat="1">
-      <c r="A53" s="52">
+      <c r="A53" s="52" t="str">
         <f>'PFEF SRC'!A52</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B53" s="7" t="str">
         <f>'PFEF SRC'!B52</f>
         <v>work-logistics</v>
       </c>
-      <c r="C53" s="19">
-        <f>'PFEF SRC'!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
-        <f>'PFEF SRC'!D52</f>
-        <v>0</v>
-      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="19">
-        <f>'PFEF SRC'!H52</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
-        <f>'PFEF SRC'!I52</f>
-        <v>0</v>
-      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="19">
-        <f>'PFEF SRC'!M52</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <f>'PFEF SRC'!N52</f>
-        <v>0</v>
-      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="19">
-        <f>'PFEF SRC'!R52</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <f>'PFEF SRC'!S52</f>
-        <v>0</v>
-      </c>
+      <c r="L53" s="19"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="8"/>
       <c r="O53" s="19">
         <f>'PFEF SRC'!W52</f>
-        <v>0</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="P53" s="15">
         <f>'PFEF SRC'!X52</f>
@@ -12402,7 +12588,7 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="19">
         <f>'PFEF SRC'!AB52</f>
-        <v>0</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="S53" s="15">
         <f>'PFEF SRC'!AC52</f>
@@ -12411,11 +12597,11 @@
       <c r="T53" s="8"/>
       <c r="U53" s="20">
         <f>'PFEF SRC'!AJ52</f>
-        <v>0</v>
+        <v>0.8543017457430877</v>
       </c>
       <c r="V53" s="31">
         <f>'PFEF SRC'!AK52</f>
-        <v>0</v>
+        <v>8.3553093312889737E-2</v>
       </c>
       <c r="W53" s="11" t="str">
         <f>'PFEF SRC'!AL52</f>
@@ -12423,53 +12609,29 @@
       </c>
     </row>
     <row r="54" spans="1:25" s="6" customFormat="1">
-      <c r="A54" s="52">
+      <c r="A54" s="52" t="str">
         <f>'PFEF SRC'!A53</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B54" s="7" t="str">
         <f>'PFEF SRC'!B53</f>
         <v>work-pers</v>
       </c>
-      <c r="C54" s="19">
-        <f>'PFEF SRC'!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="15">
-        <f>'PFEF SRC'!D53</f>
-        <v>0</v>
-      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="19">
-        <f>'PFEF SRC'!H53</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="15">
-        <f>'PFEF SRC'!I53</f>
-        <v>0</v>
-      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="19">
-        <f>'PFEF SRC'!M53</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="15">
-        <f>'PFEF SRC'!N53</f>
-        <v>0</v>
-      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="15"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="19">
-        <f>'PFEF SRC'!R53</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="15">
-        <f>'PFEF SRC'!S53</f>
-        <v>0</v>
-      </c>
+      <c r="L54" s="19"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="8"/>
       <c r="O54" s="19">
         <f>'PFEF SRC'!W53</f>
-        <v>0</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="P54" s="15">
         <f>'PFEF SRC'!X53</f>
@@ -12478,7 +12640,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="19">
         <f>'PFEF SRC'!AB53</f>
-        <v>0</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="S54" s="15">
         <f>'PFEF SRC'!AC53</f>
@@ -12487,11 +12649,11 @@
       <c r="T54" s="8"/>
       <c r="U54" s="20">
         <f>'PFEF SRC'!AJ53</f>
-        <v>0</v>
+        <v>0.81047637806167439</v>
       </c>
       <c r="V54" s="31">
         <f>'PFEF SRC'!AK53</f>
-        <v>0</v>
+        <v>3.9727725631476418E-2</v>
       </c>
       <c r="W54" s="11" t="str">
         <f>'PFEF SRC'!AL53</f>
@@ -12499,53 +12661,29 @@
       </c>
     </row>
     <row r="55" spans="1:25" s="6" customFormat="1">
-      <c r="A55" s="52">
+      <c r="A55" s="52" t="str">
         <f>'PFEF SRC'!A54</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B55" s="7" t="str">
         <f>'PFEF SRC'!B54</f>
         <v>work-relevant</v>
       </c>
-      <c r="C55" s="19">
-        <f>'PFEF SRC'!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
-        <f>'PFEF SRC'!D54</f>
-        <v>0</v>
-      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="19">
-        <f>'PFEF SRC'!H54</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="15">
-        <f>'PFEF SRC'!I54</f>
-        <v>0</v>
-      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="19">
-        <f>'PFEF SRC'!M54</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <f>'PFEF SRC'!N54</f>
-        <v>0</v>
-      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="15"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="19">
-        <f>'PFEF SRC'!R54</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <f>'PFEF SRC'!S54</f>
-        <v>0</v>
-      </c>
+      <c r="L55" s="19"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="8"/>
       <c r="O55" s="19">
         <f>'PFEF SRC'!W54</f>
-        <v>0</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="P55" s="15">
         <f>'PFEF SRC'!X54</f>
@@ -12554,7 +12692,7 @@
       <c r="Q55" s="8"/>
       <c r="R55" s="19">
         <f>'PFEF SRC'!AB54</f>
-        <v>0</v>
+        <v>0.753</v>
       </c>
       <c r="S55" s="15">
         <f>'PFEF SRC'!AC54</f>
@@ -12563,11 +12701,11 @@
       <c r="T55" s="8"/>
       <c r="U55" s="20">
         <f>'PFEF SRC'!AJ54</f>
-        <v>0</v>
+        <v>0.7940834041936421</v>
       </c>
       <c r="V55" s="31">
         <f>'PFEF SRC'!AK54</f>
-        <v>0</v>
+        <v>2.3334751763444128E-2</v>
       </c>
       <c r="W55" s="11" t="str">
         <f>'PFEF SRC'!AL54</f>
@@ -12600,11 +12738,11 @@
       <c r="W56" s="11"/>
     </row>
     <row r="57" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="65" t="str">
+      <c r="A57" s="64" t="str">
         <f>'PFEF SRC'!A65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="65"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="67" t="str">
         <f>'PFEF SRC'!C65</f>
         <v>V-M1-A</v>
@@ -12648,44 +12786,44 @@
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="65" t="str">
+      <c r="A58" s="64" t="str">
         <f>'PFEF SRC'!A57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="65"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="68">
         <f>'PFEF SRC'!F57</f>
-        <v>0.5</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="D58" s="68"/>
       <c r="E58" s="38"/>
       <c r="F58" s="68">
         <f>'PFEF SRC'!K57</f>
-        <v>0.5714285714285714</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="G58" s="68"/>
       <c r="H58" s="38"/>
       <c r="I58" s="68">
         <f>'PFEF SRC'!P57</f>
-        <v>7.1428571428571425E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="J58" s="68"/>
       <c r="K58" s="38"/>
       <c r="L58" s="68">
         <f>'PFEF SRC'!U57</f>
-        <v>0.5357142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M58" s="68"/>
       <c r="N58" s="38"/>
       <c r="O58" s="68">
         <f>'PFEF SRC'!Z57</f>
-        <v>0.8928571428571429</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="P58" s="68"/>
       <c r="Q58" s="38"/>
       <c r="R58" s="68">
         <f>'PFEF SRC'!AE57</f>
-        <v>0.9642857142857143</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="S58" s="68"/>
       <c r="T58" s="8"/>
@@ -12695,92 +12833,92 @@
       <c r="X58" s="45"/>
     </row>
     <row r="59" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="65" t="str">
+      <c r="A59" s="64" t="str">
         <f>'PFEF SRC'!A61</f>
         <v>Mean r (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="70">
+      <c r="B59" s="64"/>
+      <c r="C59" s="66">
         <f>'PFEF SRC'!C61</f>
         <v>0.45118181818181813</v>
       </c>
-      <c r="D59" s="70"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="70">
+      <c r="F59" s="66">
         <f>'PFEF SRC'!H61</f>
         <v>0.31123076923076926</v>
       </c>
-      <c r="G59" s="70"/>
+      <c r="G59" s="66"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="70">
+      <c r="I59" s="66">
         <f>'PFEF SRC'!M61</f>
         <v>1.2499999999999983E-2</v>
       </c>
-      <c r="J59" s="70"/>
+      <c r="J59" s="66"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="70">
+      <c r="L59" s="66">
         <f>'PFEF SRC'!R61</f>
         <v>0.49058333333333332</v>
       </c>
-      <c r="M59" s="70"/>
+      <c r="M59" s="66"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="70">
+      <c r="O59" s="66">
         <f>'PFEF SRC'!W61</f>
-        <v>0.65472727272727271</v>
-      </c>
-      <c r="P59" s="70"/>
+        <v>0.68391891891891898</v>
+      </c>
+      <c r="P59" s="66"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="70">
+      <c r="R59" s="66">
         <f>'PFEF SRC'!AB61</f>
-        <v>0.69199999999999984</v>
-      </c>
-      <c r="S59" s="70"/>
+        <v>0.73646153846153839</v>
+      </c>
+      <c r="S59" s="66"/>
       <c r="T59" s="10"/>
       <c r="U59" s="20"/>
       <c r="V59" s="32"/>
       <c r="W59" s="11"/>
     </row>
     <row r="60" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="65" t="str">
+      <c r="A60" s="64" t="str">
         <f>'PFEF SRC'!A62</f>
         <v>Mean r (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="70">
+      <c r="B60" s="64"/>
+      <c r="C60" s="66">
         <f>'PFEF SRC'!C62</f>
         <v>0.23633333333333331</v>
       </c>
-      <c r="D60" s="70"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="70">
+      <c r="F60" s="66">
         <f>'PFEF SRC'!H62</f>
         <v>0.16</v>
       </c>
-      <c r="G60" s="70"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="70" t="str">
+      <c r="I60" s="66" t="str">
         <f>'PFEF SRC'!M62</f>
         <v>n/a</v>
       </c>
-      <c r="J60" s="70"/>
+      <c r="J60" s="66"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="70">
+      <c r="L60" s="66">
         <f>'PFEF SRC'!R62</f>
         <v>0.32033333333333336</v>
       </c>
-      <c r="M60" s="70"/>
+      <c r="M60" s="66"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="70">
+      <c r="O60" s="66">
         <f>'PFEF SRC'!W62</f>
-        <v>0.67500000000000016</v>
-      </c>
-      <c r="P60" s="70"/>
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="P60" s="66"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="70">
+      <c r="R60" s="66">
         <f>'PFEF SRC'!AB62</f>
-        <v>0.70533333333333326</v>
-      </c>
-      <c r="S60" s="70"/>
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="S60" s="66"/>
       <c r="T60" s="10"/>
       <c r="U60" s="20"/>
       <c r="V60" s="32"/>
@@ -12936,6 +13074,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
@@ -12952,31 +13112,9 @@
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="L60:M60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12984,8 +13122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AA64" sqref="AA64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13168,8 +13306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36:AC43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AR34" sqref="AR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15467,7 +15605,9 @@
       <c r="AN27" s="13"/>
     </row>
     <row r="28" spans="1:40" s="6" customFormat="1">
-      <c r="A28" s="35"/>
+      <c r="A28" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
@@ -15487,25 +15627,57 @@
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
       <c r="U28" s="8"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="8"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="8"/>
-      <c r="AG28" s="36"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
+      <c r="W28" s="33">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="X28" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="34">
+        <f t="shared" ref="Y28:Y34" si="14">0.5 * LN((1 + VALUE(W28)) / (1 - VALUE(W28)))</f>
+        <v>0.33722752377389636</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB28" s="33">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AC28" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="34">
+        <f t="shared" ref="AD28:AD34" si="15">0.5 * LN((1 + VALUE(AB28)) / (1 - VALUE(AB28)))</f>
+        <v>0.48846843057415096</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG28" s="36">
+        <f t="shared" ref="AG28:AG34" si="16">(IF(F28="Y", E28, 0) + IF(K28="Y", J28, 0) + IF(P28="Y", O28, 0) + IF(U28="Y", T28, 0) + IF(Z28="Y", Y28, 0) + IF(AE28="Y", AD28, 0)) / (IF(F28="Y", 1, 0) + IF(K28="Y", 1, 0) + IF(P28="Y", 1, 0) + IF(U28="Y", 1, 0) + IF(Z28="Y", 1, 0) + IF(AE28="Y", 1, 0))</f>
+        <v>0.41284797717402366</v>
+      </c>
+      <c r="AJ28" s="37">
+        <f t="shared" ref="AJ28:AJ34" si="17">(IF(F28="Y", C28, 0) + IF(K28="Y", H28, 0) + IF(P28="Y", M28, 0) + IF(U28="Y", R28, 0) + IF(Z28="Y", W28, 0) + IF(AE28="Y", AB28, 0)) / (IF(F28="Y", 1, 0) + IF(K28="Y", 1, 0) + IF(P28="Y", 1, 0) + IF(U28="Y", 1, 0) + IF(Z28="Y", 1, 0) + IF(AE28="Y", 1, 0))</f>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AK28" s="37">
+        <f t="shared" ref="AK28:AK34" si="18">(EXP(2 * AG28) - 1) / (EXP(2 * AG28) + 1)</f>
+        <v>0.39088818728618457</v>
+      </c>
       <c r="AL28" s="37"/>
-      <c r="AM28" s="31"/>
+      <c r="AM28" s="31">
+        <f t="shared" ref="AM28:AM34" si="19">AK28-PHOEBE_ALL_A</f>
+        <v>0</v>
+      </c>
       <c r="AN28" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:40" s="6" customFormat="1">
-      <c r="A29" s="35"/>
+      <c r="A29" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B29" s="7" t="s">
         <v>21</v>
       </c>
@@ -15525,25 +15697,57 @@
       <c r="S29" s="34"/>
       <c r="T29" s="34"/>
       <c r="U29" s="8"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="8"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="8"/>
-      <c r="AG29" s="36"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
+      <c r="W29" s="33">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="X29" s="34">
+        <v>1E-4</v>
+      </c>
+      <c r="Y29" s="34">
+        <f t="shared" si="14"/>
+        <v>0.30075129532441375</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB29" s="33">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AC29" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="34">
+        <f t="shared" si="15"/>
+        <v>0.4177106181123123</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG29" s="36">
+        <f t="shared" si="16"/>
+        <v>0.35923095671836303</v>
+      </c>
+      <c r="AJ29" s="37">
+        <f t="shared" si="17"/>
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="AK29" s="37">
+        <f t="shared" si="18"/>
+        <v>0.34453646008890459</v>
+      </c>
       <c r="AL29" s="37"/>
-      <c r="AM29" s="31"/>
+      <c r="AM29" s="31">
+        <f t="shared" si="19"/>
+        <v>-4.6351727197279979E-2</v>
+      </c>
       <c r="AN29" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:40" s="6" customFormat="1">
-      <c r="A30" s="35"/>
+      <c r="A30" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
@@ -15563,25 +15767,57 @@
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
       <c r="U30" s="8"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="8"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="8"/>
-      <c r="AG30" s="36"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
+      <c r="W30" s="33">
+        <v>0.249</v>
+      </c>
+      <c r="X30" s="34">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="Y30" s="34">
+        <f t="shared" si="14"/>
+        <v>0.25434642918072153</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB30" s="33">
+        <v>0.316</v>
+      </c>
+      <c r="AC30" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="34">
+        <f t="shared" si="15"/>
+        <v>0.32719709713135608</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG30" s="36">
+        <f t="shared" si="16"/>
+        <v>0.29077176315603881</v>
+      </c>
+      <c r="AJ30" s="37">
+        <f t="shared" si="17"/>
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="AK30" s="37">
+        <f t="shared" si="18"/>
+        <v>0.28284498866231034</v>
+      </c>
       <c r="AL30" s="37"/>
-      <c r="AM30" s="31"/>
+      <c r="AM30" s="31">
+        <f t="shared" si="19"/>
+        <v>-0.10804319862387424</v>
+      </c>
       <c r="AN30" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:40" s="6" customFormat="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
@@ -15601,25 +15837,57 @@
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
       <c r="U31" s="8"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="8"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="8"/>
-      <c r="AG31" s="36"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
+      <c r="W31" s="33">
+        <v>0.246</v>
+      </c>
+      <c r="X31" s="34">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="Y31" s="34">
+        <f t="shared" si="14"/>
+        <v>0.25115066566972122</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB31" s="33">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AC31" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="34">
+        <f t="shared" si="15"/>
+        <v>0.50878757746596914</v>
+      </c>
+      <c r="AE31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG31" s="36">
+        <f t="shared" si="16"/>
+        <v>0.37996912156784518</v>
+      </c>
+      <c r="AJ31" s="37">
+        <f t="shared" si="17"/>
+        <v>0.35749999999999998</v>
+      </c>
+      <c r="AK31" s="37">
+        <f t="shared" si="18"/>
+        <v>0.36268065111041747</v>
+      </c>
       <c r="AL31" s="37"/>
-      <c r="AM31" s="31"/>
+      <c r="AM31" s="31">
+        <f t="shared" si="19"/>
+        <v>-2.8207536175767101E-2</v>
+      </c>
       <c r="AN31" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:40" s="6" customFormat="1">
-      <c r="A32" s="35"/>
+      <c r="A32" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
@@ -15639,25 +15907,57 @@
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
       <c r="U32" s="8"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="8"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="8"/>
-      <c r="AG32" s="36"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
+      <c r="W32" s="33">
+        <v>0.245</v>
+      </c>
+      <c r="X32" s="34">
+        <v>1.4E-3</v>
+      </c>
+      <c r="Y32" s="34">
+        <f t="shared" si="14"/>
+        <v>0.25008652982489171</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB32" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="AC32" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="34">
+        <f t="shared" si="15"/>
+        <v>0.54930614433405489</v>
+      </c>
+      <c r="AE32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG32" s="36">
+        <f t="shared" si="16"/>
+        <v>0.39969633707947327</v>
+      </c>
+      <c r="AJ32" s="37">
+        <f t="shared" si="17"/>
+        <v>0.3725</v>
+      </c>
+      <c r="AK32" s="37">
+        <f t="shared" si="18"/>
+        <v>0.37968910650929122</v>
+      </c>
       <c r="AL32" s="37"/>
-      <c r="AM32" s="31"/>
+      <c r="AM32" s="31">
+        <f t="shared" si="19"/>
+        <v>-1.1199080776893355E-2</v>
+      </c>
       <c r="AN32" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:40" s="6" customFormat="1">
-      <c r="A33" s="35"/>
+      <c r="A33" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
@@ -15677,25 +15977,57 @@
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
       <c r="U33" s="8"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="8"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="8"/>
-      <c r="AG33" s="36"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
+      <c r="W33" s="33">
+        <v>0.442</v>
+      </c>
+      <c r="X33" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="34">
+        <f t="shared" si="14"/>
+        <v>0.47471367773179163</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB33" s="33">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AC33" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="34">
+        <f t="shared" si="15"/>
+        <v>0.50239676672522737</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG33" s="36">
+        <f t="shared" si="16"/>
+        <v>0.4885552222285095</v>
+      </c>
+      <c r="AJ33" s="37">
+        <f t="shared" si="17"/>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AK33" s="37">
+        <f t="shared" si="18"/>
+        <v>0.45306897851358424</v>
+      </c>
       <c r="AL33" s="37"/>
-      <c r="AM33" s="31"/>
+      <c r="AM33" s="31">
+        <f t="shared" si="19"/>
+        <v>6.2180791227399668E-2</v>
+      </c>
       <c r="AN33" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:40" s="6" customFormat="1">
-      <c r="A34" s="35"/>
+      <c r="A34" s="35" t="s">
+        <v>94</v>
+      </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
@@ -15715,19 +16047,49 @@
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
       <c r="U34" s="8"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="8"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="8"/>
-      <c r="AG34" s="36"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
+      <c r="W34" s="33">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="X34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="34">
+        <f t="shared" si="14"/>
+        <v>0.47720201260109457</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB34" s="33">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AC34" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="34">
+        <f t="shared" si="15"/>
+        <v>0.6342912537201304</v>
+      </c>
+      <c r="AE34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG34" s="36">
+        <f t="shared" si="16"/>
+        <v>0.55574663316061246</v>
+      </c>
+      <c r="AJ34" s="37">
+        <f t="shared" si="17"/>
+        <v>0.50250000000000006</v>
+      </c>
+      <c r="AK34" s="37">
+        <f t="shared" si="18"/>
+        <v>0.50481479523025863</v>
+      </c>
       <c r="AL34" s="37"/>
-      <c r="AM34" s="31"/>
+      <c r="AM34" s="31">
+        <f t="shared" si="19"/>
+        <v>0.11392660794407405</v>
+      </c>
       <c r="AN34" s="13" t="s">
         <v>28</v>
       </c>
@@ -15846,20 +16208,20 @@
         <v>49</v>
       </c>
       <c r="AG36" s="36">
-        <f t="shared" ref="AG36:AG43" si="14">(IF(F36="Y", E36, 0) + IF(K36="Y", J36, 0) + IF(P36="Y", O36, 0) + IF(U36="Y", T36, 0) + IF(Z36="Y", Y36, 0) + IF(AE36="Y", AD36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
+        <f t="shared" ref="AG36:AG43" si="20">(IF(F36="Y", E36, 0) + IF(K36="Y", J36, 0) + IF(P36="Y", O36, 0) + IF(U36="Y", T36, 0) + IF(Z36="Y", Y36, 0) + IF(AE36="Y", AD36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
         <v>0.43223985855057157</v>
       </c>
       <c r="AJ36" s="37">
-        <f t="shared" ref="AJ36:AJ43" si="15">(IF(F36="Y", C36, 0) + IF(K36="Y", H36, 0) + IF(P36="Y", M36, 0) + IF(U36="Y", R36, 0) + IF(Z36="Y", W36, 0) + IF(AE36="Y", AB36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
+        <f t="shared" ref="AJ36:AJ43" si="21">(IF(F36="Y", C36, 0) + IF(K36="Y", H36, 0) + IF(P36="Y", M36, 0) + IF(U36="Y", R36, 0) + IF(Z36="Y", W36, 0) + IF(AE36="Y", AB36, 0)) / (IF(F36="Y", 1, 0) + IF(K36="Y", 1, 0) + IF(P36="Y", 1, 0) + IF(U36="Y", 1, 0) + IF(Z36="Y", 1, 0) + IF(AE36="Y", 1, 0))</f>
         <v>0.39233333333333337</v>
       </c>
       <c r="AK36" s="37">
-        <f t="shared" ref="AK36:AK43" si="16">(EXP(2 * AG36) - 1) / (EXP(2 * AG36) + 1)</f>
+        <f t="shared" ref="AK36:AK43" si="22">(EXP(2 * AG36) - 1) / (EXP(2 * AG36) + 1)</f>
         <v>0.40719149026928259</v>
       </c>
       <c r="AL36" s="37"/>
       <c r="AM36" s="31">
-        <f t="shared" ref="AM36:AM43" si="17">AK36-KENTON_ALL</f>
+        <f t="shared" ref="AM36:AM43" si="23">AK36-KENTON_ALL</f>
         <v>0</v>
       </c>
       <c r="AN36" s="13" t="s">
@@ -15946,20 +16308,20 @@
         <v>49</v>
       </c>
       <c r="AG37" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.79660511138862711</v>
       </c>
       <c r="AJ37" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="AK37" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.66213455934079857</v>
       </c>
       <c r="AL37" s="37"/>
       <c r="AM37" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.25494306907151598</v>
       </c>
       <c r="AN37" s="13" t="s">
@@ -16044,20 +16406,20 @@
         <v>49</v>
       </c>
       <c r="AG38" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1.0342169799619934</v>
       </c>
       <c r="AJ38" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.7669999999999999</v>
       </c>
       <c r="AK38" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.77559411502730624</v>
       </c>
       <c r="AL38" s="37"/>
       <c r="AM38" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.36840262475802366</v>
       </c>
       <c r="AN38" s="11" t="s">
@@ -16143,20 +16505,20 @@
         <v>49</v>
       </c>
       <c r="AG39" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.95734958065868003</v>
       </c>
       <c r="AJ39" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.77066666666666661</v>
       </c>
       <c r="AK39" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.74309230871943899</v>
       </c>
       <c r="AL39" s="37"/>
       <c r="AM39" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.3359008184501564</v>
       </c>
       <c r="AN39" s="11" t="s">
@@ -16239,20 +16601,20 @@
         <v>49</v>
       </c>
       <c r="AG40" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.32942052860949528</v>
       </c>
       <c r="AJ40" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.318</v>
       </c>
       <c r="AK40" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.31800000000000012</v>
       </c>
       <c r="AL40" s="37"/>
       <c r="AM40" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-8.919149026928247E-2</v>
       </c>
       <c r="AN40" s="11" t="s">
@@ -16309,20 +16671,20 @@
         <v>49</v>
       </c>
       <c r="AG41" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.5085167185654873</v>
       </c>
       <c r="AJ41" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.46249999999999997</v>
       </c>
       <c r="AK41" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.46878869265632578</v>
       </c>
       <c r="AL41" s="37"/>
       <c r="AM41" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>6.1597202387043193E-2</v>
       </c>
       <c r="AN41" s="11" t="s">
@@ -16409,20 +16771,20 @@
         <v>49</v>
       </c>
       <c r="AG42" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.49281817798658906</v>
       </c>
       <c r="AJ42" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="AK42" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.45645031970264544</v>
       </c>
       <c r="AL42" s="37"/>
       <c r="AM42" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>4.925882943336285E-2</v>
       </c>
       <c r="AN42" s="11" t="s">
@@ -16511,20 +16873,20 @@
         <v>49</v>
       </c>
       <c r="AG43" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6.2756815602538263E-2</v>
       </c>
       <c r="AJ43" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>5.0250000000000031E-2</v>
       </c>
       <c r="AK43" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>6.2674557664495131E-2</v>
       </c>
       <c r="AL43" s="37"/>
       <c r="AM43" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>-0.34451693260478744</v>
       </c>
       <c r="AN43" s="11" t="s">
@@ -16566,7 +16928,9 @@
       <c r="AN44" s="11"/>
     </row>
     <row r="45" spans="1:40" s="6" customFormat="1">
-      <c r="A45" s="35"/>
+      <c r="A45" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B45" s="7" t="s">
         <v>10</v>
       </c>
@@ -16586,25 +16950,57 @@
       <c r="S45" s="34"/>
       <c r="T45" s="34"/>
       <c r="U45" s="8"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="8"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="8"/>
-      <c r="AG45" s="36"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
+      <c r="W45" s="33">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="X45" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="34">
+        <f t="shared" ref="Y45:Y54" si="24">0.5 * LN((1 + VALUE(W45)) / (1 - VALUE(W45)))</f>
+        <v>0.42841995876020333</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB45" s="33">
+        <v>0.503</v>
+      </c>
+      <c r="AC45" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="34">
+        <f t="shared" ref="AD45:AD54" si="25">0.5 * LN((1 + VALUE(AB45)) / (1 - VALUE(AB45)))</f>
+        <v>0.55331418182817294</v>
+      </c>
+      <c r="AE45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG45" s="36">
+        <f t="shared" ref="AG45:AG54" si="26">(IF(F45="Y", E45, 0) + IF(K45="Y", J45, 0) + IF(P45="Y", O45, 0) + IF(U45="Y", T45, 0) + IF(Z45="Y", Y45, 0) + IF(AE45="Y", AD45, 0)) / (IF(F45="Y", 1, 0) + IF(K45="Y", 1, 0) + IF(P45="Y", 1, 0) + IF(U45="Y", 1, 0) + IF(Z45="Y", 1, 0) + IF(AE45="Y", 1, 0))</f>
+        <v>0.49086707029418813</v>
+      </c>
+      <c r="AJ45" s="37">
+        <f t="shared" ref="AJ45:AJ54" si="27">(IF(F45="Y", C45, 0) + IF(K45="Y", H45, 0) + IF(P45="Y", M45, 0) + IF(U45="Y", R45, 0) + IF(Z45="Y", W45, 0) + IF(AE45="Y", AB45, 0)) / (IF(F45="Y", 1, 0) + IF(K45="Y", 1, 0) + IF(P45="Y", 1, 0) + IF(U45="Y", 1, 0) + IF(Z45="Y", 1, 0) + IF(AE45="Y", 1, 0))</f>
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="AK45" s="37">
+        <f t="shared" ref="AK45:AK54" si="28">(EXP(2 * AG45) - 1) / (EXP(2 * AG45) + 1)</f>
+        <v>0.45490434437979216</v>
+      </c>
       <c r="AL45" s="37"/>
-      <c r="AM45" s="31"/>
+      <c r="AM45" s="31">
+        <f t="shared" ref="AM45:AM54" si="29">AK45-USHA_ALL_A</f>
+        <v>0</v>
+      </c>
       <c r="AN45" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:40" s="6" customFormat="1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B46" s="7" t="s">
         <v>20</v>
       </c>
@@ -16624,25 +17020,57 @@
       <c r="S46" s="34"/>
       <c r="T46" s="34"/>
       <c r="U46" s="8"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="8"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="8"/>
-      <c r="AG46" s="36"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
+      <c r="W46" s="33">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="X46" s="34">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="Y46" s="34">
+        <f t="shared" si="24"/>
+        <v>0.26932861508057721</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB46" s="33">
+        <v>0.63</v>
+      </c>
+      <c r="AC46" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="34">
+        <f t="shared" si="25"/>
+        <v>0.74141614408126888</v>
+      </c>
+      <c r="AE46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG46" s="36">
+        <f t="shared" si="26"/>
+        <v>0.50537237958092307</v>
+      </c>
+      <c r="AJ46" s="37">
+        <f t="shared" si="27"/>
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="AK46" s="37">
+        <f t="shared" si="28"/>
+        <v>0.46633174901892627</v>
+      </c>
       <c r="AL46" s="37"/>
-      <c r="AM46" s="31"/>
+      <c r="AM46" s="31">
+        <f t="shared" si="29"/>
+        <v>1.1427404639134109E-2</v>
+      </c>
       <c r="AN46" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:40" s="6" customFormat="1">
-      <c r="A47" s="35"/>
+      <c r="A47" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B47" s="7" t="s">
         <v>2</v>
       </c>
@@ -16662,25 +17090,57 @@
       <c r="S47" s="34"/>
       <c r="T47" s="34"/>
       <c r="U47" s="8"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="8"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="8"/>
-      <c r="AG47" s="36"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
+      <c r="W47" s="33">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="X47" s="34">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="Y47" s="34">
+        <f t="shared" si="24"/>
+        <v>0.35748858901931346</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB47" s="33">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="AC47" s="34">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AD47" s="34">
+        <f t="shared" si="25"/>
+        <v>0.44647846015406573</v>
+      </c>
+      <c r="AE47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG47" s="36">
+        <f t="shared" si="26"/>
+        <v>0.40198352458668962</v>
+      </c>
+      <c r="AJ47" s="37">
+        <f t="shared" si="27"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AK47" s="37">
+        <f t="shared" si="28"/>
+        <v>0.3816448625055866</v>
+      </c>
       <c r="AL47" s="37"/>
-      <c r="AM47" s="31"/>
+      <c r="AM47" s="31">
+        <f t="shared" si="29"/>
+        <v>-7.3259481874205556E-2</v>
+      </c>
       <c r="AN47" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:40" s="6" customFormat="1">
-      <c r="A48" s="35"/>
+      <c r="A48" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B48" s="7" t="s">
         <v>17</v>
       </c>
@@ -16700,25 +17160,57 @@
       <c r="S48" s="34"/>
       <c r="T48" s="34"/>
       <c r="U48" s="8"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="8"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="8"/>
-      <c r="AG48" s="36"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
+      <c r="W48" s="33">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="X48" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="34">
+        <f t="shared" si="24"/>
+        <v>0.58875555595632223</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB48" s="33">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AC48" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="34">
+        <f t="shared" si="25"/>
+        <v>0.71853334324665696</v>
+      </c>
+      <c r="AE48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG48" s="36">
+        <f t="shared" si="26"/>
+        <v>0.6536444496014896</v>
+      </c>
+      <c r="AJ48" s="37">
+        <f t="shared" si="27"/>
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="AK48" s="37">
+        <f t="shared" si="28"/>
+        <v>0.57411827398629334</v>
+      </c>
       <c r="AL48" s="37"/>
-      <c r="AM48" s="31"/>
+      <c r="AM48" s="31">
+        <f t="shared" si="29"/>
+        <v>0.11921392960650118</v>
+      </c>
       <c r="AN48" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:40" s="6" customFormat="1">
-      <c r="A49" s="35"/>
+      <c r="A49" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B49" s="7" t="s">
         <v>18</v>
       </c>
@@ -16738,25 +17230,51 @@
       <c r="S49" s="34"/>
       <c r="T49" s="34"/>
       <c r="U49" s="8"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
+      <c r="W49" s="33">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="X49" s="34">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="Y49" s="34">
+        <f t="shared" si="24"/>
+        <v>-3.6015564104441421E-2</v>
+      </c>
       <c r="Z49" s="8"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
+      <c r="AB49" s="33">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="AC49" s="34">
+        <v>0.70630000000000004</v>
+      </c>
+      <c r="AD49" s="34">
+        <f t="shared" si="25"/>
+        <v>-4.4028427695591399E-2</v>
+      </c>
       <c r="AE49" s="8"/>
-      <c r="AG49" s="36"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="37"/>
+      <c r="AG49" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AL49" s="37"/>
-      <c r="AM49" s="31"/>
+      <c r="AM49" s="31">
+        <f t="shared" si="29"/>
+        <v>-0.45490434437979216</v>
+      </c>
       <c r="AN49" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:40" s="6" customFormat="1">
-      <c r="A50" s="35"/>
+      <c r="A50" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B50" s="7" t="s">
         <v>19</v>
       </c>
@@ -16776,25 +17294,57 @@
       <c r="S50" s="34"/>
       <c r="T50" s="34"/>
       <c r="U50" s="8"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="8"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="8"/>
-      <c r="AG50" s="36"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
+      <c r="W50" s="33">
+        <v>0.443</v>
+      </c>
+      <c r="X50" s="34">
+        <v>1E-4</v>
+      </c>
+      <c r="Y50" s="34">
+        <f t="shared" si="24"/>
+        <v>0.47595715942329353</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB50" s="33">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AC50" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="34">
+        <f t="shared" si="25"/>
+        <v>0.49351274313063476</v>
+      </c>
+      <c r="AE50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG50" s="36">
+        <f t="shared" si="26"/>
+        <v>0.48473495127696414</v>
+      </c>
+      <c r="AJ50" s="37">
+        <f t="shared" si="27"/>
+        <v>0.45</v>
+      </c>
+      <c r="AK50" s="37">
+        <f t="shared" si="28"/>
+        <v>0.45002765103318054</v>
+      </c>
       <c r="AL50" s="37"/>
-      <c r="AM50" s="31"/>
+      <c r="AM50" s="31">
+        <f t="shared" si="29"/>
+        <v>-4.8766933466116158E-3</v>
+      </c>
       <c r="AN50" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:40" s="6" customFormat="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B51" s="7" t="s">
         <v>5</v>
       </c>
@@ -16814,25 +17364,55 @@
       <c r="S51" s="34"/>
       <c r="T51" s="34"/>
       <c r="U51" s="8"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
+      <c r="W51" s="33">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="X51" s="34">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="Y51" s="34">
+        <f t="shared" si="24"/>
+        <v>5.6058649060353107E-2</v>
+      </c>
       <c r="Z51" s="8"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="8"/>
-      <c r="AG51" s="36"/>
-      <c r="AJ51" s="37"/>
-      <c r="AK51" s="37"/>
+      <c r="AB51" s="33">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AC51" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="34">
+        <f t="shared" si="25"/>
+        <v>0.62557827122354726</v>
+      </c>
+      <c r="AE51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG51" s="36">
+        <f t="shared" si="26"/>
+        <v>0.62557827122354726</v>
+      </c>
+      <c r="AJ51" s="37">
+        <f t="shared" si="27"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AK51" s="37">
+        <f t="shared" si="28"/>
+        <v>0.55500000000000016</v>
+      </c>
       <c r="AL51" s="37"/>
-      <c r="AM51" s="31"/>
+      <c r="AM51" s="31">
+        <f t="shared" si="29"/>
+        <v>0.100095655620208</v>
+      </c>
       <c r="AN51" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:40" s="6" customFormat="1">
-      <c r="A52" s="35"/>
+      <c r="A52" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B52" s="7" t="s">
         <v>6</v>
       </c>
@@ -16852,25 +17432,57 @@
       <c r="S52" s="34"/>
       <c r="T52" s="34"/>
       <c r="U52" s="8"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="8"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="8"/>
-      <c r="AG52" s="36"/>
-      <c r="AJ52" s="37"/>
-      <c r="AK52" s="37"/>
+      <c r="W52" s="33">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="X52" s="34">
+        <v>1.67E-2</v>
+      </c>
+      <c r="Y52" s="34">
+        <f t="shared" si="24"/>
+        <v>0.28118341065365632</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB52" s="33">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AC52" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="34">
+        <f t="shared" si="25"/>
+        <v>0.48721095421836286</v>
+      </c>
+      <c r="AE52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG52" s="36">
+        <f t="shared" si="26"/>
+        <v>0.38419718243600959</v>
+      </c>
+      <c r="AJ52" s="37">
+        <f t="shared" si="27"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AK52" s="37">
+        <f t="shared" si="28"/>
+        <v>0.36634692062348523</v>
+      </c>
       <c r="AL52" s="37"/>
-      <c r="AM52" s="31"/>
+      <c r="AM52" s="31">
+        <f t="shared" si="29"/>
+        <v>-8.855742375630693E-2</v>
+      </c>
       <c r="AN52" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:40" s="6" customFormat="1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B53" s="7" t="s">
         <v>7</v>
       </c>
@@ -16890,25 +17502,57 @@
       <c r="S53" s="34"/>
       <c r="T53" s="34"/>
       <c r="U53" s="8"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="8"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="8"/>
-      <c r="AG53" s="36"/>
-      <c r="AJ53" s="37"/>
-      <c r="AK53" s="37"/>
+      <c r="W53" s="33">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="X53" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="34">
+        <f t="shared" si="24"/>
+        <v>0.57087282974284259</v>
+      </c>
+      <c r="Z53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB53" s="33">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AC53" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="34">
+        <f t="shared" si="25"/>
+        <v>0.69002801885359943</v>
+      </c>
+      <c r="AE53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG53" s="36">
+        <f t="shared" si="26"/>
+        <v>0.63045042429822096</v>
+      </c>
+      <c r="AJ53" s="37">
+        <f t="shared" si="27"/>
+        <v>0.55699999999999994</v>
+      </c>
+      <c r="AK53" s="37">
+        <f t="shared" si="28"/>
+        <v>0.55836228973674629</v>
+      </c>
       <c r="AL53" s="37"/>
-      <c r="AM53" s="31"/>
+      <c r="AM53" s="31">
+        <f t="shared" si="29"/>
+        <v>0.10345794535695413</v>
+      </c>
       <c r="AN53" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:40" s="6" customFormat="1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="35" t="s">
+        <v>95</v>
+      </c>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
@@ -16928,19 +17572,49 @@
       <c r="S54" s="34"/>
       <c r="T54" s="34"/>
       <c r="U54" s="8"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="8"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="8"/>
-      <c r="AG54" s="36"/>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="37"/>
+      <c r="W54" s="33">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="X54" s="34">
+        <v>2.3E-3</v>
+      </c>
+      <c r="Y54" s="34">
+        <f t="shared" si="24"/>
+        <v>0.35975702820034372</v>
+      </c>
+      <c r="Z54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB54" s="33">
+        <v>0.218</v>
+      </c>
+      <c r="AC54" s="34">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="AD54" s="34">
+        <f t="shared" si="25"/>
+        <v>0.22155535386226557</v>
+      </c>
+      <c r="AE54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG54" s="36">
+        <f t="shared" si="26"/>
+        <v>0.29065619103130463</v>
+      </c>
+      <c r="AJ54" s="37">
+        <f t="shared" si="27"/>
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="AK54" s="37">
+        <f t="shared" si="28"/>
+        <v>0.28273865898102979</v>
+      </c>
       <c r="AL54" s="37"/>
-      <c r="AM54" s="31"/>
+      <c r="AM54" s="31">
+        <f t="shared" si="29"/>
+        <v>-0.17216568539876237</v>
+      </c>
       <c r="AN54" s="11" t="s">
         <v>28</v>
       </c>
@@ -17019,42 +17693,42 @@
       <c r="E57" s="33"/>
       <c r="F57" s="58">
         <f>COUNTIFS(F6:F54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.39285714285714285</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
       <c r="K57" s="58">
         <f>COUNTIFS(K6:K54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.21428571428571427</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="M57" s="33"/>
       <c r="N57" s="34"/>
       <c r="O57" s="34"/>
       <c r="P57" s="58">
         <f>COUNTIFS(P6:P54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.14285714285714285</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="R57" s="33"/>
       <c r="S57" s="34"/>
       <c r="T57" s="34"/>
       <c r="U57" s="58">
         <f>COUNTIFS(U6:U54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.39285714285714285</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="W57" s="33"/>
       <c r="X57" s="34"/>
       <c r="Y57" s="34"/>
       <c r="Z57" s="58">
         <f>COUNTIFS(Z6:Z54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>0.7857142857142857</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="AB57" s="33"/>
       <c r="AC57" s="34"/>
       <c r="AD57" s="34"/>
       <c r="AE57" s="58">
         <f>COUNTIFS(AE6:AE54, "Y", A6:A54, "&lt;&gt;") / COUNTA(A6:A54)</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="AJ57" s="33"/>
       <c r="AK57" s="33"/>
@@ -17098,14 +17772,14 @@
       <c r="X58" s="34"/>
       <c r="Y58" s="33">
         <f>AVERAGEIFS(Y6:Y54,B6:B54, "&lt;&gt;ALL",Z6:Z54, "Y")</f>
-        <v>0.45770164666115748</v>
+        <v>0.42524765890534294</v>
       </c>
       <c r="Z58" s="58"/>
       <c r="AB58" s="33"/>
       <c r="AC58" s="34"/>
       <c r="AD58" s="33">
         <f>AVERAGEIFS(AD6:AD54,B6:B54, "&lt;&gt;ALL",AE6:AE54, "Y")</f>
-        <v>0.5748514518756932</v>
+        <v>0.55731510367055848</v>
       </c>
       <c r="AE58" s="58"/>
       <c r="AJ58" s="33"/>
@@ -17149,14 +17823,14 @@
       <c r="X59" s="34"/>
       <c r="Y59" s="33">
         <f>AVERAGEIFS(Y6:Y54,B6:B54, "ALL",Z6:Z54, "Y")</f>
-        <v>0.37277469588119816</v>
+        <v>0.37679431403553887</v>
       </c>
       <c r="Z59" s="58"/>
       <c r="AB59" s="33"/>
       <c r="AC59" s="34"/>
       <c r="AD59" s="33">
         <f>AVERAGEIFS(AD6:AD54,B6:B54, "ALL",AE6:AE54, "Y")</f>
-        <v>0.54455076791381707</v>
+        <v>0.53508698322875492</v>
       </c>
       <c r="AE59" s="58"/>
       <c r="AJ59" s="33"/>
@@ -17242,22 +17916,22 @@
       <c r="U61" s="10"/>
       <c r="W61" s="37">
         <f>AVERAGEIFS(W:W,B:B, "&lt;&gt;ALL",Z:Z, "Y")</f>
-        <v>0.42263157894736847</v>
+        <v>0.39565624999999993</v>
       </c>
       <c r="X61" s="40"/>
       <c r="Y61" s="37">
         <f>(EXP(2 * Y58) - 1) / (EXP(2 * Y58) + 1)</f>
-        <v>0.42820913988335291</v>
+        <v>0.40134207273036365</v>
       </c>
       <c r="Z61" s="10"/>
       <c r="AB61" s="37">
         <f>AVERAGEIFS(AB:AB,B:B, "&lt;&gt;ALL",AE:AE, "Y")</f>
-        <v>0.48251999999999995</v>
+        <v>0.47982051282051286</v>
       </c>
       <c r="AC61" s="40"/>
       <c r="AD61" s="37">
         <f>(EXP(2 * AD58) - 1) / (EXP(2 * AD58) + 1)</f>
-        <v>0.51891329384432139</v>
+        <v>0.50598263425014767</v>
       </c>
       <c r="AE61" s="10"/>
       <c r="AJ61" s="37"/>
@@ -17310,22 +17984,22 @@
       <c r="U62" s="10"/>
       <c r="W62" s="37">
         <f>AVERAGEIFS(W:W,B:B, "ALL",Z:Z, "Y")</f>
-        <v>0.35299999999999998</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="X62" s="40"/>
       <c r="Y62" s="37">
         <f>(EXP(2 * Y59) - 1) / (EXP(2 * Y59) + 1)</f>
-        <v>0.35641632312792276</v>
+        <v>0.35992027991407444</v>
       </c>
       <c r="Z62" s="10"/>
       <c r="AB62" s="37">
         <f>AVERAGEIFS(AB:AB,B:B, "ALL",AE:AE, "Y")</f>
-        <v>0.49333333333333335</v>
+        <v>0.48719999999999997</v>
       </c>
       <c r="AC62" s="40"/>
       <c r="AD62" s="37">
         <f>(EXP(2 * AD59) - 1) / (EXP(2 * AD59) + 1)</f>
-        <v>0.49642499438399829</v>
+        <v>0.4892599960590428</v>
       </c>
       <c r="AE62" s="10"/>
       <c r="AJ62" s="37"/>
@@ -17536,8 +18210,8 @@
   </sheetPr>
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17574,86 +18248,86 @@
     </row>
     <row r="2" spans="1:23" ht="9" customHeight="1"/>
     <row r="3" spans="1:23" ht="63.6" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
-      <c r="A4" s="65" t="str">
+      <c r="A4" s="64" t="str">
         <f>'PFEA SRC'!$A$3</f>
         <v>Persona</v>
       </c>
-      <c r="B4" s="66" t="str">
+      <c r="B4" s="70" t="str">
         <f>'PFEA SRC'!B3</f>
         <v>Model</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="71" t="str">
         <f>'PFEA SRC'!C3</f>
         <v>vanilla-mode1-01</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="69" t="str">
+      <c r="F4" s="71" t="str">
         <f>'PFEA SRC'!H3</f>
         <v>vanilla-mode1-02</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="69" t="str">
+      <c r="I4" s="71" t="str">
         <f>'PFEA SRC'!M3</f>
         <v>vanilla-mode2-01</v>
       </c>
-      <c r="J4" s="69"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="69" t="str">
+      <c r="L4" s="71" t="str">
         <f>'PFEA SRC'!R3</f>
         <v>base-mode2-01</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="69" t="str">
+      <c r="O4" s="71" t="str">
         <f>'PFEA SRC'!W3</f>
         <v>vanilla4-mode2-01</v>
       </c>
-      <c r="P4" s="69"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="69" t="str">
+      <c r="R4" s="71" t="str">
         <f>'PFEA SRC'!AB3</f>
         <v>vanilla4o-mode2-01</v>
       </c>
-      <c r="S4" s="69"/>
+      <c r="S4" s="71"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="69" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" s="24" customFormat="1" ht="13.8">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="54" t="str">
         <f>'PFEA SRC'!C4</f>
         <v>rbp</v>
@@ -17707,7 +18381,7 @@
         <f>'PFEA SRC'!AC4</f>
         <v>p</v>
       </c>
-      <c r="U5" s="64"/>
+      <c r="U5" s="69"/>
       <c r="V5" s="30"/>
       <c r="W5" s="12"/>
     </row>
@@ -19300,53 +19974,29 @@
       <c r="W28" s="11"/>
     </row>
     <row r="29" spans="1:23" s="6" customFormat="1">
-      <c r="A29" s="52">
+      <c r="A29" s="52" t="str">
         <f>'PFEF SRC'!A28</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B29" s="7" t="str">
         <f>'PFEA SRC'!B28</f>
         <v>ALL</v>
       </c>
-      <c r="C29" s="19">
-        <f>'PFEA SRC'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
-        <f>'PFEA SRC'!D28</f>
-        <v>0</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="19">
-        <f>'PFEA SRC'!H28</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <f>'PFEA SRC'!I28</f>
-        <v>0</v>
-      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="19">
-        <f>'PFEA SRC'!M28</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
-        <f>'PFEA SRC'!N28</f>
-        <v>0</v>
-      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="19">
-        <f>'PFEA SRC'!R28</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="15">
-        <f>'PFEA SRC'!S28</f>
-        <v>0</v>
-      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="8"/>
       <c r="O29" s="19">
         <f>'PFEA SRC'!W28</f>
-        <v>0</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P29" s="15">
         <f>'PFEA SRC'!X28</f>
@@ -19355,7 +20005,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="19">
         <f>'PFEA SRC'!AB28</f>
-        <v>0</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="S29" s="15">
         <f>'PFEA SRC'!AC28</f>
@@ -19364,7 +20014,7 @@
       <c r="T29" s="8"/>
       <c r="U29" s="60">
         <f>'PFEA SRC'!AK28</f>
-        <v>0</v>
+        <v>0.39088818728618457</v>
       </c>
       <c r="V29" s="31"/>
       <c r="W29" s="11" t="str">
@@ -19373,62 +20023,38 @@
       </c>
     </row>
     <row r="30" spans="1:23" s="6" customFormat="1">
-      <c r="A30" s="52">
+      <c r="A30" s="52" t="str">
         <f>'PFEF SRC'!A29</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B30" s="7" t="str">
         <f>'PFEA SRC'!B29</f>
         <v>friend-group</v>
       </c>
-      <c r="C30" s="19">
-        <f>'PFEA SRC'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <f>'PFEA SRC'!D29</f>
-        <v>0</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="19">
-        <f>'PFEA SRC'!H29</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <f>'PFEA SRC'!I29</f>
-        <v>0</v>
-      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="15"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="19">
-        <f>'PFEA SRC'!M29</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
-        <f>'PFEA SRC'!N29</f>
-        <v>0</v>
-      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="19">
-        <f>'PFEA SRC'!R29</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <f>'PFEA SRC'!S29</f>
-        <v>0</v>
-      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="8"/>
       <c r="O30" s="19">
         <f>'PFEA SRC'!W29</f>
-        <v>0</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="P30" s="15">
         <f>'PFEA SRC'!X29</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="19">
         <f>'PFEA SRC'!AB29</f>
-        <v>0</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="S30" s="15">
         <f>'PFEA SRC'!AC29</f>
@@ -19437,11 +20063,11 @@
       <c r="T30" s="8"/>
       <c r="U30" s="60">
         <f>'PFEA SRC'!AK29</f>
-        <v>0</v>
+        <v>0.34453646008890459</v>
       </c>
       <c r="V30" s="31">
         <f>'PFEA SRC'!AM29</f>
-        <v>0</v>
+        <v>-4.6351727197279979E-2</v>
       </c>
       <c r="W30" s="11" t="str">
         <f>'PFEA SRC'!AN29</f>
@@ -19449,62 +20075,38 @@
       </c>
     </row>
     <row r="31" spans="1:23" s="6" customFormat="1">
-      <c r="A31" s="52">
+      <c r="A31" s="52" t="str">
         <f>'PFEF SRC'!A30</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B31" s="7" t="str">
         <f>'PFEA SRC'!B30</f>
         <v>personal-interested</v>
       </c>
-      <c r="C31" s="19">
-        <f>'PFEA SRC'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <f>'PFEA SRC'!D30</f>
-        <v>0</v>
-      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="19">
-        <f>'PFEA SRC'!H30</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
-        <f>'PFEA SRC'!I30</f>
-        <v>0</v>
-      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="19">
-        <f>'PFEA SRC'!M30</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
-        <f>'PFEA SRC'!N30</f>
-        <v>0</v>
-      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="19">
-        <f>'PFEA SRC'!R30</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="15">
-        <f>'PFEA SRC'!S30</f>
-        <v>0</v>
-      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="8"/>
       <c r="O31" s="19">
         <f>'PFEA SRC'!W30</f>
-        <v>0</v>
+        <v>0.249</v>
       </c>
       <c r="P31" s="15">
         <f>'PFEA SRC'!X30</f>
-        <v>0</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="19">
         <f>'PFEA SRC'!AB30</f>
-        <v>0</v>
+        <v>0.316</v>
       </c>
       <c r="S31" s="15">
         <f>'PFEA SRC'!AC30</f>
@@ -19513,11 +20115,11 @@
       <c r="T31" s="8"/>
       <c r="U31" s="60">
         <f>'PFEA SRC'!AK30</f>
-        <v>0</v>
+        <v>0.28284498866231034</v>
       </c>
       <c r="V31" s="31">
         <f>'PFEA SRC'!AM30</f>
-        <v>0</v>
+        <v>-0.10804319862387424</v>
       </c>
       <c r="W31" s="11" t="str">
         <f>'PFEA SRC'!AN30</f>
@@ -19525,62 +20127,38 @@
       </c>
     </row>
     <row r="32" spans="1:23" s="6" customFormat="1">
-      <c r="A32" s="52">
+      <c r="A32" s="52" t="str">
         <f>'PFEF SRC'!A31</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B32" s="7" t="str">
         <f>'PFEA SRC'!B31</f>
         <v>urgency</v>
       </c>
-      <c r="C32" s="19">
-        <f>'PFEA SRC'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <f>'PFEA SRC'!D31</f>
-        <v>0</v>
-      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="19">
-        <f>'PFEA SRC'!H31</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <f>'PFEA SRC'!I31</f>
-        <v>0</v>
-      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="19">
-        <f>'PFEA SRC'!M31</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="15">
-        <f>'PFEA SRC'!N31</f>
-        <v>0</v>
-      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="19">
-        <f>'PFEA SRC'!R31</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="15">
-        <f>'PFEA SRC'!S31</f>
-        <v>0</v>
-      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="8"/>
       <c r="O32" s="19">
         <f>'PFEA SRC'!W31</f>
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="P32" s="15">
         <f>'PFEA SRC'!X31</f>
-        <v>0</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="19">
         <f>'PFEA SRC'!AB31</f>
-        <v>0</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="S32" s="15">
         <f>'PFEA SRC'!AC31</f>
@@ -19589,11 +20167,11 @@
       <c r="T32" s="8"/>
       <c r="U32" s="60">
         <f>'PFEA SRC'!AK31</f>
-        <v>0</v>
+        <v>0.36268065111041747</v>
       </c>
       <c r="V32" s="31">
         <f>'PFEA SRC'!AM31</f>
-        <v>0</v>
+        <v>-2.8207536175767101E-2</v>
       </c>
       <c r="W32" s="11" t="str">
         <f>'PFEA SRC'!AN31</f>
@@ -19601,62 +20179,38 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="6" customFormat="1">
-      <c r="A33" s="52">
+      <c r="A33" s="52" t="str">
         <f>'PFEF SRC'!A32</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B33" s="7" t="str">
         <f>'PFEA SRC'!B32</f>
         <v>work-logistics</v>
       </c>
-      <c r="C33" s="19">
-        <f>'PFEA SRC'!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <f>'PFEA SRC'!D32</f>
-        <v>0</v>
-      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="19">
-        <f>'PFEA SRC'!H32</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
-        <f>'PFEA SRC'!I32</f>
-        <v>0</v>
-      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="19">
-        <f>'PFEA SRC'!M32</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="15">
-        <f>'PFEA SRC'!N32</f>
-        <v>0</v>
-      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="8"/>
-      <c r="L33" s="19">
-        <f>'PFEA SRC'!R32</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="15">
-        <f>'PFEA SRC'!S32</f>
-        <v>0</v>
-      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="8"/>
       <c r="O33" s="19">
         <f>'PFEA SRC'!W32</f>
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="P33" s="15">
         <f>'PFEA SRC'!X32</f>
-        <v>0</v>
+        <v>1.4E-3</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="19">
         <f>'PFEA SRC'!AB32</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S33" s="15">
         <f>'PFEA SRC'!AC32</f>
@@ -19665,11 +20219,11 @@
       <c r="T33" s="8"/>
       <c r="U33" s="60">
         <f>'PFEA SRC'!AK32</f>
-        <v>0</v>
+        <v>0.37968910650929122</v>
       </c>
       <c r="V33" s="31">
         <f>'PFEA SRC'!AM32</f>
-        <v>0</v>
+        <v>-1.1199080776893355E-2</v>
       </c>
       <c r="W33" s="11" t="str">
         <f>'PFEA SRC'!AN32</f>
@@ -19677,53 +20231,29 @@
       </c>
     </row>
     <row r="34" spans="1:23" s="6" customFormat="1">
-      <c r="A34" s="52">
+      <c r="A34" s="52" t="str">
         <f>'PFEF SRC'!A33</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B34" s="7" t="str">
         <f>'PFEA SRC'!B33</f>
         <v>work-pers</v>
       </c>
-      <c r="C34" s="19">
-        <f>'PFEA SRC'!C33</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <f>'PFEA SRC'!D33</f>
-        <v>0</v>
-      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="19">
-        <f>'PFEA SRC'!H33</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <f>'PFEA SRC'!I33</f>
-        <v>0</v>
-      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="19">
-        <f>'PFEA SRC'!M33</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <f>'PFEA SRC'!N33</f>
-        <v>0</v>
-      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="19">
-        <f>'PFEA SRC'!R33</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="15">
-        <f>'PFEA SRC'!S33</f>
-        <v>0</v>
-      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="8"/>
       <c r="O34" s="19">
         <f>'PFEA SRC'!W33</f>
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="P34" s="15">
         <f>'PFEA SRC'!X33</f>
@@ -19732,7 +20262,7 @@
       <c r="Q34" s="8"/>
       <c r="R34" s="19">
         <f>'PFEA SRC'!AB33</f>
-        <v>0</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="S34" s="15">
         <f>'PFEA SRC'!AC33</f>
@@ -19741,11 +20271,11 @@
       <c r="T34" s="8"/>
       <c r="U34" s="60">
         <f>'PFEA SRC'!AK33</f>
-        <v>0</v>
+        <v>0.45306897851358424</v>
       </c>
       <c r="V34" s="31">
         <f>'PFEA SRC'!AM33</f>
-        <v>0</v>
+        <v>6.2180791227399668E-2</v>
       </c>
       <c r="W34" s="11" t="str">
         <f>'PFEA SRC'!AN33</f>
@@ -19753,53 +20283,29 @@
       </c>
     </row>
     <row r="35" spans="1:23" s="6" customFormat="1">
-      <c r="A35" s="52">
+      <c r="A35" s="52" t="str">
         <f>'PFEF SRC'!A34</f>
-        <v>0</v>
+        <v>Phoebe</v>
       </c>
       <c r="B35" s="7" t="str">
         <f>'PFEA SRC'!B34</f>
         <v>work-relevant</v>
       </c>
-      <c r="C35" s="19">
-        <f>'PFEA SRC'!C34</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
-        <f>'PFEA SRC'!D34</f>
-        <v>0</v>
-      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="19">
-        <f>'PFEA SRC'!H34</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <f>'PFEA SRC'!I34</f>
-        <v>0</v>
-      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="19">
-        <f>'PFEA SRC'!M34</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <f>'PFEA SRC'!N34</f>
-        <v>0</v>
-      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="19">
-        <f>'PFEA SRC'!R34</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <f>'PFEA SRC'!S34</f>
-        <v>0</v>
-      </c>
+      <c r="L35" s="19"/>
+      <c r="M35" s="15"/>
       <c r="N35" s="8"/>
       <c r="O35" s="19">
         <f>'PFEA SRC'!W34</f>
-        <v>0</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="P35" s="15">
         <f>'PFEA SRC'!X34</f>
@@ -19808,7 +20314,7 @@
       <c r="Q35" s="8"/>
       <c r="R35" s="19">
         <f>'PFEA SRC'!AB34</f>
-        <v>0</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="S35" s="15">
         <f>'PFEA SRC'!AC34</f>
@@ -19817,11 +20323,11 @@
       <c r="T35" s="8"/>
       <c r="U35" s="60">
         <f>'PFEA SRC'!AK34</f>
-        <v>0</v>
+        <v>0.50481479523025863</v>
       </c>
       <c r="V35" s="31">
         <f>'PFEA SRC'!AM34</f>
-        <v>0</v>
+        <v>0.11392660794407405</v>
       </c>
       <c r="W35" s="11" t="str">
         <f>'PFEA SRC'!AN34</f>
@@ -20484,53 +20990,29 @@
       <c r="W45" s="11"/>
     </row>
     <row r="46" spans="1:23" s="6" customFormat="1">
-      <c r="A46" s="52">
+      <c r="A46" s="52" t="str">
         <f>'PFEF SRC'!A45</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B46" s="7" t="str">
         <f>'PFEA SRC'!B45</f>
         <v>ALL</v>
       </c>
-      <c r="C46" s="19">
-        <f>'PFEA SRC'!C45</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="15">
-        <f>'PFEA SRC'!D45</f>
-        <v>0</v>
-      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="19">
-        <f>'PFEA SRC'!H45</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="15">
-        <f>'PFEA SRC'!I45</f>
-        <v>0</v>
-      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="19">
-        <f>'PFEA SRC'!M45</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="15">
-        <f>'PFEA SRC'!N45</f>
-        <v>0</v>
-      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="15"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="19">
-        <f>'PFEA SRC'!R45</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="15">
-        <f>'PFEA SRC'!S45</f>
-        <v>0</v>
-      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="8"/>
       <c r="O46" s="19">
         <f>'PFEA SRC'!W45</f>
-        <v>0</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="P46" s="15">
         <f>'PFEA SRC'!X45</f>
@@ -20539,7 +21021,7 @@
       <c r="Q46" s="8"/>
       <c r="R46" s="19">
         <f>'PFEA SRC'!AB45</f>
-        <v>0</v>
+        <v>0.503</v>
       </c>
       <c r="S46" s="15">
         <f>'PFEA SRC'!AC45</f>
@@ -20548,7 +21030,7 @@
       <c r="T46" s="8"/>
       <c r="U46" s="60">
         <f>'PFEA SRC'!AK45</f>
-        <v>0</v>
+        <v>0.45490434437979216</v>
       </c>
       <c r="V46" s="31"/>
       <c r="W46" s="11" t="str">
@@ -20557,62 +21039,38 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="6" customFormat="1">
-      <c r="A47" s="52">
+      <c r="A47" s="52" t="str">
         <f>'PFEF SRC'!A46</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B47" s="7" t="str">
         <f>'PFEA SRC'!B46</f>
         <v>company-law</v>
       </c>
-      <c r="C47" s="19">
-        <f>'PFEA SRC'!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="15">
-        <f>'PFEA SRC'!D46</f>
-        <v>0</v>
-      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="19">
-        <f>'PFEA SRC'!H46</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <f>'PFEA SRC'!I46</f>
-        <v>0</v>
-      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="19">
-        <f>'PFEA SRC'!M46</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <f>'PFEA SRC'!N46</f>
-        <v>0</v>
-      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="19">
-        <f>'PFEA SRC'!R46</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <f>'PFEA SRC'!S46</f>
-        <v>0</v>
-      </c>
+      <c r="L47" s="19"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="8"/>
       <c r="O47" s="19">
         <f>'PFEA SRC'!W46</f>
-        <v>0</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="P47" s="15">
         <f>'PFEA SRC'!X46</f>
-        <v>0</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="19">
         <f>'PFEA SRC'!AB46</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="S47" s="15">
         <f>'PFEA SRC'!AC46</f>
@@ -20621,11 +21079,11 @@
       <c r="T47" s="8"/>
       <c r="U47" s="60">
         <f>'PFEA SRC'!AK46</f>
-        <v>0</v>
+        <v>0.46633174901892627</v>
       </c>
       <c r="V47" s="31">
         <f>'PFEA SRC'!AM46</f>
-        <v>0</v>
+        <v>1.1427404639134109E-2</v>
       </c>
       <c r="W47" s="11" t="str">
         <f>'PFEA SRC'!AN46</f>
@@ -20633,75 +21091,51 @@
       </c>
     </row>
     <row r="48" spans="1:23" s="6" customFormat="1">
-      <c r="A48" s="52">
+      <c r="A48" s="52" t="str">
         <f>'PFEF SRC'!A47</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B48" s="7" t="str">
         <f>'PFEA SRC'!B47</f>
         <v>interested</v>
       </c>
-      <c r="C48" s="19">
-        <f>'PFEA SRC'!C47</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="15">
-        <f>'PFEA SRC'!D47</f>
-        <v>0</v>
-      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="19">
-        <f>'PFEA SRC'!H47</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="15">
-        <f>'PFEA SRC'!I47</f>
-        <v>0</v>
-      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="19">
-        <f>'PFEA SRC'!M47</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="15">
-        <f>'PFEA SRC'!N47</f>
-        <v>0</v>
-      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="15"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="19">
-        <f>'PFEA SRC'!R47</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="15">
-        <f>'PFEA SRC'!S47</f>
-        <v>0</v>
-      </c>
+      <c r="L48" s="19"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="8"/>
       <c r="O48" s="19">
         <f>'PFEA SRC'!W47</f>
-        <v>0</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="P48" s="15">
         <f>'PFEA SRC'!X47</f>
-        <v>0</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="19">
         <f>'PFEA SRC'!AB47</f>
-        <v>0</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="S48" s="15">
         <f>'PFEA SRC'!AC47</f>
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="60">
         <f>'PFEA SRC'!AK47</f>
-        <v>0</v>
+        <v>0.3816448625055866</v>
       </c>
       <c r="V48" s="31">
         <f>'PFEA SRC'!AM47</f>
-        <v>0</v>
+        <v>-7.3259481874205556E-2</v>
       </c>
       <c r="W48" s="11" t="str">
         <f>'PFEA SRC'!AN47</f>
@@ -20709,49 +21143,29 @@
       </c>
     </row>
     <row r="49" spans="1:25" s="6" customFormat="1">
+      <c r="A49" s="52" t="str">
+        <f>'PFEF SRC'!A48</f>
+        <v>Usha</v>
+      </c>
       <c r="B49" s="7" t="str">
         <f>'PFEA SRC'!B48</f>
         <v>riding</v>
       </c>
-      <c r="C49" s="19">
-        <f>'PFEA SRC'!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
-        <f>'PFEA SRC'!D48</f>
-        <v>0</v>
-      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="19">
-        <f>'PFEA SRC'!H48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <f>'PFEA SRC'!I48</f>
-        <v>0</v>
-      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="19">
-        <f>'PFEA SRC'!M48</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <f>'PFEA SRC'!N48</f>
-        <v>0</v>
-      </c>
+      <c r="I49" s="19"/>
+      <c r="J49" s="15"/>
       <c r="K49" s="8"/>
-      <c r="L49" s="19">
-        <f>'PFEA SRC'!R48</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <f>'PFEA SRC'!S48</f>
-        <v>0</v>
-      </c>
+      <c r="L49" s="19"/>
+      <c r="M49" s="15"/>
       <c r="N49" s="8"/>
       <c r="O49" s="19">
         <f>'PFEA SRC'!W48</f>
-        <v>0</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="P49" s="15">
         <f>'PFEA SRC'!X48</f>
@@ -20760,7 +21174,7 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="19">
         <f>'PFEA SRC'!AB48</f>
-        <v>0</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="S49" s="15">
         <f>'PFEA SRC'!AC48</f>
@@ -20769,11 +21183,11 @@
       <c r="T49" s="8"/>
       <c r="U49" s="60">
         <f>'PFEA SRC'!AK48</f>
-        <v>0</v>
+        <v>0.57411827398629334</v>
       </c>
       <c r="V49" s="31">
         <f>'PFEA SRC'!AM48</f>
-        <v>0</v>
+        <v>0.11921392960650118</v>
       </c>
       <c r="W49" s="11" t="str">
         <f>'PFEA SRC'!AN48</f>
@@ -20781,66 +21195,42 @@
       </c>
     </row>
     <row r="50" spans="1:25" s="6" customFormat="1">
-      <c r="A50" s="52">
+      <c r="A50" s="52" t="str">
         <f>'PFEF SRC'!A49</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B50" s="7" t="str">
         <f>'PFEA SRC'!B49</f>
         <v>riding-arrangements</v>
       </c>
-      <c r="C50" s="19">
-        <f>'PFEA SRC'!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
-        <f>'PFEA SRC'!D49</f>
-        <v>0</v>
-      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="19">
-        <f>'PFEA SRC'!H49</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
-        <f>'PFEA SRC'!I49</f>
-        <v>0</v>
-      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="19">
-        <f>'PFEA SRC'!M49</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="15">
-        <f>'PFEA SRC'!N49</f>
-        <v>0</v>
-      </c>
+      <c r="I50" s="19"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="8"/>
-      <c r="L50" s="19">
-        <f>'PFEA SRC'!R49</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="15">
-        <f>'PFEA SRC'!S49</f>
-        <v>0</v>
-      </c>
+      <c r="L50" s="19"/>
+      <c r="M50" s="15"/>
       <c r="N50" s="8"/>
       <c r="O50" s="19">
         <f>'PFEA SRC'!W49</f>
-        <v>0</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="P50" s="15">
         <f>'PFEA SRC'!X49</f>
-        <v>0</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="19">
         <f>'PFEA SRC'!AB49</f>
-        <v>0</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="S50" s="15">
         <f>'PFEA SRC'!AC49</f>
-        <v>0</v>
+        <v>0.70630000000000004</v>
       </c>
       <c r="T50" s="8"/>
       <c r="U50" s="60">
@@ -20849,7 +21239,7 @@
       </c>
       <c r="V50" s="31">
         <f>'PFEA SRC'!AM49</f>
-        <v>0</v>
+        <v>-0.45490434437979216</v>
       </c>
       <c r="W50" s="11" t="str">
         <f>'PFEA SRC'!AN49</f>
@@ -20857,62 +21247,38 @@
       </c>
     </row>
     <row r="51" spans="1:25" s="6" customFormat="1">
-      <c r="A51" s="52">
+      <c r="A51" s="52" t="str">
         <f>'PFEF SRC'!A50</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B51" s="7" t="str">
         <f>'PFEA SRC'!B50</f>
         <v>school-importance</v>
       </c>
-      <c r="C51" s="19">
-        <f>'PFEA SRC'!C50</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="15">
-        <f>'PFEA SRC'!D50</f>
-        <v>0</v>
-      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="19">
-        <f>'PFEA SRC'!H50</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="15">
-        <f>'PFEA SRC'!I50</f>
-        <v>0</v>
-      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="19">
-        <f>'PFEA SRC'!M50</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <f>'PFEA SRC'!N50</f>
-        <v>0</v>
-      </c>
+      <c r="I51" s="19"/>
+      <c r="J51" s="15"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="19">
-        <f>'PFEA SRC'!R50</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <f>'PFEA SRC'!S50</f>
-        <v>0</v>
-      </c>
+      <c r="L51" s="19"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="8"/>
       <c r="O51" s="19">
         <f>'PFEA SRC'!W50</f>
-        <v>0</v>
+        <v>0.443</v>
       </c>
       <c r="P51" s="15">
         <f>'PFEA SRC'!X50</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="19">
         <f>'PFEA SRC'!AB50</f>
-        <v>0</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="S51" s="15">
         <f>'PFEA SRC'!AC50</f>
@@ -20921,11 +21287,11 @@
       <c r="T51" s="8"/>
       <c r="U51" s="60">
         <f>'PFEA SRC'!AK50</f>
-        <v>0</v>
+        <v>0.45002765103318054</v>
       </c>
       <c r="V51" s="31">
         <f>'PFEA SRC'!AM50</f>
-        <v>0</v>
+        <v>-4.8766933466116158E-3</v>
       </c>
       <c r="W51" s="11" t="str">
         <f>'PFEA SRC'!AN50</f>
@@ -20933,62 +21299,38 @@
       </c>
     </row>
     <row r="52" spans="1:25" s="6" customFormat="1">
-      <c r="A52" s="52">
+      <c r="A52" s="52" t="str">
         <f>'PFEF SRC'!A51</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B52" s="7" t="str">
         <f>'PFEA SRC'!B51</f>
         <v>urgency</v>
       </c>
-      <c r="C52" s="19">
-        <f>'PFEA SRC'!C51</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="15">
-        <f>'PFEA SRC'!D51</f>
-        <v>0</v>
-      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="19">
-        <f>'PFEA SRC'!H51</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <f>'PFEA SRC'!I51</f>
-        <v>0</v>
-      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="19">
-        <f>'PFEA SRC'!M51</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="15">
-        <f>'PFEA SRC'!N51</f>
-        <v>0</v>
-      </c>
+      <c r="I52" s="19"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="19">
-        <f>'PFEA SRC'!R51</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="15">
-        <f>'PFEA SRC'!S51</f>
-        <v>0</v>
-      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="15"/>
       <c r="N52" s="8"/>
       <c r="O52" s="19">
         <f>'PFEA SRC'!W51</f>
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P52" s="15">
         <f>'PFEA SRC'!X51</f>
-        <v>0</v>
+        <v>0.63090000000000002</v>
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="19">
         <f>'PFEA SRC'!AB51</f>
-        <v>0</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="S52" s="15">
         <f>'PFEA SRC'!AC51</f>
@@ -20997,11 +21339,11 @@
       <c r="T52" s="8"/>
       <c r="U52" s="60">
         <f>'PFEA SRC'!AK51</f>
-        <v>0</v>
+        <v>0.55500000000000016</v>
       </c>
       <c r="V52" s="31">
         <f>'PFEA SRC'!AM51</f>
-        <v>0</v>
+        <v>0.100095655620208</v>
       </c>
       <c r="W52" s="11" t="str">
         <f>'PFEA SRC'!AN51</f>
@@ -21009,62 +21351,38 @@
       </c>
     </row>
     <row r="53" spans="1:25" s="6" customFormat="1">
-      <c r="A53" s="52">
+      <c r="A53" s="52" t="str">
         <f>'PFEF SRC'!A52</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B53" s="7" t="str">
         <f>'PFEA SRC'!B52</f>
         <v>work-logistics</v>
       </c>
-      <c r="C53" s="19">
-        <f>'PFEA SRC'!C52</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
-        <f>'PFEA SRC'!D52</f>
-        <v>0</v>
-      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="19">
-        <f>'PFEA SRC'!H52</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
-        <f>'PFEA SRC'!I52</f>
-        <v>0</v>
-      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="19">
-        <f>'PFEA SRC'!M52</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <f>'PFEA SRC'!N52</f>
-        <v>0</v>
-      </c>
+      <c r="I53" s="19"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="19">
-        <f>'PFEA SRC'!R52</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <f>'PFEA SRC'!S52</f>
-        <v>0</v>
-      </c>
+      <c r="L53" s="19"/>
+      <c r="M53" s="15"/>
       <c r="N53" s="8"/>
       <c r="O53" s="19">
         <f>'PFEA SRC'!W52</f>
-        <v>0</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="P53" s="15">
         <f>'PFEA SRC'!X52</f>
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="19">
         <f>'PFEA SRC'!AB52</f>
-        <v>0</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="S53" s="15">
         <f>'PFEA SRC'!AC52</f>
@@ -21073,11 +21391,11 @@
       <c r="T53" s="8"/>
       <c r="U53" s="60">
         <f>'PFEA SRC'!AK52</f>
-        <v>0</v>
+        <v>0.36634692062348523</v>
       </c>
       <c r="V53" s="31">
         <f>'PFEA SRC'!AM52</f>
-        <v>0</v>
+        <v>-8.855742375630693E-2</v>
       </c>
       <c r="W53" s="11" t="str">
         <f>'PFEA SRC'!AN52</f>
@@ -21085,53 +21403,29 @@
       </c>
     </row>
     <row r="54" spans="1:25" s="6" customFormat="1">
-      <c r="A54" s="52">
+      <c r="A54" s="52" t="str">
         <f>'PFEF SRC'!A53</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B54" s="7" t="str">
         <f>'PFEA SRC'!B53</f>
         <v>work-pers</v>
       </c>
-      <c r="C54" s="19">
-        <f>'PFEA SRC'!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="15">
-        <f>'PFEA SRC'!D53</f>
-        <v>0</v>
-      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="19">
-        <f>'PFEA SRC'!H53</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="15">
-        <f>'PFEA SRC'!I53</f>
-        <v>0</v>
-      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="19">
-        <f>'PFEA SRC'!M53</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="15">
-        <f>'PFEA SRC'!N53</f>
-        <v>0</v>
-      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="15"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="19">
-        <f>'PFEA SRC'!R53</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="15">
-        <f>'PFEA SRC'!S53</f>
-        <v>0</v>
-      </c>
+      <c r="L54" s="19"/>
+      <c r="M54" s="15"/>
       <c r="N54" s="8"/>
       <c r="O54" s="19">
         <f>'PFEA SRC'!W53</f>
-        <v>0</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="P54" s="15">
         <f>'PFEA SRC'!X53</f>
@@ -21140,7 +21434,7 @@
       <c r="Q54" s="8"/>
       <c r="R54" s="19">
         <f>'PFEA SRC'!AB53</f>
-        <v>0</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="S54" s="15">
         <f>'PFEA SRC'!AC53</f>
@@ -21149,11 +21443,11 @@
       <c r="T54" s="8"/>
       <c r="U54" s="60">
         <f>'PFEA SRC'!AK53</f>
-        <v>0</v>
+        <v>0.55836228973674629</v>
       </c>
       <c r="V54" s="31">
         <f>'PFEA SRC'!AM53</f>
-        <v>0</v>
+        <v>0.10345794535695413</v>
       </c>
       <c r="W54" s="11" t="str">
         <f>'PFEA SRC'!AN53</f>
@@ -21161,75 +21455,51 @@
       </c>
     </row>
     <row r="55" spans="1:25" s="6" customFormat="1">
-      <c r="A55" s="52">
+      <c r="A55" s="52" t="str">
         <f>'PFEF SRC'!A54</f>
-        <v>0</v>
+        <v>Usha</v>
       </c>
       <c r="B55" s="7" t="str">
         <f>'PFEA SRC'!B54</f>
         <v>work-relevant</v>
       </c>
-      <c r="C55" s="19">
-        <f>'PFEA SRC'!C54</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
-        <f>'PFEA SRC'!D54</f>
-        <v>0</v>
-      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="19">
-        <f>'PFEA SRC'!H54</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="15">
-        <f>'PFEA SRC'!I54</f>
-        <v>0</v>
-      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="19">
-        <f>'PFEA SRC'!M54</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <f>'PFEA SRC'!N54</f>
-        <v>0</v>
-      </c>
+      <c r="I55" s="19"/>
+      <c r="J55" s="15"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="19">
-        <f>'PFEA SRC'!R54</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <f>'PFEA SRC'!S54</f>
-        <v>0</v>
-      </c>
+      <c r="L55" s="19"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="8"/>
       <c r="O55" s="19">
         <f>'PFEA SRC'!W54</f>
-        <v>0</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="P55" s="15">
         <f>'PFEA SRC'!X54</f>
-        <v>0</v>
+        <v>2.3E-3</v>
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="19">
         <f>'PFEA SRC'!AB54</f>
-        <v>0</v>
+        <v>0.218</v>
       </c>
       <c r="S55" s="15">
         <f>'PFEA SRC'!AC54</f>
-        <v>0</v>
+        <v>6.0699999999999997E-2</v>
       </c>
       <c r="T55" s="8"/>
       <c r="U55" s="60">
         <f>'PFEA SRC'!AK54</f>
-        <v>0</v>
+        <v>0.28273865898102979</v>
       </c>
       <c r="V55" s="31">
         <f>'PFEA SRC'!AM54</f>
-        <v>0</v>
+        <v>-0.17216568539876237</v>
       </c>
       <c r="W55" s="11" t="str">
         <f>'PFEA SRC'!AN54</f>
@@ -21262,11 +21532,11 @@
       <c r="W56" s="11"/>
     </row>
     <row r="57" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="65" t="str">
+      <c r="A57" s="64" t="str">
         <f>'PFEA SRC'!$A$65</f>
         <v>Model label:</v>
       </c>
-      <c r="B57" s="65"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="67" t="str">
         <f>'PFEA SRC'!C65</f>
         <v>V-M1-A</v>
@@ -21310,44 +21580,44 @@
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" s="6" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="65" t="str">
+      <c r="A58" s="64" t="str">
         <f>'PFEA SRC'!$A$57</f>
         <v>Percentage of significant rows:</v>
       </c>
-      <c r="B58" s="65"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="68">
         <f>'PFEA SRC'!F57</f>
-        <v>0.39285714285714285</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="D58" s="68"/>
       <c r="E58" s="59"/>
       <c r="F58" s="68">
         <f>'PFEA SRC'!K57</f>
-        <v>0.21428571428571427</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G58" s="68"/>
       <c r="H58" s="59"/>
       <c r="I58" s="68">
         <f>'PFEA SRC'!P57</f>
-        <v>0.14285714285714285</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="J58" s="68"/>
       <c r="K58" s="59"/>
       <c r="L58" s="68">
         <f>'PFEA SRC'!U57</f>
-        <v>0.39285714285714285</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="M58" s="68"/>
       <c r="N58" s="59"/>
       <c r="O58" s="68">
         <f>'PFEA SRC'!Z57</f>
-        <v>0.7857142857142857</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="P58" s="68"/>
       <c r="Q58" s="59"/>
       <c r="R58" s="68">
         <f>'PFEA SRC'!AE57</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="S58" s="68"/>
       <c r="T58" s="8"/>
@@ -21357,92 +21627,92 @@
       <c r="X58" s="45"/>
     </row>
     <row r="59" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="65" t="str">
+      <c r="A59" s="64" t="str">
         <f>'PFEA SRC'!A61</f>
         <v>Mean rpb (significant only, excl. ALL):</v>
       </c>
-      <c r="B59" s="65"/>
-      <c r="C59" s="70">
+      <c r="B59" s="64"/>
+      <c r="C59" s="66">
         <f>'PFEA SRC'!C61</f>
         <v>0.18711111111111112</v>
       </c>
-      <c r="D59" s="70"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="70">
+      <c r="F59" s="66">
         <f>'PFEA SRC'!H61</f>
         <v>0.1676</v>
       </c>
-      <c r="G59" s="70"/>
+      <c r="G59" s="66"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="70">
+      <c r="I59" s="66">
         <f>'PFEA SRC'!M61</f>
         <v>-0.13674999999999998</v>
       </c>
-      <c r="J59" s="70"/>
+      <c r="J59" s="66"/>
       <c r="K59" s="10"/>
-      <c r="L59" s="70">
+      <c r="L59" s="66">
         <f>'PFEA SRC'!R61</f>
         <v>0.24912500000000001</v>
       </c>
-      <c r="M59" s="70"/>
+      <c r="M59" s="66"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="70">
+      <c r="O59" s="66">
         <f>'PFEA SRC'!W61</f>
-        <v>0.42263157894736847</v>
-      </c>
-      <c r="P59" s="70"/>
+        <v>0.39565624999999993</v>
+      </c>
+      <c r="P59" s="66"/>
       <c r="Q59" s="10"/>
-      <c r="R59" s="70">
+      <c r="R59" s="66">
         <f>'PFEA SRC'!AB61</f>
-        <v>0.48251999999999995</v>
-      </c>
-      <c r="S59" s="70"/>
+        <v>0.47982051282051286</v>
+      </c>
+      <c r="S59" s="66"/>
       <c r="T59" s="10"/>
       <c r="U59" s="60"/>
       <c r="V59" s="32"/>
       <c r="W59" s="11"/>
     </row>
     <row r="60" spans="1:25" s="9" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A60" s="65" t="str">
+      <c r="A60" s="64" t="str">
         <f>'PFEA SRC'!A62</f>
         <v>Mean rpb (significant only, ALL only):</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="70">
+      <c r="B60" s="64"/>
+      <c r="C60" s="66">
         <f>'PFEA SRC'!C62</f>
         <v>0.13150000000000001</v>
       </c>
-      <c r="D60" s="70"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="70">
+      <c r="F60" s="66">
         <f>'PFEA SRC'!H62</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G60" s="70"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="10"/>
-      <c r="I60" s="70" t="str">
+      <c r="I60" s="66" t="str">
         <f>'PFEA SRC'!M62</f>
         <v>n/a</v>
       </c>
-      <c r="J60" s="70"/>
+      <c r="J60" s="66"/>
       <c r="K60" s="10"/>
-      <c r="L60" s="70">
+      <c r="L60" s="66">
         <f>'PFEA SRC'!R62</f>
         <v>0.12333333333333334</v>
       </c>
-      <c r="M60" s="70"/>
+      <c r="M60" s="66"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="70">
+      <c r="O60" s="66">
         <f>'PFEA SRC'!W62</f>
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="P60" s="70"/>
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="P60" s="66"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="70">
+      <c r="R60" s="66">
         <f>'PFEA SRC'!AB62</f>
-        <v>0.49333333333333335</v>
-      </c>
-      <c r="S60" s="70"/>
+        <v>0.48719999999999997</v>
+      </c>
+      <c r="S60" s="66"/>
       <c r="T60" s="10"/>
       <c r="U60" s="60"/>
       <c r="V60" s="32"/>
@@ -21598,16 +21868,20 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
     <mergeCell ref="R57:S57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="C58:D58"/>
@@ -21622,23 +21896,19 @@
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21646,8 +21916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
